--- a/RawData/BE_RawData_VPython.xlsx
+++ b/RawData/BE_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A6A62C-30F2-46BE-94FC-D1CE685F94D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F960ECD-47FE-42ED-A645-E8B0F5F21417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="19650" windowHeight="13860" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="19650" windowHeight="13860" activeTab="6" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
@@ -458,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{806D8F24-A32C-4472-82EF-02A761444BA5}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{4FE94D80-8C20-4B4D-8D26-8371155AF2EF}">
       <text>
         <r>
           <rPr>
@@ -471,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4FE94D80-8C20-4B4D-8D26-8371155AF2EF}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8E704F4D-8660-4833-92FF-B16DA6A627A4}">
       <text>
         <r>
           <rPr>
@@ -484,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8E704F4D-8660-4833-92FF-B16DA6A627A4}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{6AC3EFEE-F5B1-4D22-8B6A-9D7B7D12ED3D}">
       <text>
         <r>
           <rPr>
@@ -497,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{6AC3EFEE-F5B1-4D22-8B6A-9D7B7D12ED3D}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{8864B1E4-F6A4-4E17-A7F1-F924E2C448D8}">
       <text>
         <r>
           <rPr>
@@ -510,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{8864B1E4-F6A4-4E17-A7F1-F924E2C448D8}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{84F2C5CF-BAE7-4985-890A-974A5AC09F3B}">
       <text>
         <r>
           <rPr>
@@ -523,20 +523,111 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{84F2C5CF-BAE7-4985-890A-974A5AC09F3B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from : Aperçu statistique de l'industrie verrière, 1960-1993, Fédération de l'industrie du verre, August 1994</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{209DC9F8-92F6-4908-AC31-E1E34AC8539C}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{390BB944-D9DC-4D13-99D6-BAD7486197C4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{5319EF12-8521-43BC-BE6C-489945F76F5B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre en 1969, Rapport annuel, Fédération de l'industrie du verre, 1970</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{ABD36021-5B66-45D9-8399-E8B0B6A13145}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre en 1969, Rapport annuel, Fédération de l'industrie du verre, 1970</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{26835470-2DC8-4528-88C9-A019940D81B3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre en 1969, Rapport annuel, Fédération de l'industrie du verre, 1970</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{550F949E-22EE-4397-A5B7-10A0473670C1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre en 1969, Rapport annuel, Fédération de l'industrie du verre, 1970</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{A90F768F-387F-4213-AD2D-BFBC3B885D5A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre en 1969, Rapport annuel, Fédération de l'industrie du verre, 1970</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{67FAEDF3-3681-4F76-AD42-0A15DFB5230E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{E6635DD9-9465-4FA6-B1EF-8CF31EC52CAC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{F33AF8D0-C1E0-423C-8CAF-1E20EF0449C6}">
       <text>
         <r>
           <rPr>
@@ -549,15 +640,80 @@
           <t>Verre…, vol 1, N° 4, juillet-aout 1987
 "L'industrie du verre en Belgique" p. 432-9</t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{A9C2CA60-C672-49D1-8F28-F548E3081DF5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+"L'industrie du verre en Belgique" p. 432-9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{1AE45353-6EA1-44CD-AFDC-F31DC1232CCD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+"L'industrie du verre en Belgique" p. 432-9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{7513F407-45F9-4189-8FE4-1364C85C87C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+"L'industrie du verre en Belgique" p. 432-9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="0" shapeId="0" xr:uid="{5BB0B88C-9233-4A46-A1E6-1DE8B194C225}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+"L'industrie du verre en Belgique" p. 432-9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{63A02CE1-3280-4FC7-947D-C3831F7F0F9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+"L'industrie du verre en Belgique" p. 432-9</t>
         </r>
       </text>
     </comment>
@@ -574,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{C9F962C6-FE43-47F3-BC68-E6459FFD1D6A}">
+    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{C9F962C6-FE43-47F3-BC68-E6459FFD1D6A}">
       <text>
         <r>
           <rPr>
@@ -587,7 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E61" authorId="0" shapeId="0" xr:uid="{30B2C367-713B-4039-A875-D04FDEC9B5A2}">
+    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{30B2C367-713B-4039-A875-D04FDEC9B5A2}">
       <text>
         <r>
           <rPr>
@@ -600,7 +756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F61" authorId="0" shapeId="0" xr:uid="{E064522F-95D2-4A66-BE43-BB5409931E54}">
+    <comment ref="E61" authorId="0" shapeId="0" xr:uid="{E064522F-95D2-4A66-BE43-BB5409931E54}">
       <text>
         <r>
           <rPr>
@@ -613,7 +769,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G61" authorId="0" shapeId="0" xr:uid="{0FD5FCD2-9E6D-4949-8E1F-879ED7431B0A}">
+    <comment ref="F61" authorId="0" shapeId="0" xr:uid="{0FD5FCD2-9E6D-4949-8E1F-879ED7431B0A}">
       <text>
         <r>
           <rPr>
@@ -626,7 +782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H61" authorId="0" shapeId="0" xr:uid="{356E70F4-C48E-4C2D-94E6-A46D70AB8EF6}">
+    <comment ref="G61" authorId="0" shapeId="0" xr:uid="{356E70F4-C48E-4C2D-94E6-A46D70AB8EF6}">
       <text>
         <r>
           <rPr>
@@ -652,7 +808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{DFC0E521-74AD-4969-B765-7FBB32BBB3D1}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{DFC0E521-74AD-4969-B765-7FBB32BBB3D1}">
       <text>
         <r>
           <rPr>
@@ -665,7 +821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{D6F4FBB7-866B-478F-B389-927797773C31}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{D6F4FBB7-866B-478F-B389-927797773C31}">
       <text>
         <r>
           <rPr>
@@ -678,7 +834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{0F2818E7-3B93-4E9D-8F5C-69EA1628730D}">
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{0F2818E7-3B93-4E9D-8F5C-69EA1628730D}">
       <text>
         <r>
           <rPr>
@@ -691,7 +847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G62" authorId="0" shapeId="0" xr:uid="{65ACB346-1FC9-4BC4-B3D9-29BEBD7A472A}">
+    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{65ACB346-1FC9-4BC4-B3D9-29BEBD7A472A}">
       <text>
         <r>
           <rPr>
@@ -704,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H62" authorId="0" shapeId="0" xr:uid="{78799D80-E00E-42C8-A038-A3FB4CDE6F76}">
+    <comment ref="G62" authorId="0" shapeId="0" xr:uid="{78799D80-E00E-42C8-A038-A3FB4CDE6F76}">
       <text>
         <r>
           <rPr>
@@ -740,7 +896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{BAA64F3A-1FA4-4008-8F99-24F6DA59396B}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2D16BB64-7002-42D0-85BD-617FB32B6040}">
       <text>
         <r>
           <rPr>
@@ -753,7 +909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2D16BB64-7002-42D0-85BD-617FB32B6040}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{BE017063-C28E-4188-973E-21D5CC3784C3}">
       <text>
         <r>
           <rPr>
@@ -766,7 +922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{BE017063-C28E-4188-973E-21D5CC3784C3}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{BF7E96A6-C1FA-49C0-ABA7-D181ECA813A8}">
       <text>
         <r>
           <rPr>
@@ -779,7 +935,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BF7E96A6-C1FA-49C0-ABA7-D181ECA813A8}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C743E613-FC44-452E-9DD5-2B59870167D8}">
       <text>
         <r>
           <rPr>
@@ -792,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C743E613-FC44-452E-9DD5-2B59870167D8}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{E09038DF-719C-4632-8486-7909A37E6E86}">
       <text>
         <r>
           <rPr>
@@ -805,20 +961,631 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{E09038DF-719C-4632-8486-7909A37E6E86}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from : Aperçu statistique de l'industrie verrière, 1960-1993, Fédération de l'industrie du verre, August 1994</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{8F1F67BF-80CF-43AD-9314-87B013FB2AE0}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{8AF99699-A6B4-4336-8FE0-D44322AB32D7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{4B4DA534-9F7A-41CA-A132-C68BC3CC96B4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{BE86933C-86AF-43CD-92A3-0B4BC8DA25E5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{87B7D13D-183F-4524-B6CE-75D45868D3E0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{7B97E7C3-C359-4F13-A409-25E75169DCD5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{43E19D7D-AEB9-4A1E-9665-D9BFE23BD7D6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{0959DC61-8A74-4E6D-8A82-F7CB41D5411B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{F0765FCC-D934-4097-AFA1-4577DDD4C729}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{8A15D271-AA7D-495B-8E69-731EF7BC5EF4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{1F69C1AA-5C72-429D-B99E-F5B27F0635B7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{9424A610-9E3C-4D4D-956D-6ED96A4FF898}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{B273957E-426E-4224-B737-EF266085D8C6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{D84D8CDF-F151-424B-9FB5-60C87A3A41C1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{ABA3BD5B-46EF-4643-9307-712E0F757E74}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{5C643817-ACC5-4BDA-AFB9-88672A13240C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{C72488B0-AAEE-4BFA-8D93-96BD249726C0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{3B3208CC-A6BE-417B-8C31-EC9B50905233}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{469592DF-0514-4677-8CA9-7ED2B82A2153}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{88E726E0-6FD9-4063-A28C-A17A513AA616}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{86747F3B-475D-450F-8DE1-55E768BA1E77}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{556D9A13-15D6-4C3F-BEA3-267C633FEA86}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{8AA7FFB0-B6B0-47EB-9343-D4DA42929153}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{BA7616F3-940E-4454-B3AB-31AC1C65353A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{1B1971CA-79E0-47EA-ACA2-F181CEABBA4E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{059E08A0-C700-4B18-B023-D81DED5F8C04}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{3A6A4F00-C098-46FE-9270-4A3FD617AE94}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{DA79F120-41B6-4E52-94C3-2AE72E381B5A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{248C4A2C-A2F1-49E4-8D5F-AC6609543665}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{CF50A267-369A-429E-BF7D-9FFF95FA1AC0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{9DB73830-AFF4-4925-92E9-C8239298B2B7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{A81A3DCD-1B77-412D-A5A9-D3D8F7EA2255}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{33D07253-06A9-47C2-933F-5D6788EA71B2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{32E8B0B2-FBFB-41EF-B2E8-FC400E12EA2A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{B9B472EC-73BD-4530-908A-C92DD1569478}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{31333015-4AB0-4437-81D4-457F3803F236}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{30259002-0DAC-452A-89A2-FC4C8D135E6C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{D922FD6A-4141-4622-9B1C-6158AC984AB9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{A7E79D00-0293-42D1-99D8-A87C52F89169}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{AC9C96F2-1C3B-48AB-8E59-013828B83F78}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{4A5AF172-0EDD-496D-8852-C9B28D141824}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{ADC0B01B-50DD-4621-BD72-47E0CCB96ADF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{9C9F2309-6A52-4A93-BD52-7CEFDBCF68EE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{1761EA6F-F025-428F-B138-5A7AF6B485A2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{70DE27E9-C55C-478A-A9A3-CAF9C632F8FB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{2CCBE9F8-4BC3-425A-B373-EF0A63515B7B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{4CC5FD83-A13E-4F4C-84A4-8246E8A97D59}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{7FBBA495-F9D1-4463-AFAF-4E84881AA2D2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{D7A3D419-775E-4729-8535-756B94ECBF2F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Rapport annuel, exercice 1965, Fédération de l'industrie du verre, 1966</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{5CEE022A-D9CF-4D20-BE70-16E25A6A7FF8}">
       <text>
         <r>
           <rPr>
@@ -833,6 +1600,81 @@
         </r>
       </text>
     </comment>
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{C480135A-EE74-4F94-8106-ED093CC2FD8F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+"L'industrie du verre en Belgique" p. 432-9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{46BA7342-DD64-47BA-B62F-245B4C0B1CAB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+"L'industrie du verre en Belgique" p. 432-9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{F34D830A-F4CF-4643-BB5D-C4C9F7729EE5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+"L'industrie du verre en Belgique" p. 432-9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="0" shapeId="0" xr:uid="{960BA0A7-06A2-4DB5-AEF7-E7F3383477FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+"L'industrie du verre en Belgique" p. 432-9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{8F1F67BF-80CF-43AD-9314-87B013FB2AE0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+"L'industrie du verre en Belgique" p. 432-9</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B61" authorId="0" shapeId="0" xr:uid="{2CE05A23-4C3F-4070-A3A2-2D7697E414C5}">
       <text>
         <r>
@@ -846,7 +1688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{FDA6022C-34B3-4396-BCB1-8A4E6CDE2E8B}">
+    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{FDA6022C-34B3-4396-BCB1-8A4E6CDE2E8B}">
       <text>
         <r>
           <rPr>
@@ -859,7 +1701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E61" authorId="0" shapeId="0" xr:uid="{BE988894-C09B-40F8-93E4-DCF974A1C412}">
+    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{BE988894-C09B-40F8-93E4-DCF974A1C412}">
       <text>
         <r>
           <rPr>
@@ -872,7 +1714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F61" authorId="0" shapeId="0" xr:uid="{49C8B607-F259-4941-B989-7D0B117AA87D}">
+    <comment ref="E61" authorId="0" shapeId="0" xr:uid="{49C8B607-F259-4941-B989-7D0B117AA87D}">
       <text>
         <r>
           <rPr>
@@ -885,7 +1727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G61" authorId="0" shapeId="0" xr:uid="{8F040916-0600-4F24-A46F-994897F4D296}">
+    <comment ref="F61" authorId="0" shapeId="0" xr:uid="{8F040916-0600-4F24-A46F-994897F4D296}">
       <text>
         <r>
           <rPr>
@@ -898,7 +1740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H61" authorId="0" shapeId="0" xr:uid="{51DCC107-4AD3-4598-A0C2-04F96B821D99}">
+    <comment ref="G61" authorId="0" shapeId="0" xr:uid="{51DCC107-4AD3-4598-A0C2-04F96B821D99}">
       <text>
         <r>
           <rPr>
@@ -924,7 +1766,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{09D55305-099F-4E0C-B78E-F61FE61E3C8D}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{09D55305-099F-4E0C-B78E-F61FE61E3C8D}">
       <text>
         <r>
           <rPr>
@@ -937,7 +1779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{C03DA372-F534-489F-9AA4-C7D84EB08DB9}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{C03DA372-F534-489F-9AA4-C7D84EB08DB9}">
       <text>
         <r>
           <rPr>
@@ -950,7 +1792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{5D5F498B-5A4A-4D4A-B13A-B807D17E34E2}">
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{5D5F498B-5A4A-4D4A-B13A-B807D17E34E2}">
       <text>
         <r>
           <rPr>
@@ -963,7 +1805,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G62" authorId="0" shapeId="0" xr:uid="{343A9424-D441-4CEC-8748-039BCFDA0A5E}">
+    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{343A9424-D441-4CEC-8748-039BCFDA0A5E}">
       <text>
         <r>
           <rPr>
@@ -976,7 +1818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H62" authorId="0" shapeId="0" xr:uid="{7D24CDD3-ED94-4CC0-A2D2-EE8FF7EFEAEE}">
+    <comment ref="G62" authorId="0" shapeId="0" xr:uid="{7D24CDD3-ED94-4CC0-A2D2-EE8FF7EFEAEE}">
       <text>
         <r>
           <rPr>
@@ -2248,7 +3090,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>glazing, '000 m²</t>
   </si>
@@ -2260,9 +3102,6 @@
   </si>
   <si>
     <t>glazing, "000 m²</t>
-  </si>
-  <si>
-    <t>arch. flat glass, kt</t>
   </si>
   <si>
     <t>IGU, "000 m²</t>
@@ -2326,10 +3165,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -2487,9 +3325,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2504,9 +3339,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2552,6 +3384,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2872,7 +3710,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2887,10 +3725,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3441,10 +4279,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3973,7 +4811,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3984,14 +4822,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>5</v>
+      <c r="C1" s="26" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4567,7 +5405,7 @@
       <c r="B69" s="9">
         <v>597</v>
       </c>
-      <c r="C69" s="26"/>
+      <c r="C69" s="24"/>
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -4662,1345 +5500,1305 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FB653F-4255-4899-B7D6-3BA7509BAA32}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="19" customWidth="1"/>
-    <col min="2" max="8" width="19.42578125" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="13.5703125" style="20"/>
+    <col min="1" max="1" width="7" style="18" customWidth="1"/>
+    <col min="2" max="7" width="19.42578125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="13.5703125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>1945</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>1946</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>1947</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>1948</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>1949</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>1950</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>1951</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>1952</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>1953</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>1954</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>1955</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>1956</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>1957</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>1958</v>
+      </c>
+      <c r="B15" s="8">
+        <v>4.7309999999999999</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="D15" s="8">
+        <f>0.051+0.483</f>
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G15" s="8">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>1959</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>1960</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38">
+        <v>11</v>
+      </c>
+      <c r="D17" s="38">
+        <v>1</v>
+      </c>
+      <c r="E17" s="38">
+        <v>2</v>
+      </c>
+      <c r="F17" s="38">
+        <v>0</v>
+      </c>
+      <c r="G17" s="38">
+        <v>0</v>
+      </c>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>1961</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38">
+        <v>3</v>
+      </c>
+      <c r="D18" s="38">
+        <v>1</v>
+      </c>
+      <c r="E18" s="38">
+        <v>1</v>
+      </c>
+      <c r="F18" s="38">
+        <v>0</v>
+      </c>
+      <c r="G18" s="38">
+        <v>1</v>
+      </c>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>1962</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38">
+        <v>7</v>
+      </c>
+      <c r="D19" s="38">
+        <v>2</v>
+      </c>
+      <c r="E19" s="38">
+        <v>2</v>
+      </c>
+      <c r="F19" s="38">
+        <v>0</v>
+      </c>
+      <c r="G19" s="38">
+        <v>1</v>
+      </c>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>1963</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38">
+        <v>1</v>
+      </c>
+      <c r="D20" s="38">
         <v>4</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E20" s="38">
+        <v>2</v>
+      </c>
+      <c r="F20" s="38">
+        <v>0</v>
+      </c>
+      <c r="G20" s="38">
+        <v>1</v>
+      </c>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>1964</v>
+      </c>
+      <c r="B21" s="8">
+        <v>22.033999999999999</v>
+      </c>
+      <c r="C21" s="38">
+        <v>6</v>
+      </c>
+      <c r="D21" s="38">
+        <v>12</v>
+      </c>
+      <c r="E21" s="38">
+        <v>2</v>
+      </c>
+      <c r="F21" s="38">
+        <v>0</v>
+      </c>
+      <c r="G21" s="38">
+        <v>1</v>
+      </c>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>1965</v>
+      </c>
+      <c r="B22" s="8">
+        <v>24.206</v>
+      </c>
+      <c r="C22" s="38">
+        <v>7</v>
+      </c>
+      <c r="D22" s="38">
         <v>14</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E22" s="38">
+        <v>2</v>
+      </c>
+      <c r="F22" s="38">
+        <v>0</v>
+      </c>
+      <c r="G22" s="38">
+        <v>1</v>
+      </c>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>1966</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38">
+        <v>14</v>
+      </c>
+      <c r="D23" s="38">
+        <v>16</v>
+      </c>
+      <c r="E23" s="38">
+        <v>2</v>
+      </c>
+      <c r="F23" s="38">
+        <v>0</v>
+      </c>
+      <c r="G23" s="38">
+        <v>2</v>
+      </c>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>1967</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38">
+        <v>19</v>
+      </c>
+      <c r="D24" s="38">
+        <v>5</v>
+      </c>
+      <c r="E24" s="38">
+        <v>2</v>
+      </c>
+      <c r="F24" s="38">
+        <v>0</v>
+      </c>
+      <c r="G24" s="38">
+        <v>3</v>
+      </c>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>1968</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38">
+        <v>18</v>
+      </c>
+      <c r="D25" s="38">
+        <v>10</v>
+      </c>
+      <c r="E25" s="38">
+        <v>3</v>
+      </c>
+      <c r="F25" s="38">
+        <v>0</v>
+      </c>
+      <c r="G25" s="38">
+        <v>2</v>
+      </c>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>1969</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38">
+        <v>11</v>
+      </c>
+      <c r="D26" s="38">
+        <v>16</v>
+      </c>
+      <c r="E26" s="38">
+        <v>3</v>
+      </c>
+      <c r="F26" s="38">
+        <v>0</v>
+      </c>
+      <c r="G26" s="38">
+        <v>5</v>
+      </c>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>1970</v>
+      </c>
+      <c r="B27" s="4">
+        <f>30+7</f>
+        <v>37</v>
+      </c>
+      <c r="C27" s="38">
+        <v>8</v>
+      </c>
+      <c r="D27" s="38">
+        <v>19</v>
+      </c>
+      <c r="E27" s="38">
+        <v>3</v>
+      </c>
+      <c r="F27" s="38">
+        <v>0</v>
+      </c>
+      <c r="G27" s="38">
+        <v>6</v>
+      </c>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>1971</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="38">
+        <v>6</v>
+      </c>
+      <c r="D28" s="38">
+        <v>19</v>
+      </c>
+      <c r="E28" s="38">
+        <v>3</v>
+      </c>
+      <c r="F28" s="38">
+        <v>0</v>
+      </c>
+      <c r="G28" s="38">
+        <v>7</v>
+      </c>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <v>1972</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="38">
+        <v>13</v>
+      </c>
+      <c r="D29" s="38">
+        <v>21</v>
+      </c>
+      <c r="E29" s="38">
+        <v>4</v>
+      </c>
+      <c r="F29" s="38">
+        <v>0</v>
+      </c>
+      <c r="G29" s="38">
+        <v>5</v>
+      </c>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>1973</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="38">
+        <v>21</v>
+      </c>
+      <c r="D30" s="38">
+        <v>20</v>
+      </c>
+      <c r="E30" s="38">
+        <v>8</v>
+      </c>
+      <c r="F30" s="38">
+        <v>0</v>
+      </c>
+      <c r="G30" s="38">
+        <v>7</v>
+      </c>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>1974</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="38">
+        <v>25</v>
+      </c>
+      <c r="D31" s="38">
+        <v>20</v>
+      </c>
+      <c r="E31" s="38">
+        <v>6</v>
+      </c>
+      <c r="F31" s="38">
+        <v>0</v>
+      </c>
+      <c r="G31" s="38">
+        <v>4</v>
+      </c>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>1975</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="38">
+        <v>26</v>
+      </c>
+      <c r="D32" s="38">
         <v>15</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="28" t="s">
+      <c r="E32" s="38">
+        <v>5</v>
+      </c>
+      <c r="F32" s="38">
+        <v>1</v>
+      </c>
+      <c r="G32" s="38">
+        <v>5</v>
+      </c>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>1976</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="38">
+        <v>43</v>
+      </c>
+      <c r="D33" s="38">
+        <v>19</v>
+      </c>
+      <c r="E33" s="38">
+        <v>12</v>
+      </c>
+      <c r="F33" s="38">
+        <v>2</v>
+      </c>
+      <c r="G33" s="38">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>1977</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="38">
+        <v>57</v>
+      </c>
+      <c r="D34" s="38">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
-        <v>1960</v>
-      </c>
-      <c r="B17" s="17">
-        <f>SUM(D17:H17)</f>
-        <v>14</v>
-      </c>
-      <c r="C17" s="17">
-        <f>SUM(D17:G17)</f>
-        <v>14</v>
-      </c>
-      <c r="D17" s="17">
+      <c r="E34" s="38">
+        <v>10</v>
+      </c>
+      <c r="F34" s="38">
+        <v>3</v>
+      </c>
+      <c r="G34" s="38">
+        <v>7</v>
+      </c>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>1978</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="38">
+        <v>55</v>
+      </c>
+      <c r="D35" s="38">
+        <v>15</v>
+      </c>
+      <c r="E35" s="38">
+        <v>7</v>
+      </c>
+      <c r="F35" s="38">
+        <v>5</v>
+      </c>
+      <c r="G35" s="38">
+        <v>6</v>
+      </c>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>1979</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="38">
+        <v>78</v>
+      </c>
+      <c r="D36" s="38">
+        <v>8</v>
+      </c>
+      <c r="E36" s="38">
+        <v>9</v>
+      </c>
+      <c r="F36" s="38">
+        <v>6</v>
+      </c>
+      <c r="G36" s="38">
+        <v>7</v>
+      </c>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>1980</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="38">
+        <v>97</v>
+      </c>
+      <c r="D37" s="38">
+        <v>7</v>
+      </c>
+      <c r="E37" s="38">
+        <v>8</v>
+      </c>
+      <c r="F37" s="38">
+        <v>9</v>
+      </c>
+      <c r="G37" s="38">
+        <v>7</v>
+      </c>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
+        <v>1981</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="38">
+        <v>98</v>
+      </c>
+      <c r="D38" s="38">
+        <v>6</v>
+      </c>
+      <c r="E38" s="38">
+        <v>5</v>
+      </c>
+      <c r="F38" s="38">
+        <v>8</v>
+      </c>
+      <c r="G38" s="38">
+        <v>6</v>
+      </c>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <v>1982</v>
+      </c>
+      <c r="B39" s="4">
+        <f>154+17</f>
+        <v>171</v>
+      </c>
+      <c r="C39" s="38">
+        <v>140</v>
+      </c>
+      <c r="D39" s="38">
+        <v>7</v>
+      </c>
+      <c r="E39" s="38">
+        <v>7</v>
+      </c>
+      <c r="F39" s="38">
+        <v>7</v>
+      </c>
+      <c r="G39" s="38">
+        <v>6</v>
+      </c>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>1983</v>
+      </c>
+      <c r="B40" s="4">
+        <f>138+17</f>
+        <v>155</v>
+      </c>
+      <c r="C40" s="38">
+        <v>126</v>
+      </c>
+      <c r="D40" s="38">
+        <v>7</v>
+      </c>
+      <c r="E40" s="38">
+        <v>5</v>
+      </c>
+      <c r="F40" s="38">
+        <v>6</v>
+      </c>
+      <c r="G40" s="38">
+        <v>7</v>
+      </c>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <v>1984</v>
+      </c>
+      <c r="B41" s="4">
+        <f>118+18</f>
+        <v>136</v>
+      </c>
+      <c r="C41" s="38">
+        <v>103</v>
+      </c>
+      <c r="D41" s="38">
+        <v>8</v>
+      </c>
+      <c r="E41" s="38">
+        <v>7</v>
+      </c>
+      <c r="F41" s="38">
+        <v>5</v>
+      </c>
+      <c r="G41" s="38">
+        <v>9</v>
+      </c>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>1985</v>
+      </c>
+      <c r="B42" s="4">
+        <f>131+20</f>
+        <v>151</v>
+      </c>
+      <c r="C42" s="38">
+        <v>118</v>
+      </c>
+      <c r="D42" s="38">
+        <v>7</v>
+      </c>
+      <c r="E42" s="38">
+        <v>6</v>
+      </c>
+      <c r="F42" s="38">
+        <v>5</v>
+      </c>
+      <c r="G42" s="38">
         <v>11</v>
       </c>
-      <c r="E17" s="17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="17">
-        <v>2</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
-        <v>1961</v>
-      </c>
-      <c r="B18" s="17">
-        <f t="shared" ref="B18:B43" si="0">SUM(D18:H18)</f>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>1986</v>
+      </c>
+      <c r="B43" s="4">
+        <f>136+24</f>
+        <v>160</v>
+      </c>
+      <c r="C43" s="38">
+        <v>125</v>
+      </c>
+      <c r="D43" s="38">
+        <v>5</v>
+      </c>
+      <c r="E43" s="38">
         <v>6</v>
       </c>
-      <c r="C18" s="17">
-        <f t="shared" ref="C18:C50" si="1">SUM(D18:G18)</f>
+      <c r="F43" s="38">
+        <v>6</v>
+      </c>
+      <c r="G43" s="38">
+        <v>15</v>
+      </c>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
+        <v>1987</v>
+      </c>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38">
+        <v>155</v>
+      </c>
+      <c r="D44" s="38">
+        <v>6</v>
+      </c>
+      <c r="E44" s="38">
         <v>5</v>
       </c>
-      <c r="D18" s="17">
-        <v>3</v>
-      </c>
-      <c r="E18" s="17">
-        <v>1</v>
-      </c>
-      <c r="F18" s="17">
-        <v>1</v>
-      </c>
-      <c r="G18" s="17">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17">
-        <v>1</v>
-      </c>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
-        <v>1962</v>
-      </c>
-      <c r="B19" s="17">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C19" s="17">
-        <f t="shared" si="1"/>
+      <c r="F44" s="38">
+        <v>6</v>
+      </c>
+      <c r="G44" s="38">
+        <v>19</v>
+      </c>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
+        <v>1988</v>
+      </c>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38">
+        <v>142</v>
+      </c>
+      <c r="D45" s="38">
+        <v>7</v>
+      </c>
+      <c r="E45" s="38">
+        <v>6</v>
+      </c>
+      <c r="F45" s="38">
+        <v>6</v>
+      </c>
+      <c r="G45" s="38">
+        <v>33</v>
+      </c>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
+        <v>1989</v>
+      </c>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38">
+        <v>142</v>
+      </c>
+      <c r="D46" s="38">
+        <v>8</v>
+      </c>
+      <c r="E46" s="38">
+        <v>5</v>
+      </c>
+      <c r="F46" s="38">
+        <v>7</v>
+      </c>
+      <c r="G46" s="38">
+        <v>36</v>
+      </c>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="20">
+        <v>1990</v>
+      </c>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38">
+        <v>124</v>
+      </c>
+      <c r="D47" s="38">
         <v>11</v>
       </c>
-      <c r="D19" s="17">
+      <c r="E47" s="38">
         <v>7</v>
       </c>
-      <c r="E19" s="17">
-        <v>2</v>
-      </c>
-      <c r="F19" s="17">
-        <v>2</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0</v>
-      </c>
-      <c r="H19" s="17">
-        <v>1</v>
-      </c>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
-        <v>1963</v>
-      </c>
-      <c r="B20" s="17">
-        <f t="shared" si="0"/>
+      <c r="F47" s="38">
         <v>8</v>
       </c>
-      <c r="C20" s="17">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D20" s="17">
-        <v>1</v>
-      </c>
-      <c r="E20" s="17">
-        <v>4</v>
-      </c>
-      <c r="F20" s="17">
-        <v>2</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-      <c r="H20" s="17">
-        <v>1</v>
-      </c>
-      <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
-        <v>1964</v>
-      </c>
-      <c r="B21" s="17">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C21" s="17">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D21" s="17">
+      <c r="G47" s="38">
+        <v>30</v>
+      </c>
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="20">
+        <v>1991</v>
+      </c>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38">
+        <v>147</v>
+      </c>
+      <c r="D48" s="38">
+        <v>10</v>
+      </c>
+      <c r="E48" s="38">
         <v>6</v>
       </c>
-      <c r="E21" s="17">
-        <v>12</v>
-      </c>
-      <c r="F21" s="17">
-        <v>2</v>
-      </c>
-      <c r="G21" s="17">
-        <v>0</v>
-      </c>
-      <c r="H21" s="17">
-        <v>1</v>
-      </c>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
-        <v>1965</v>
-      </c>
-      <c r="B22" s="17">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C22" s="17">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D22" s="17">
-        <v>7</v>
-      </c>
-      <c r="E22" s="17">
-        <v>14</v>
-      </c>
-      <c r="F22" s="17">
-        <v>2</v>
-      </c>
-      <c r="G22" s="17">
-        <v>0</v>
-      </c>
-      <c r="H22" s="17">
-        <v>1</v>
-      </c>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
-        <v>1966</v>
-      </c>
-      <c r="B23" s="17">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C23" s="17">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="D23" s="17">
-        <v>14</v>
-      </c>
-      <c r="E23" s="17">
-        <v>16</v>
-      </c>
-      <c r="F23" s="17">
-        <v>2</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0</v>
-      </c>
-      <c r="H23" s="17">
-        <v>2</v>
-      </c>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
-        <v>1967</v>
-      </c>
-      <c r="B24" s="17">
-        <f t="shared" si="0"/>
+      <c r="F48" s="38">
+        <v>11</v>
+      </c>
+      <c r="G48" s="38">
+        <v>28</v>
+      </c>
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
+        <v>1992</v>
+      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38">
+        <v>166</v>
+      </c>
+      <c r="D49" s="38">
+        <v>10</v>
+      </c>
+      <c r="E49" s="38">
+        <v>6</v>
+      </c>
+      <c r="F49" s="38">
+        <v>10</v>
+      </c>
+      <c r="G49" s="38">
         <v>29</v>
       </c>
-      <c r="C24" s="17">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="D24" s="17">
-        <v>19</v>
-      </c>
-      <c r="E24" s="17">
-        <v>5</v>
-      </c>
-      <c r="F24" s="17">
-        <v>2</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17">
-        <v>3</v>
-      </c>
-      <c r="I24" s="25"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
-        <v>1968</v>
-      </c>
-      <c r="B25" s="17">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C25" s="17">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="D25" s="17">
-        <v>18</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="20">
+        <v>1993</v>
+      </c>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38">
+        <v>106</v>
+      </c>
+      <c r="D50" s="38">
         <v>10</v>
       </c>
-      <c r="F25" s="17">
-        <v>3</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-      <c r="H25" s="17">
-        <v>2</v>
-      </c>
-      <c r="I25" s="25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
-        <v>1969</v>
-      </c>
-      <c r="B26" s="17">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C26" s="17">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D26" s="17">
-        <v>11</v>
-      </c>
-      <c r="E26" s="17">
-        <v>16</v>
-      </c>
-      <c r="F26" s="17">
-        <v>3</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>5</v>
-      </c>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
-        <v>1970</v>
-      </c>
-      <c r="B27" s="17">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C27" s="17">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D27" s="17">
+      <c r="E50" s="38">
         <v>8</v>
       </c>
-      <c r="E27" s="17">
-        <v>19</v>
-      </c>
-      <c r="F27" s="17">
-        <v>3</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-      <c r="H27" s="17">
+      <c r="F50" s="38">
         <v>6</v>
       </c>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
-        <v>1971</v>
-      </c>
-      <c r="B28" s="17">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C28" s="17">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="D28" s="17">
-        <v>6</v>
-      </c>
-      <c r="E28" s="17">
-        <v>19</v>
-      </c>
-      <c r="F28" s="17">
-        <v>3</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0</v>
-      </c>
-      <c r="H28" s="17">
-        <v>7</v>
-      </c>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
-        <v>1972</v>
-      </c>
-      <c r="B29" s="17">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C29" s="17">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="D29" s="17">
-        <v>13</v>
-      </c>
-      <c r="E29" s="17">
-        <v>21</v>
-      </c>
-      <c r="F29" s="17">
-        <v>4</v>
-      </c>
-      <c r="G29" s="17">
-        <v>0</v>
-      </c>
-      <c r="H29" s="17">
-        <v>5</v>
-      </c>
-      <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
-        <v>1973</v>
-      </c>
-      <c r="B30" s="17">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="C30" s="17">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="D30" s="17">
-        <v>21</v>
-      </c>
-      <c r="E30" s="17">
-        <v>20</v>
-      </c>
-      <c r="F30" s="17">
-        <v>8</v>
-      </c>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-      <c r="H30" s="17">
-        <v>7</v>
-      </c>
-      <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
-        <v>1974</v>
-      </c>
-      <c r="B31" s="17">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C31" s="17">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="D31" s="17">
+      <c r="G50" s="38">
         <v>25</v>
       </c>
-      <c r="E31" s="17">
-        <v>20</v>
-      </c>
-      <c r="F31" s="17">
-        <v>6</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0</v>
-      </c>
-      <c r="H31" s="17">
-        <v>4</v>
-      </c>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
-        <v>1975</v>
-      </c>
-      <c r="B32" s="17">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="C32" s="17">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="D32" s="17">
-        <v>26</v>
-      </c>
-      <c r="E32" s="17">
-        <v>15</v>
-      </c>
-      <c r="F32" s="17">
-        <v>5</v>
-      </c>
-      <c r="G32" s="17">
-        <v>1</v>
-      </c>
-      <c r="H32" s="17">
-        <v>5</v>
-      </c>
-      <c r="I32" s="25"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
-        <v>1976</v>
-      </c>
-      <c r="B33" s="17">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="C33" s="17">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="D33" s="17">
-        <v>43</v>
-      </c>
-      <c r="E33" s="17">
-        <v>19</v>
-      </c>
-      <c r="F33" s="17">
-        <v>12</v>
-      </c>
-      <c r="G33" s="17">
-        <v>2</v>
-      </c>
-      <c r="H33" s="17">
-        <v>6</v>
-      </c>
-      <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
-        <v>1977</v>
-      </c>
-      <c r="B34" s="17">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="C34" s="17">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="D34" s="17">
-        <v>57</v>
-      </c>
-      <c r="E34" s="17">
-        <v>17</v>
-      </c>
-      <c r="F34" s="17">
-        <v>10</v>
-      </c>
-      <c r="G34" s="17">
-        <v>3</v>
-      </c>
-      <c r="H34" s="17">
-        <v>7</v>
-      </c>
-      <c r="I34" s="25"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
-        <v>1978</v>
-      </c>
-      <c r="B35" s="17">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="C35" s="17">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="D35" s="17">
-        <v>55</v>
-      </c>
-      <c r="E35" s="17">
-        <v>15</v>
-      </c>
-      <c r="F35" s="17">
-        <v>7</v>
-      </c>
-      <c r="G35" s="17">
-        <v>5</v>
-      </c>
-      <c r="H35" s="17">
-        <v>6</v>
-      </c>
-      <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
-        <v>1979</v>
-      </c>
-      <c r="B36" s="17">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="C36" s="17">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="D36" s="17">
-        <v>78</v>
-      </c>
-      <c r="E36" s="17">
-        <v>8</v>
-      </c>
-      <c r="F36" s="17">
-        <v>9</v>
-      </c>
-      <c r="G36" s="17">
-        <v>6</v>
-      </c>
-      <c r="H36" s="17">
-        <v>7</v>
-      </c>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
-        <v>1980</v>
-      </c>
-      <c r="B37" s="17">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="C37" s="17">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="D37" s="17">
-        <v>97</v>
-      </c>
-      <c r="E37" s="17">
-        <v>7</v>
-      </c>
-      <c r="F37" s="17">
-        <v>8</v>
-      </c>
-      <c r="G37" s="17">
-        <v>9</v>
-      </c>
-      <c r="H37" s="17">
-        <v>7</v>
-      </c>
-      <c r="I37" s="25"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
-        <v>1981</v>
-      </c>
-      <c r="B38" s="17">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="C38" s="17">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-      <c r="D38" s="17">
-        <v>98</v>
-      </c>
-      <c r="E38" s="17">
-        <v>6</v>
-      </c>
-      <c r="F38" s="17">
-        <v>5</v>
-      </c>
-      <c r="G38" s="17">
-        <v>8</v>
-      </c>
-      <c r="H38" s="17">
-        <v>6</v>
-      </c>
-      <c r="I38" s="25"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
-        <v>1982</v>
-      </c>
-      <c r="B39" s="17">
-        <f t="shared" si="0"/>
-        <v>167</v>
-      </c>
-      <c r="C39" s="17">
-        <f t="shared" si="1"/>
-        <v>161</v>
-      </c>
-      <c r="D39" s="17">
-        <v>140</v>
-      </c>
-      <c r="E39" s="17">
-        <v>7</v>
-      </c>
-      <c r="F39" s="17">
-        <v>7</v>
-      </c>
-      <c r="G39" s="17">
-        <v>7</v>
-      </c>
-      <c r="H39" s="17">
-        <v>6</v>
-      </c>
-      <c r="I39" s="25"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
-        <v>1983</v>
-      </c>
-      <c r="B40" s="17">
-        <f t="shared" si="0"/>
-        <v>151</v>
-      </c>
-      <c r="C40" s="17">
-        <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="D40" s="17">
-        <v>126</v>
-      </c>
-      <c r="E40" s="17">
-        <v>7</v>
-      </c>
-      <c r="F40" s="17">
-        <v>5</v>
-      </c>
-      <c r="G40" s="17">
-        <v>6</v>
-      </c>
-      <c r="H40" s="17">
-        <v>7</v>
-      </c>
-      <c r="I40" s="25"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
-        <v>1984</v>
-      </c>
-      <c r="B41" s="17">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="C41" s="17">
-        <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="D41" s="17">
-        <v>103</v>
-      </c>
-      <c r="E41" s="17">
-        <v>8</v>
-      </c>
-      <c r="F41" s="17">
-        <v>7</v>
-      </c>
-      <c r="G41" s="17">
-        <v>5</v>
-      </c>
-      <c r="H41" s="17">
-        <v>9</v>
-      </c>
-      <c r="I41" s="25"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
-        <v>1985</v>
-      </c>
-      <c r="B42" s="17">
-        <f t="shared" si="0"/>
-        <v>147</v>
-      </c>
-      <c r="C42" s="17">
-        <f t="shared" si="1"/>
-        <v>136</v>
-      </c>
-      <c r="D42" s="17">
-        <v>118</v>
-      </c>
-      <c r="E42" s="17">
-        <v>7</v>
-      </c>
-      <c r="F42" s="17">
-        <v>6</v>
-      </c>
-      <c r="G42" s="17">
-        <v>5</v>
-      </c>
-      <c r="H42" s="17">
-        <v>11</v>
-      </c>
-      <c r="I42" s="25"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
-        <v>1986</v>
-      </c>
-      <c r="B43" s="17">
-        <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-      <c r="C43" s="17">
-        <f t="shared" si="1"/>
-        <v>142</v>
-      </c>
-      <c r="D43" s="17">
-        <v>125</v>
-      </c>
-      <c r="E43" s="17">
-        <v>5</v>
-      </c>
-      <c r="F43" s="17">
-        <v>6</v>
-      </c>
-      <c r="G43" s="17">
-        <v>6</v>
-      </c>
-      <c r="H43" s="17">
-        <v>15</v>
-      </c>
-      <c r="I43" s="25"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
-        <v>1987</v>
-      </c>
-      <c r="B44" s="17">
-        <f t="shared" ref="B44:B49" si="2">SUM(D44:H44)</f>
-        <v>191</v>
-      </c>
-      <c r="C44" s="17">
-        <f t="shared" si="1"/>
-        <v>172</v>
-      </c>
-      <c r="D44" s="18">
-        <v>155</v>
-      </c>
-      <c r="E44" s="18">
-        <v>6</v>
-      </c>
-      <c r="F44" s="18">
-        <v>5</v>
-      </c>
-      <c r="G44" s="18">
-        <v>6</v>
-      </c>
-      <c r="H44" s="18">
-        <v>19</v>
-      </c>
-      <c r="I44" s="25"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
-        <v>1988</v>
-      </c>
-      <c r="B45" s="17">
-        <f t="shared" si="2"/>
-        <v>194</v>
-      </c>
-      <c r="C45" s="17">
-        <f t="shared" si="1"/>
-        <v>161</v>
-      </c>
-      <c r="D45" s="18">
-        <v>142</v>
-      </c>
-      <c r="E45" s="18">
-        <v>7</v>
-      </c>
-      <c r="F45" s="18">
-        <v>6</v>
-      </c>
-      <c r="G45" s="18">
-        <v>6</v>
-      </c>
-      <c r="H45" s="18">
-        <v>33</v>
-      </c>
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="21">
-        <v>1989</v>
-      </c>
-      <c r="B46" s="17">
-        <f t="shared" si="2"/>
-        <v>198</v>
-      </c>
-      <c r="C46" s="17">
-        <f t="shared" si="1"/>
-        <v>162</v>
-      </c>
-      <c r="D46" s="18">
-        <v>142</v>
-      </c>
-      <c r="E46" s="18">
-        <v>8</v>
-      </c>
-      <c r="F46" s="18">
-        <v>5</v>
-      </c>
-      <c r="G46" s="18">
-        <v>7</v>
-      </c>
-      <c r="H46" s="18">
-        <v>36</v>
-      </c>
-      <c r="I46" s="25"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
-        <v>1990</v>
-      </c>
-      <c r="B47" s="17">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="C47" s="17">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="D47" s="18">
-        <v>124</v>
-      </c>
-      <c r="E47" s="18">
-        <v>11</v>
-      </c>
-      <c r="F47" s="18">
-        <v>7</v>
-      </c>
-      <c r="G47" s="18">
-        <v>8</v>
-      </c>
-      <c r="H47" s="18">
-        <v>30</v>
-      </c>
-      <c r="I47" s="25"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="21">
-        <v>1991</v>
-      </c>
-      <c r="B48" s="17">
-        <f t="shared" si="2"/>
-        <v>202</v>
-      </c>
-      <c r="C48" s="17">
-        <f t="shared" si="1"/>
-        <v>174</v>
-      </c>
-      <c r="D48" s="18">
-        <v>147</v>
-      </c>
-      <c r="E48" s="18">
-        <v>10</v>
-      </c>
-      <c r="F48" s="18">
-        <v>6</v>
-      </c>
-      <c r="G48" s="18">
-        <v>11</v>
-      </c>
-      <c r="H48" s="18">
-        <v>28</v>
-      </c>
-      <c r="I48" s="25"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="21">
-        <v>1992</v>
-      </c>
-      <c r="B49" s="17">
-        <f t="shared" si="2"/>
-        <v>221</v>
-      </c>
-      <c r="C49" s="17">
-        <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
-      <c r="D49" s="18">
-        <v>166</v>
-      </c>
-      <c r="E49" s="18">
-        <v>10</v>
-      </c>
-      <c r="F49" s="18">
-        <v>6</v>
-      </c>
-      <c r="G49" s="18">
-        <v>10</v>
-      </c>
-      <c r="H49" s="18">
-        <v>29</v>
-      </c>
-      <c r="I49" s="25"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
-        <v>1993</v>
-      </c>
-      <c r="B50" s="17">
-        <f>SUM(D50:H50)</f>
-        <v>155</v>
-      </c>
-      <c r="C50" s="17">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="D50" s="18">
-        <v>106</v>
-      </c>
-      <c r="E50" s="18">
-        <v>10</v>
-      </c>
-      <c r="F50" s="18">
-        <v>8</v>
-      </c>
-      <c r="G50" s="18">
-        <v>6</v>
-      </c>
-      <c r="H50" s="18">
-        <v>25</v>
-      </c>
-      <c r="I50" s="25"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="20">
         <v>1994</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="21">
+      <c r="B51" s="38"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
         <v>1995</v>
       </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
+      <c r="B52" s="38"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
         <v>1996</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="21">
+      <c r="B53" s="38"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="20">
         <v>1997</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="21">
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="20">
         <v>1998</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="21">
+      <c r="B55" s="38"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="20">
         <v>1999</v>
       </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="21">
+      <c r="B56" s="38"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="20">
         <v>2000</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="21">
+      <c r="B57" s="38"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="20">
         <v>2001</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="21">
+      <c r="B58" s="38"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="20">
         <v>2002</v>
       </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="21">
+      <c r="B59" s="38"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="20">
         <v>2003</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="21">
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="20">
         <v>2004</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="38">
         <v>536.70000000000005</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="17">
+      <c r="C61" s="38">
         <v>376.9</v>
       </c>
-      <c r="E61" s="17">
+      <c r="D61" s="38">
         <v>3.3</v>
       </c>
-      <c r="F61" s="17">
+      <c r="E61" s="38">
         <v>6.6</v>
       </c>
-      <c r="G61" s="17">
+      <c r="F61" s="38">
         <v>10.8</v>
       </c>
-      <c r="H61" s="17">
+      <c r="G61" s="38">
         <v>117.4</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="21">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
         <v>2005</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="38">
         <v>527</v>
       </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="17">
+      <c r="C62" s="38">
         <v>345.6</v>
       </c>
-      <c r="E62" s="17">
+      <c r="D62" s="38">
         <v>3.3</v>
       </c>
-      <c r="F62" s="17">
+      <c r="E62" s="38">
         <v>4.5</v>
       </c>
-      <c r="G62" s="17">
+      <c r="F62" s="38">
         <v>15.1</v>
       </c>
-      <c r="H62" s="17">
+      <c r="G62" s="38">
         <v>136.80000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="21">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="20">
         <v>2006</v>
       </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="21">
+      <c r="B63" s="38"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="20">
         <v>2007</v>
       </c>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21">
+      <c r="B64" s="38"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="20">
         <v>2008</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="20">
         <v>2009</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="20">
         <v>2010</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21">
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="20">
         <v>2011</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21">
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="20">
         <v>2012</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21">
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="20">
         <v>2013</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21">
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="20">
         <v>2014</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21">
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="20">
         <v>2015</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21">
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="20">
         <v>2016</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21">
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="20">
         <v>2017</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21">
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="20">
         <v>2018</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21">
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="20">
         <v>2019</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21">
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="20">
         <v>2020</v>
       </c>
     </row>
@@ -6014,49 +6812,46 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA587BC-FAB8-4B3E-8393-9A15FDDF8E5E}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="8" width="20.140625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="13.5703125" style="6"/>
+    <col min="2" max="7" width="20.140625" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="13.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1945</v>
       </c>
@@ -6066,9 +6861,8 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1946</v>
       </c>
@@ -6078,9 +6872,8 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>1947</v>
       </c>
@@ -6090,9 +6883,8 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>1948</v>
       </c>
@@ -6102,9 +6894,8 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1949</v>
       </c>
@@ -6114,9 +6905,8 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>1950</v>
       </c>
@@ -6126,9 +6916,8 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1951</v>
       </c>
@@ -6138,9 +6927,8 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1952</v>
       </c>
@@ -6150,1045 +6938,980 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>1953</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <f>12*17.961</f>
+        <v>215.53199999999998</v>
+      </c>
+      <c r="C10" s="8">
+        <v>47.539000000000001</v>
+      </c>
+      <c r="D10" s="8">
+        <v>129.82300000000001</v>
+      </c>
+      <c r="E10" s="8">
+        <v>24.427</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1.1659999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>1954</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="8">
+        <f>12*20.025</f>
+        <v>240.29999999999998</v>
+      </c>
+      <c r="C11" s="8">
+        <f>12*3.454</f>
+        <v>41.448</v>
+      </c>
+      <c r="D11" s="8">
+        <f>12*12.018</f>
+        <v>144.21600000000001</v>
+      </c>
+      <c r="E11" s="8">
+        <f>12*2.584</f>
+        <v>31.008000000000003</v>
+      </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="8">
+        <f>12*0.146</f>
+        <v>1.7519999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>1955</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="8">
+        <f>12*27.272</f>
+        <v>327.26400000000001</v>
+      </c>
+      <c r="C12" s="8">
+        <f>12*4.237</f>
+        <v>50.844000000000001</v>
+      </c>
+      <c r="D12" s="8">
+        <f>12*15.289</f>
+        <v>183.46799999999999</v>
+      </c>
+      <c r="E12" s="8">
+        <f>12*3.438</f>
+        <v>41.256</v>
+      </c>
       <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="8">
+        <f>12*0.18</f>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>1956</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="B13" s="8">
+        <f>12*28.632</f>
+        <v>343.584</v>
+      </c>
+      <c r="C13" s="8">
+        <f>12*4.232</f>
+        <v>50.784000000000006</v>
+      </c>
+      <c r="D13" s="8">
+        <f>12*17.902</f>
+        <v>214.82400000000001</v>
+      </c>
+      <c r="E13" s="8">
+        <f>12*3.324</f>
+        <v>39.887999999999998</v>
+      </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="8">
+        <f>12*0.291</f>
+        <v>3.492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>1957</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="8">
+        <f>12*24.209</f>
+        <v>290.50799999999998</v>
+      </c>
+      <c r="C14" s="8">
+        <f>12*4.028</f>
+        <v>48.335999999999999</v>
+      </c>
+      <c r="D14" s="8">
+        <f>12*14.816</f>
+        <v>177.792</v>
+      </c>
+      <c r="E14" s="8">
+        <f>12*3.621</f>
+        <v>43.451999999999998</v>
+      </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="8">
+        <f>12*0.353</f>
+        <v>4.2359999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>1958</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <f>12*27.366</f>
+        <v>328.392</v>
+      </c>
+      <c r="C15" s="8">
+        <f>12*3.898</f>
+        <v>46.776000000000003</v>
+      </c>
+      <c r="D15" s="8">
+        <f>12*17.217</f>
+        <v>206.60399999999998</v>
+      </c>
+      <c r="E15" s="8">
+        <f>12*3.773</f>
+        <v>45.276000000000003</v>
+      </c>
+      <c r="F15" s="8">
+        <f>12*0.5638</f>
+        <v>6.7655999999999992</v>
+      </c>
+      <c r="G15" s="8">
+        <f>12*0.333</f>
+        <v>3.9960000000000004</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>1959</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="8">
+        <f>12*35.975</f>
+        <v>431.70000000000005</v>
+      </c>
+      <c r="C16" s="8">
+        <f>12*5.948</f>
+        <v>71.376000000000005</v>
+      </c>
+      <c r="D16" s="8">
+        <f>12*22.512</f>
+        <v>270.14400000000001</v>
+      </c>
+      <c r="E16" s="8">
+        <f>12*4.155</f>
+        <v>49.86</v>
+      </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="8">
+        <f>12*0.399</f>
+        <v>4.7880000000000003</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>1960</v>
       </c>
-      <c r="B17" s="4">
-        <f>SUM(D17:H17)</f>
-        <v>450</v>
+      <c r="B17" s="8">
+        <f>12*38.486</f>
+        <v>461.83199999999999</v>
       </c>
       <c r="C17" s="8">
-        <f>SUM(D17:G17)</f>
-        <v>443</v>
+        <f>12*6.717</f>
+        <v>80.603999999999999</v>
       </c>
       <c r="D17" s="8">
-        <v>81</v>
+        <f>12*24.272</f>
+        <v>291.26400000000001</v>
       </c>
       <c r="E17" s="8">
-        <v>293</v>
+        <f>12*4.369</f>
+        <v>52.427999999999997</v>
       </c>
       <c r="F17" s="8">
-        <v>56</v>
+        <f>12*1.09</f>
+        <v>13.080000000000002</v>
       </c>
       <c r="G17" s="8">
-        <v>13</v>
-      </c>
-      <c r="H17" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f>12*0.543</f>
+        <v>6.516</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>1961</v>
       </c>
-      <c r="B18" s="4">
-        <f t="shared" ref="B18:B26" si="0">SUM(D18:H18)</f>
-        <v>381</v>
+      <c r="B18" s="8">
+        <f>12*32.923</f>
+        <v>395.07600000000002</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" ref="C18:C50" si="1">SUM(D18:G18)</f>
-        <v>377</v>
+        <v>74</v>
       </c>
       <c r="D18" s="8">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="E18" s="8">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="F18" s="8">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G18" s="8">
-        <v>17</v>
-      </c>
-      <c r="H18" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>1962</v>
       </c>
-      <c r="B19" s="4">
-        <f t="shared" si="0"/>
-        <v>454</v>
+      <c r="B19" s="8">
+        <f>12*39.034</f>
+        <v>468.40800000000002</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="1"/>
-        <v>445</v>
+        <v>75</v>
       </c>
       <c r="D19" s="8">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="E19" s="8">
-        <v>295</v>
+        <v>55</v>
       </c>
       <c r="F19" s="8">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G19" s="8">
-        <v>20</v>
-      </c>
-      <c r="H19" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>1963</v>
       </c>
-      <c r="B20" s="4">
-        <f t="shared" si="0"/>
-        <v>420</v>
+      <c r="B20" s="8">
+        <f>12*36.272</f>
+        <v>435.26400000000001</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="1"/>
-        <v>409</v>
+        <v>74</v>
       </c>
       <c r="D20" s="8">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="E20" s="8">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="F20" s="8">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="G20" s="8">
-        <v>21</v>
-      </c>
-      <c r="H20" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>1964</v>
       </c>
-      <c r="B21" s="4">
-        <f t="shared" si="0"/>
-        <v>473</v>
+      <c r="B21" s="8">
+        <f>12*40.991</f>
+        <v>491.892</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="1"/>
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="D21" s="8">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="E21" s="8">
-        <v>289</v>
+        <v>69</v>
       </c>
       <c r="F21" s="8">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="G21" s="8">
-        <v>25</v>
-      </c>
-      <c r="H21" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>1965</v>
       </c>
-      <c r="B22" s="4">
-        <f t="shared" si="0"/>
-        <v>402</v>
+      <c r="B22" s="8">
+        <f>12*34.918</f>
+        <v>419.01599999999996</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="1"/>
-        <v>388</v>
+        <v>85</v>
       </c>
       <c r="D22" s="8">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="E22" s="8">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="F22" s="8">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G22" s="8">
-        <v>34</v>
-      </c>
-      <c r="H22" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>1966</v>
       </c>
-      <c r="B23" s="4">
-        <f t="shared" si="0"/>
-        <v>376</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="8">
-        <f t="shared" si="1"/>
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="E23" s="8">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="F23" s="8">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="G23" s="8">
-        <v>32</v>
-      </c>
-      <c r="H23" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>1967</v>
       </c>
-      <c r="B24" s="4">
-        <f t="shared" si="0"/>
-        <v>370</v>
-      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="8">
-        <f t="shared" si="1"/>
-        <v>351</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="E24" s="8">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="F24" s="8">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G24" s="8">
-        <v>36</v>
-      </c>
-      <c r="H24" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>1968</v>
       </c>
-      <c r="B25" s="4">
-        <f t="shared" si="0"/>
-        <v>413</v>
-      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="8">
-        <f t="shared" si="1"/>
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="E25" s="8">
-        <v>221</v>
+        <v>55</v>
       </c>
       <c r="F25" s="8">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G25" s="8">
-        <v>37</v>
-      </c>
-      <c r="H25" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>1969</v>
       </c>
-      <c r="B26" s="4">
-        <f t="shared" si="0"/>
-        <v>432</v>
-      </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="8">
-        <f t="shared" si="1"/>
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="E26" s="8">
-        <v>233</v>
+        <v>57</v>
       </c>
       <c r="F26" s="8">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G26" s="8">
-        <v>42</v>
-      </c>
-      <c r="H26" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>1970</v>
       </c>
       <c r="B27" s="4">
-        <f>SUM(D27:H27)</f>
-        <v>551</v>
+        <f>479+92</f>
+        <v>571</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="1"/>
-        <v>526</v>
+        <v>150</v>
       </c>
       <c r="D27" s="8">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="E27" s="8">
-        <v>273</v>
+        <v>56</v>
       </c>
       <c r="F27" s="8">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G27" s="8">
-        <v>47</v>
-      </c>
-      <c r="H27" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>1971</v>
       </c>
-      <c r="B28" s="4">
-        <f>SUM(D28:H28)</f>
-        <v>498</v>
-      </c>
+      <c r="B28" s="4"/>
       <c r="C28" s="8">
-        <f t="shared" si="1"/>
-        <v>470</v>
+        <v>161</v>
       </c>
       <c r="D28" s="8">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="E28" s="8">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="F28" s="8">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G28" s="8">
-        <v>45</v>
-      </c>
-      <c r="H28" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1972</v>
       </c>
-      <c r="B29" s="4">
-        <f t="shared" ref="B29:B37" si="2">SUM(D29:H29)</f>
-        <v>569</v>
-      </c>
+      <c r="B29" s="4"/>
       <c r="C29" s="8">
-        <f t="shared" si="1"/>
-        <v>542</v>
+        <v>192</v>
       </c>
       <c r="D29" s="8">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="E29" s="8">
-        <v>249</v>
+        <v>57</v>
       </c>
       <c r="F29" s="8">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G29" s="8">
-        <v>44</v>
-      </c>
-      <c r="H29" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>1973</v>
       </c>
-      <c r="B30" s="4">
-        <f t="shared" si="2"/>
-        <v>565</v>
-      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="8">
-        <f t="shared" si="1"/>
-        <v>540</v>
+        <v>176</v>
       </c>
       <c r="D30" s="8">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="E30" s="8">
-        <v>271</v>
+        <v>53</v>
       </c>
       <c r="F30" s="8">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G30" s="8">
-        <v>40</v>
-      </c>
-      <c r="H30" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>1974</v>
       </c>
-      <c r="B31" s="4">
-        <f t="shared" si="2"/>
-        <v>515</v>
-      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="8">
-        <f t="shared" si="1"/>
-        <v>491</v>
+        <v>149</v>
       </c>
       <c r="D31" s="8">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="E31" s="8">
-        <v>252</v>
+        <v>56</v>
       </c>
       <c r="F31" s="8">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G31" s="8">
-        <v>34</v>
-      </c>
-      <c r="H31" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>1975</v>
       </c>
-      <c r="B32" s="4">
-        <f t="shared" si="2"/>
-        <v>358</v>
-      </c>
+      <c r="B32" s="4"/>
       <c r="C32" s="8">
-        <f t="shared" si="1"/>
-        <v>338</v>
+        <v>134</v>
       </c>
       <c r="D32" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E32" s="8">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F32" s="8">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G32" s="8">
-        <v>34</v>
-      </c>
-      <c r="H32" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>1976</v>
       </c>
-      <c r="B33" s="4">
-        <f t="shared" si="2"/>
-        <v>505</v>
-      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="8">
-        <f t="shared" si="1"/>
-        <v>478</v>
+        <v>264</v>
       </c>
       <c r="D33" s="8">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="E33" s="8">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="F33" s="8">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G33" s="8">
-        <v>32</v>
-      </c>
-      <c r="H33" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>1977</v>
       </c>
-      <c r="B34" s="4">
-        <f t="shared" si="2"/>
-        <v>548</v>
-      </c>
+      <c r="B34" s="4"/>
       <c r="C34" s="8">
-        <f t="shared" si="1"/>
-        <v>522</v>
+        <v>347</v>
       </c>
       <c r="D34" s="8">
-        <v>347</v>
+        <v>110</v>
       </c>
       <c r="E34" s="8">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="F34" s="8">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G34" s="8">
         <v>26</v>
       </c>
-      <c r="H34" s="8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>1978</v>
       </c>
-      <c r="B35" s="4">
-        <f t="shared" si="2"/>
-        <v>633</v>
-      </c>
+      <c r="B35" s="4"/>
       <c r="C35" s="8">
-        <f t="shared" si="1"/>
-        <v>605</v>
+        <v>423</v>
       </c>
       <c r="D35" s="8">
-        <v>423</v>
+        <v>112</v>
       </c>
       <c r="E35" s="8">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="F35" s="8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G35" s="8">
-        <v>33</v>
-      </c>
-      <c r="H35" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>1979</v>
       </c>
-      <c r="B36" s="4">
-        <f t="shared" si="2"/>
-        <v>646</v>
-      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="8">
-        <f t="shared" si="1"/>
-        <v>618</v>
+        <v>449</v>
       </c>
       <c r="D36" s="8">
-        <v>449</v>
+        <v>87</v>
       </c>
       <c r="E36" s="8">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="F36" s="8">
         <v>41</v>
       </c>
       <c r="G36" s="8">
-        <v>41</v>
-      </c>
-      <c r="H36" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>1980</v>
       </c>
-      <c r="B37" s="4">
-        <f t="shared" si="2"/>
-        <v>657</v>
-      </c>
+      <c r="B37" s="4"/>
       <c r="C37" s="8">
-        <f t="shared" si="1"/>
-        <v>630</v>
+        <v>472</v>
       </c>
       <c r="D37" s="8">
-        <v>472</v>
+        <v>55</v>
       </c>
       <c r="E37" s="8">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F37" s="8">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G37" s="8">
-        <v>54</v>
-      </c>
-      <c r="H37" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>1981</v>
       </c>
-      <c r="B38" s="4">
-        <f>SUM(D38:H38)</f>
-        <v>586</v>
-      </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="8">
-        <f t="shared" si="1"/>
-        <v>558</v>
+        <v>419</v>
       </c>
       <c r="D38" s="8">
-        <v>419</v>
+        <v>54</v>
       </c>
       <c r="E38" s="8">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F38" s="8">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G38" s="8">
-        <v>39</v>
-      </c>
-      <c r="H38" s="8">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>1982</v>
       </c>
       <c r="B39" s="4">
-        <f>SUM(D39:H39)</f>
-        <v>659</v>
+        <f>600+108</f>
+        <v>708</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="1"/>
-        <v>630</v>
+        <v>527</v>
       </c>
       <c r="D39" s="8">
-        <v>527</v>
+        <v>36</v>
       </c>
       <c r="E39" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F39" s="8">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G39" s="8">
         <v>29</v>
       </c>
-      <c r="H39" s="8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>1983</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" ref="B40:B43" si="3">SUM(D40:H40)</f>
-        <v>706</v>
+        <f>645+124</f>
+        <v>769</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="1"/>
-        <v>669</v>
+        <v>568</v>
       </c>
       <c r="D40" s="8">
-        <v>568</v>
+        <v>39</v>
       </c>
       <c r="E40" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F40" s="8">
+        <v>25</v>
+      </c>
+      <c r="G40" s="8">
         <v>37</v>
       </c>
-      <c r="G40" s="8">
-        <v>25</v>
-      </c>
-      <c r="H40" s="8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>1984</v>
       </c>
       <c r="B41" s="4">
-        <f t="shared" si="3"/>
-        <v>784</v>
+        <f>718+142</f>
+        <v>860</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="1"/>
-        <v>742</v>
+        <v>634</v>
       </c>
       <c r="D41" s="8">
-        <v>634</v>
+        <v>39</v>
       </c>
       <c r="E41" s="8">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F41" s="8">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="G41" s="8">
-        <v>24</v>
-      </c>
-      <c r="H41" s="8">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>1985</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" si="3"/>
-        <v>763</v>
+        <f>688+153</f>
+        <v>841</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="1"/>
-        <v>714</v>
+        <v>615</v>
       </c>
       <c r="D42" s="8">
-        <v>615</v>
+        <v>33</v>
       </c>
       <c r="E42" s="8">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F42" s="8">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G42" s="8">
-        <v>27</v>
-      </c>
-      <c r="H42" s="8">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>1986</v>
       </c>
       <c r="B43" s="4">
-        <f t="shared" si="3"/>
-        <v>814</v>
+        <f>726+167</f>
+        <v>893</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="1"/>
-        <v>755</v>
+        <v>633</v>
       </c>
       <c r="D43" s="8">
-        <v>633</v>
+        <v>46</v>
       </c>
       <c r="E43" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F43" s="8">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G43" s="8">
-        <v>28</v>
-      </c>
-      <c r="H43" s="8">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>1987</v>
       </c>
-      <c r="B44" s="4">
-        <f>SUM(D44:H44)</f>
-        <v>876</v>
-      </c>
+      <c r="B44" s="4"/>
       <c r="C44" s="8">
-        <f t="shared" si="1"/>
-        <v>802</v>
+        <v>675</v>
       </c>
       <c r="D44" s="8">
-        <v>675</v>
+        <v>41</v>
       </c>
       <c r="E44" s="8">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F44" s="8">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G44" s="8">
-        <v>32</v>
-      </c>
-      <c r="H44" s="8">
         <v>74</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>1988</v>
       </c>
-      <c r="B45" s="4">
-        <f t="shared" ref="B45:B50" si="4">SUM(D45:H45)</f>
-        <v>888</v>
-      </c>
+      <c r="B45" s="4"/>
       <c r="C45" s="8">
-        <f t="shared" si="1"/>
-        <v>793</v>
+        <v>671</v>
       </c>
       <c r="D45" s="8">
-        <v>671</v>
+        <v>27</v>
       </c>
       <c r="E45" s="8">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F45" s="8">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G45" s="8">
-        <v>37</v>
-      </c>
-      <c r="H45" s="8">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>1989</v>
       </c>
-      <c r="B46" s="4">
-        <f t="shared" si="4"/>
-        <v>1076</v>
-      </c>
+      <c r="B46" s="4"/>
       <c r="C46" s="8">
-        <f t="shared" si="1"/>
-        <v>965</v>
+        <v>850</v>
       </c>
       <c r="D46" s="8">
-        <v>850</v>
+        <v>22</v>
       </c>
       <c r="E46" s="8">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F46" s="8">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G46" s="8">
-        <v>32</v>
-      </c>
-      <c r="H46" s="8">
         <v>111</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>1990</v>
       </c>
-      <c r="B47" s="4">
-        <f t="shared" si="4"/>
-        <v>1091</v>
-      </c>
+      <c r="B47" s="4"/>
       <c r="C47" s="8">
-        <f t="shared" si="1"/>
-        <v>991</v>
+        <v>887</v>
       </c>
       <c r="D47" s="8">
-        <v>887</v>
+        <v>12</v>
       </c>
       <c r="E47" s="8">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F47" s="8">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G47" s="8">
-        <v>30</v>
-      </c>
-      <c r="H47" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>1991</v>
       </c>
-      <c r="B48" s="4">
-        <f t="shared" si="4"/>
-        <v>957</v>
-      </c>
+      <c r="B48" s="4"/>
       <c r="C48" s="8">
-        <f t="shared" si="1"/>
-        <v>864</v>
+        <v>765</v>
       </c>
       <c r="D48" s="8">
-        <v>765</v>
+        <v>5</v>
       </c>
       <c r="E48" s="8">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="F48" s="8">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="G48" s="8">
-        <v>28</v>
-      </c>
-      <c r="H48" s="8">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>1992</v>
       </c>
-      <c r="B49" s="4">
-        <f t="shared" si="4"/>
-        <v>981</v>
-      </c>
+      <c r="B49" s="4"/>
       <c r="C49" s="8">
-        <f t="shared" si="1"/>
-        <v>872</v>
+        <v>779</v>
       </c>
       <c r="D49" s="8">
-        <v>779</v>
+        <v>7</v>
       </c>
       <c r="E49" s="8">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F49" s="8">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="G49" s="8">
-        <v>26</v>
-      </c>
-      <c r="H49" s="8">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>1993</v>
       </c>
-      <c r="B50" s="4">
-        <f t="shared" si="4"/>
-        <v>1065</v>
-      </c>
+      <c r="B50" s="4"/>
       <c r="C50" s="8">
-        <f t="shared" si="1"/>
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="D50" s="8">
-        <v>866</v>
+        <v>4</v>
       </c>
       <c r="E50" s="8">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F50" s="8">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="G50" s="8">
-        <v>27</v>
-      </c>
-      <c r="H50" s="8">
         <v>110</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>1994</v>
       </c>
@@ -7198,9 +7921,9 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>1995</v>
       </c>
@@ -7210,9 +7933,9 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>1996</v>
       </c>
@@ -7222,9 +7945,9 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>1997</v>
       </c>
@@ -7234,9 +7957,9 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>1998</v>
       </c>
@@ -7246,9 +7969,9 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>1999</v>
       </c>
@@ -7258,9 +7981,9 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>2000</v>
       </c>
@@ -7270,9 +7993,9 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="11"/>
+    </row>
+    <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>2001</v>
       </c>
@@ -7282,9 +8005,9 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="11"/>
+    </row>
+    <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>2002</v>
       </c>
@@ -7294,9 +8017,9 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="11"/>
+    </row>
+    <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>2003</v>
       </c>
@@ -7306,33 +8029,33 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="11"/>
+    </row>
+    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>2004</v>
       </c>
       <c r="B61" s="8">
         <v>1445.3</v>
       </c>
-      <c r="C61" s="8"/>
+      <c r="C61" s="8">
+        <v>911.8</v>
+      </c>
       <c r="D61" s="8">
-        <v>911.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E61" s="8">
-        <v>1.1000000000000001</v>
+        <v>60.1</v>
       </c>
       <c r="F61" s="8">
-        <v>60.1</v>
+        <v>34.1</v>
       </c>
       <c r="G61" s="8">
-        <v>34.1</v>
-      </c>
-      <c r="H61" s="8">
         <v>298.7</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="11"/>
+    </row>
+    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>2005</v>
       </c>
@@ -7340,24 +8063,24 @@
         <f>974+456</f>
         <v>1430</v>
       </c>
-      <c r="C62" s="8"/>
+      <c r="C62" s="8">
+        <v>909.4</v>
+      </c>
       <c r="D62" s="8">
-        <v>909.4</v>
+        <v>1.3</v>
       </c>
       <c r="E62" s="8">
-        <v>1.3</v>
+        <v>63.2</v>
       </c>
       <c r="F62" s="8">
-        <v>63.2</v>
+        <v>30.9</v>
       </c>
       <c r="G62" s="8">
-        <v>30.9</v>
-      </c>
-      <c r="H62" s="8">
         <v>293.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="11"/>
+    </row>
+    <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>2006</v>
       </c>
@@ -7367,9 +8090,9 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-    </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="11"/>
+    </row>
+    <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>2007</v>
       </c>
@@ -7381,9 +8104,9 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-    </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>2008</v>
       </c>
@@ -7395,9 +8118,9 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-    </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="11"/>
+    </row>
+    <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>2009</v>
       </c>
@@ -7409,9 +8132,9 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-    </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="11"/>
+    </row>
+    <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>2010</v>
       </c>
@@ -7421,9 +8144,9 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-    </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="11"/>
+    </row>
+    <row r="68" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>2011</v>
       </c>
@@ -7433,9 +8156,9 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-    </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="11"/>
+    </row>
+    <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>2012</v>
       </c>
@@ -7445,9 +8168,9 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-    </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="11"/>
+    </row>
+    <row r="70" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>2013</v>
       </c>
@@ -7457,9 +8180,9 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-    </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="11"/>
+    </row>
+    <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>2014</v>
       </c>
@@ -7469,9 +8192,9 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-    </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="11"/>
+    </row>
+    <row r="72" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>2015</v>
       </c>
@@ -7481,9 +8204,9 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-    </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="11"/>
+    </row>
+    <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>2016</v>
       </c>
@@ -7493,9 +8216,9 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-    </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>2017</v>
       </c>
@@ -7505,9 +8228,9 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-    </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="11"/>
+    </row>
+    <row r="75" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>2018</v>
       </c>
@@ -7517,9 +8240,9 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-    </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="11"/>
+    </row>
+    <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>2019</v>
       </c>
@@ -7529,9 +8252,9 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-    </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="11"/>
+    </row>
+    <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>2020</v>
       </c>
@@ -7541,15 +8264,15 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="11"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -7589,7 +8312,7 @@
   <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7597,36 +8320,36 @@
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="5" width="27.85546875" style="8" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="5" style="37" customWidth="1"/>
+    <col min="7" max="7" width="5" style="35" customWidth="1"/>
     <col min="8" max="9" width="36.42578125" style="6" customWidth="1"/>
     <col min="10" max="16384" width="13.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:9" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="26" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7637,7 +8360,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="36"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -7647,7 +8370,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="36"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -7657,7 +8380,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="G4" s="36"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -7667,7 +8390,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="G5" s="36"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -7677,7 +8400,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="G6" s="36"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -7687,7 +8410,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="G7" s="36"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -7697,7 +8420,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="G8" s="36"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -7707,7 +8430,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="G9" s="36"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -7717,7 +8440,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="G10" s="36"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -7727,7 +8450,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="G11" s="36"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -7737,7 +8460,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="G12" s="36"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -7747,7 +8470,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="G13" s="36"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -7757,7 +8480,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="G14" s="36"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -7767,7 +8490,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="G15" s="36"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -7777,7 +8500,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="G16" s="36"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -7796,7 +8519,7 @@
       <c r="F17" s="1">
         <v>18</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="1">
         <v>80.099999999999994</v>
       </c>
@@ -7821,7 +8544,7 @@
       <c r="F18" s="1">
         <v>15.9</v>
       </c>
-      <c r="G18" s="36"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="1">
         <v>85.3</v>
       </c>
@@ -7846,7 +8569,7 @@
       <c r="F19" s="1">
         <v>18</v>
       </c>
-      <c r="G19" s="36"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="1">
         <v>88</v>
       </c>
@@ -7871,7 +8594,7 @@
       <c r="F20" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="1">
         <v>97.3</v>
       </c>
@@ -7896,7 +8619,7 @@
       <c r="F21" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="G21" s="36"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="1">
         <v>103</v>
       </c>
@@ -7921,7 +8644,7 @@
       <c r="F22" s="1">
         <v>18.100000000000001</v>
       </c>
-      <c r="G22" s="36"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="1">
         <v>107.1</v>
       </c>
@@ -7946,7 +8669,7 @@
       <c r="F23" s="1">
         <v>20</v>
       </c>
-      <c r="G23" s="36"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="1">
         <v>123.1</v>
       </c>
@@ -7971,7 +8694,7 @@
       <c r="F24" s="1">
         <v>21.4</v>
       </c>
-      <c r="G24" s="36"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="1">
         <v>136.6</v>
       </c>
@@ -7996,7 +8719,7 @@
       <c r="F25" s="1">
         <v>22.7</v>
       </c>
-      <c r="G25" s="36"/>
+      <c r="G25" s="34"/>
       <c r="H25" s="1">
         <v>161.6</v>
       </c>
@@ -8021,7 +8744,7 @@
       <c r="F26" s="1">
         <v>24.3</v>
       </c>
-      <c r="G26" s="36"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="1">
         <v>176.6</v>
       </c>
@@ -8046,7 +8769,7 @@
       <c r="F27" s="1">
         <v>29</v>
       </c>
-      <c r="G27" s="36"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="1">
         <v>206.2</v>
       </c>
@@ -8071,7 +8794,7 @@
       <c r="F28" s="1">
         <v>31.1</v>
       </c>
-      <c r="G28" s="36"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="1">
         <v>251.5</v>
       </c>
@@ -8096,7 +8819,7 @@
       <c r="F29" s="1">
         <v>33.9</v>
       </c>
-      <c r="G29" s="36"/>
+      <c r="G29" s="34"/>
       <c r="H29" s="1">
         <v>259.3</v>
       </c>
@@ -8121,7 +8844,7 @@
       <c r="F30" s="1">
         <v>38.9</v>
       </c>
-      <c r="G30" s="36"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="1">
         <v>300.8</v>
       </c>
@@ -8146,7 +8869,7 @@
       <c r="F31" s="1">
         <v>39.5</v>
       </c>
-      <c r="G31" s="36"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="1">
         <v>359.2</v>
       </c>
@@ -8171,7 +8894,7 @@
       <c r="F32" s="1">
         <v>39.799999999999997</v>
       </c>
-      <c r="G32" s="36"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="1">
         <v>374.9</v>
       </c>
@@ -8196,7 +8919,7 @@
       <c r="F33" s="1">
         <v>47</v>
       </c>
-      <c r="G33" s="36"/>
+      <c r="G33" s="34"/>
       <c r="H33" s="1">
         <v>463.4</v>
       </c>
@@ -8221,7 +8944,7 @@
       <c r="F34" s="1">
         <v>51.7</v>
       </c>
-      <c r="G34" s="36"/>
+      <c r="G34" s="34"/>
       <c r="H34" s="1">
         <v>607.6</v>
       </c>
@@ -8246,7 +8969,7 @@
       <c r="F35" s="1">
         <v>55.6</v>
       </c>
-      <c r="G35" s="36"/>
+      <c r="G35" s="34"/>
       <c r="H35" s="1">
         <v>583.29999999999995</v>
       </c>
@@ -8271,7 +8994,7 @@
       <c r="F36" s="1">
         <v>60.2</v>
       </c>
-      <c r="G36" s="36"/>
+      <c r="G36" s="34"/>
       <c r="H36" s="1">
         <v>643.79999999999995</v>
       </c>
@@ -8296,7 +9019,7 @@
       <c r="F37" s="1">
         <v>64.900000000000006</v>
       </c>
-      <c r="G37" s="36"/>
+      <c r="G37" s="34"/>
       <c r="H37" s="1">
         <v>816.4</v>
       </c>
@@ -8321,7 +9044,7 @@
       <c r="F38" s="1">
         <v>63.1</v>
       </c>
-      <c r="G38" s="36"/>
+      <c r="G38" s="34"/>
       <c r="H38" s="1">
         <v>848.6</v>
       </c>
@@ -8346,7 +9069,7 @@
       <c r="F39" s="1">
         <v>64.8</v>
       </c>
-      <c r="G39" s="36"/>
+      <c r="G39" s="34"/>
       <c r="H39" s="1">
         <v>999.5</v>
       </c>
@@ -8371,7 +9094,7 @@
       <c r="F40" s="1">
         <v>64.8</v>
       </c>
-      <c r="G40" s="36"/>
+      <c r="G40" s="34"/>
       <c r="H40" s="1">
         <v>1055.3</v>
       </c>
@@ -8396,7 +9119,7 @@
       <c r="F41" s="1">
         <v>74</v>
       </c>
-      <c r="G41" s="36"/>
+      <c r="G41" s="34"/>
       <c r="H41" s="1">
         <v>1047.7</v>
       </c>
@@ -8421,7 +9144,7 @@
       <c r="F42" s="1">
         <v>71.3</v>
       </c>
-      <c r="G42" s="36"/>
+      <c r="G42" s="34"/>
       <c r="H42" s="1">
         <v>1254.2</v>
       </c>
@@ -8448,7 +9171,7 @@
       <c r="F43" s="1">
         <v>77.2</v>
       </c>
-      <c r="G43" s="36"/>
+      <c r="G43" s="34"/>
       <c r="H43" s="1">
         <v>1409.9</v>
       </c>
@@ -8473,7 +9196,7 @@
       <c r="F44" s="1">
         <v>79.900000000000006</v>
       </c>
-      <c r="G44" s="36"/>
+      <c r="G44" s="34"/>
       <c r="H44" s="1">
         <v>1563.3</v>
       </c>
@@ -8498,7 +9221,7 @@
       <c r="F45" s="1">
         <v>83</v>
       </c>
-      <c r="G45" s="36"/>
+      <c r="G45" s="34"/>
       <c r="H45" s="1">
         <v>1587.1</v>
       </c>
@@ -8523,7 +9246,7 @@
       <c r="F46" s="1">
         <v>83.5</v>
       </c>
-      <c r="G46" s="36"/>
+      <c r="G46" s="34"/>
       <c r="H46" s="1">
         <v>1589.3</v>
       </c>
@@ -8548,7 +9271,7 @@
       <c r="F47" s="1">
         <v>87.1</v>
       </c>
-      <c r="G47" s="36"/>
+      <c r="G47" s="34"/>
       <c r="H47" s="1">
         <v>1513.3</v>
       </c>
@@ -8573,7 +9296,7 @@
       <c r="F48" s="1">
         <v>77.3</v>
       </c>
-      <c r="G48" s="36"/>
+      <c r="G48" s="34"/>
       <c r="H48" s="1">
         <v>1458.4</v>
       </c>
@@ -8598,7 +9321,7 @@
       <c r="F49" s="1">
         <v>85.6</v>
       </c>
-      <c r="G49" s="36"/>
+      <c r="G49" s="34"/>
       <c r="H49" s="1">
         <v>1440.9</v>
       </c>
@@ -8620,7 +9343,7 @@
       <c r="E50" s="8">
         <v>3352</v>
       </c>
-      <c r="G50" s="36"/>
+      <c r="G50" s="34"/>
     </row>
     <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -8630,7 +9353,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="G51" s="36"/>
+      <c r="G51" s="34"/>
     </row>
     <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -8646,7 +9369,7 @@
       <c r="E52" s="8">
         <v>2497</v>
       </c>
-      <c r="G52" s="36"/>
+      <c r="G52" s="34"/>
     </row>
     <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -8662,7 +9385,7 @@
       <c r="E53" s="8">
         <v>2504</v>
       </c>
-      <c r="G53" s="36"/>
+      <c r="G53" s="34"/>
     </row>
     <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -8678,7 +9401,7 @@
       <c r="E54" s="8">
         <v>2540</v>
       </c>
-      <c r="G54" s="36"/>
+      <c r="G54" s="34"/>
     </row>
     <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -8694,7 +9417,7 @@
       <c r="E55" s="8">
         <v>2561</v>
       </c>
-      <c r="G55" s="36"/>
+      <c r="G55" s="34"/>
     </row>
     <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -8710,7 +9433,7 @@
       <c r="E56" s="8">
         <v>2427</v>
       </c>
-      <c r="G56" s="36"/>
+      <c r="G56" s="34"/>
     </row>
     <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -8726,7 +9449,7 @@
       <c r="E57" s="8">
         <v>2500</v>
       </c>
-      <c r="G57" s="36"/>
+      <c r="G57" s="34"/>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -8742,7 +9465,7 @@
       <c r="E58" s="8">
         <v>2518</v>
       </c>
-      <c r="G58" s="36"/>
+      <c r="G58" s="34"/>
     </row>
     <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -8758,7 +9481,7 @@
       <c r="E59" s="8">
         <v>2453</v>
       </c>
-      <c r="G59" s="36"/>
+      <c r="G59" s="34"/>
     </row>
     <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -8774,7 +9497,7 @@
       <c r="E60" s="8">
         <v>2827</v>
       </c>
-      <c r="G60" s="36"/>
+      <c r="G60" s="34"/>
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -8790,7 +9513,7 @@
       <c r="E61" s="8">
         <v>2750</v>
       </c>
-      <c r="G61" s="36"/>
+      <c r="G61" s="34"/>
     </row>
     <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -8806,7 +9529,7 @@
       <c r="E62" s="8">
         <v>2697</v>
       </c>
-      <c r="G62" s="36"/>
+      <c r="G62" s="34"/>
     </row>
     <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -8822,7 +9545,7 @@
       <c r="E63" s="8">
         <v>2507</v>
       </c>
-      <c r="G63" s="36"/>
+      <c r="G63" s="34"/>
     </row>
     <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -8838,7 +9561,7 @@
       <c r="E64" s="8">
         <v>2472</v>
       </c>
-      <c r="G64" s="36"/>
+      <c r="G64" s="34"/>
     </row>
     <row r="65" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -8854,7 +9577,7 @@
       <c r="E65" s="8">
         <v>2584</v>
       </c>
-      <c r="G65" s="36"/>
+      <c r="G65" s="34"/>
     </row>
     <row r="66" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -8870,7 +9593,7 @@
       <c r="E66" s="8">
         <v>2599</v>
       </c>
-      <c r="G66" s="36"/>
+      <c r="G66" s="34"/>
     </row>
     <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -8886,7 +9609,7 @@
       <c r="E67" s="8">
         <v>2512</v>
       </c>
-      <c r="G67" s="36"/>
+      <c r="G67" s="34"/>
     </row>
     <row r="68" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -8902,7 +9625,7 @@
       <c r="E68" s="8">
         <v>2570</v>
       </c>
-      <c r="G68" s="36"/>
+      <c r="G68" s="34"/>
     </row>
     <row r="69" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -8918,7 +9641,7 @@
       <c r="E69" s="8">
         <v>2546</v>
       </c>
-      <c r="G69" s="36"/>
+      <c r="G69" s="34"/>
     </row>
     <row r="70" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -8934,7 +9657,7 @@
       <c r="E70" s="8">
         <v>2451</v>
       </c>
-      <c r="G70" s="36"/>
+      <c r="G70" s="34"/>
     </row>
     <row r="71" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
@@ -8950,7 +9673,7 @@
       <c r="E71" s="8">
         <v>2256</v>
       </c>
-      <c r="G71" s="36"/>
+      <c r="G71" s="34"/>
     </row>
     <row r="72" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -8966,7 +9689,7 @@
       <c r="E72" s="8">
         <v>2363</v>
       </c>
-      <c r="G72" s="36"/>
+      <c r="G72" s="34"/>
     </row>
     <row r="73" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
@@ -8982,7 +9705,7 @@
       <c r="E73" s="8">
         <v>2360</v>
       </c>
-      <c r="G73" s="36"/>
+      <c r="G73" s="34"/>
     </row>
     <row r="74" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -8998,7 +9721,7 @@
       <c r="E74" s="8">
         <v>2355</v>
       </c>
-      <c r="G74" s="36"/>
+      <c r="G74" s="34"/>
     </row>
     <row r="75" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
@@ -9014,7 +9737,7 @@
       <c r="E75" s="8">
         <v>2404</v>
       </c>
-      <c r="G75" s="36"/>
+      <c r="G75" s="34"/>
     </row>
     <row r="76" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -9024,7 +9747,7 @@
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
-      <c r="G76" s="36"/>
+      <c r="G76" s="34"/>
     </row>
     <row r="77" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -9034,7 +9757,7 @@
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
-      <c r="G77" s="36"/>
+      <c r="G77" s="34"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
@@ -9081,11 +9804,11 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9096,11 +9819,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>8</v>
+      <c r="B1" s="36" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9197,7 +9920,7 @@
       <c r="A17" s="14">
         <v>1960</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>0.86319999999999997</v>
       </c>
     </row>
@@ -9205,7 +9928,7 @@
       <c r="A18" s="14">
         <v>1961</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>0.83069999999999988</v>
       </c>
     </row>
@@ -9213,7 +9936,7 @@
       <c r="A19" s="14">
         <v>1962</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>0.8479000000000001</v>
       </c>
     </row>
@@ -9221,7 +9944,7 @@
       <c r="A20" s="14">
         <v>1963</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>0.81209999999999993</v>
       </c>
     </row>
@@ -9229,7 +9952,7 @@
       <c r="A21" s="14">
         <v>1964</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>0.80079999999999996</v>
       </c>
     </row>
@@ -9237,7 +9960,7 @@
       <c r="A22" s="14">
         <v>1965</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>0.74459999999999993</v>
       </c>
     </row>
@@ -9245,7 +9968,7 @@
       <c r="A23" s="14">
         <v>1966</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>0.73060000000000003</v>
       </c>
     </row>
@@ -9253,7 +9976,7 @@
       <c r="A24" s="14">
         <v>1967</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>0.72019999999999995</v>
       </c>
     </row>
@@ -9261,7 +9984,7 @@
       <c r="A25" s="14">
         <v>1968</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>0.71109999999999995</v>
       </c>
     </row>
@@ -9269,7 +9992,7 @@
       <c r="A26" s="14">
         <v>1969</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>0.70440000000000003</v>
       </c>
     </row>
@@ -9277,7 +10000,7 @@
       <c r="A27" s="14">
         <v>1970</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>0.7026</v>
       </c>
     </row>
@@ -9285,7 +10008,7 @@
       <c r="A28" s="14">
         <v>1971</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>0.67599999999999993</v>
       </c>
     </row>
@@ -9293,7 +10016,7 @@
       <c r="A29" s="14">
         <v>1972</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>0.67890000000000006</v>
       </c>
     </row>
@@ -9301,7 +10024,7 @@
       <c r="A30" s="14">
         <v>1973</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>0.67859999999999998</v>
       </c>
     </row>
@@ -9309,7 +10032,7 @@
       <c r="A31" s="14">
         <v>1974</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>0.63170000000000004</v>
       </c>
     </row>
@@ -9317,7 +10040,7 @@
       <c r="A32" s="14">
         <v>1975</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>0.57050000000000001</v>
       </c>
     </row>
@@ -9325,7 +10048,7 @@
       <c r="A33" s="14">
         <v>1976</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="21">
         <v>0.62470000000000003</v>
       </c>
     </row>
@@ -9333,7 +10056,7 @@
       <c r="A34" s="14">
         <v>1977</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>0.6409999999999999</v>
       </c>
     </row>
@@ -9341,7 +10064,7 @@
       <c r="A35" s="14">
         <v>1978</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <v>0.65049999999999997</v>
       </c>
     </row>
@@ -9349,7 +10072,7 @@
       <c r="A36" s="14">
         <v>1979</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="21">
         <v>0.63990000000000002</v>
       </c>
     </row>
@@ -9357,7 +10080,7 @@
       <c r="A37" s="14">
         <v>1980</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="21">
         <v>0.62270000000000003</v>
       </c>
     </row>
@@ -9365,7 +10088,7 @@
       <c r="A38" s="14">
         <v>1981</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="21">
         <v>0.58090000000000008</v>
       </c>
     </row>
@@ -9373,7 +10096,7 @@
       <c r="A39" s="14">
         <v>1982</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="21">
         <v>0.59209999999999996</v>
       </c>
     </row>
@@ -9381,7 +10104,7 @@
       <c r="A40" s="14">
         <v>1983</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="21">
         <v>0.59799999999999998</v>
       </c>
     </row>
@@ -9389,7 +10112,7 @@
       <c r="A41" s="14">
         <v>1984</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="21">
         <v>0.62639999999999996</v>
       </c>
     </row>
@@ -9397,7 +10120,7 @@
       <c r="A42" s="14">
         <v>1985</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="21">
         <v>0.69269999999999998</v>
       </c>
     </row>
@@ -9405,7 +10128,7 @@
       <c r="A43" s="14">
         <v>1986</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="21">
         <v>0.69950000000000001</v>
       </c>
     </row>
@@ -9413,7 +10136,7 @@
       <c r="A44" s="14">
         <v>1987</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="21">
         <v>0.7056</v>
       </c>
     </row>
@@ -9421,7 +10144,7 @@
       <c r="A45" s="14">
         <v>1988</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="21">
         <v>0.6915</v>
       </c>
     </row>
@@ -9429,7 +10152,7 @@
       <c r="A46" s="14">
         <v>1989</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="21">
         <v>0.69129999999999991</v>
       </c>
     </row>
@@ -9437,7 +10160,7 @@
       <c r="A47" s="14">
         <v>1990</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="21">
         <v>0.66010000000000002</v>
       </c>
     </row>
@@ -9445,7 +10168,7 @@
       <c r="A48" s="14">
         <v>1991</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="21">
         <v>0.63240000000000007</v>
       </c>
     </row>
@@ -9453,7 +10176,7 @@
       <c r="A49" s="14">
         <v>1992</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="21">
         <v>0.62619999999999998</v>
       </c>
     </row>
@@ -9461,7 +10184,7 @@
       <c r="A50" s="14">
         <v>1993</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="21">
         <v>0.60089999999999999</v>
       </c>
     </row>
@@ -9654,25 +10377,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="39"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -9795,7 +10518,7 @@
       <c r="E17" s="11">
         <v>3842674</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <f>277.778*E17/1000</f>
         <v>1067410.298372</v>
       </c>
@@ -9817,7 +10540,7 @@
       <c r="E18" s="11">
         <v>3703645</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <f t="shared" ref="F18:F45" si="0">277.778*E18/1000</f>
         <v>1028791.1008100001</v>
       </c>
@@ -9839,7 +10562,7 @@
       <c r="E19" s="11">
         <v>2680110</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <f t="shared" si="0"/>
         <v>744475.59558000008</v>
       </c>
@@ -9861,7 +10584,7 @@
       <c r="E20" s="11">
         <v>1757339</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <f t="shared" si="0"/>
         <v>488150.11274200003</v>
       </c>
@@ -9883,7 +10606,7 @@
       <c r="E21" s="11">
         <v>1709712</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <f t="shared" si="0"/>
         <v>474920.37993600004</v>
       </c>
@@ -9905,7 +10628,7 @@
       <c r="E22" s="11">
         <v>1747929</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <f t="shared" si="0"/>
         <v>485536.221762</v>
       </c>
@@ -9927,7 +10650,7 @@
       <c r="E23" s="11">
         <v>1263750</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <f t="shared" si="0"/>
         <v>351041.94750000001</v>
       </c>
@@ -9949,7 +10672,7 @@
       <c r="E24" s="11">
         <v>1761837</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <f t="shared" si="0"/>
         <v>489399.55818600004</v>
       </c>
@@ -9971,7 +10694,7 @@
       <c r="E25" s="11">
         <v>2654686</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <f t="shared" si="0"/>
         <v>737413.36770800012</v>
       </c>
@@ -9993,7 +10716,7 @@
       <c r="E26" s="11">
         <v>3858082</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <f t="shared" si="0"/>
         <v>1071690.3017960002</v>
       </c>
@@ -10015,7 +10738,7 @@
       <c r="E27" s="11">
         <v>6386189</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="22">
         <f t="shared" si="0"/>
         <v>1773942.808042</v>
       </c>
@@ -10037,7 +10760,7 @@
       <c r="E28" s="11">
         <v>9819362</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="22">
         <f t="shared" si="0"/>
         <v>2727602.7376360004</v>
       </c>
@@ -10059,7 +10782,7 @@
       <c r="E29" s="11">
         <v>10301020</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="22">
         <f t="shared" si="0"/>
         <v>2861396.7335600005</v>
       </c>
@@ -10081,7 +10804,7 @@
       <c r="E30" s="11">
         <v>9989102</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="22">
         <f t="shared" si="0"/>
         <v>2774752.7753560003</v>
       </c>
@@ -10103,7 +10826,7 @@
       <c r="E31" s="11">
         <v>10552616</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="22">
         <f t="shared" si="0"/>
         <v>2931284.5672480003</v>
       </c>
@@ -10125,7 +10848,7 @@
       <c r="E32" s="11">
         <v>9634853</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="22">
         <f t="shared" si="0"/>
         <v>2676350.1966340002</v>
       </c>
@@ -10147,7 +10870,7 @@
       <c r="E33" s="11">
         <v>10636034</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="22">
         <f t="shared" si="0"/>
         <v>2954456.252452</v>
       </c>
@@ -10169,7 +10892,7 @@
       <c r="E34" s="11">
         <v>10264112</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="22">
         <f t="shared" si="0"/>
         <v>2851144.5031360001</v>
       </c>
@@ -10191,7 +10914,7 @@
       <c r="E35" s="11">
         <v>9306028</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <f t="shared" si="0"/>
         <v>2585009.8457840006</v>
       </c>
@@ -10213,7 +10936,7 @@
       <c r="E36" s="11">
         <v>10316843</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="22">
         <f t="shared" si="0"/>
         <v>2865792.0148539999</v>
       </c>
@@ -10235,7 +10958,7 @@
       <c r="E37" s="11">
         <v>10524799</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="22">
         <f t="shared" si="0"/>
         <v>2923557.616622</v>
       </c>
@@ -10257,7 +10980,7 @@
       <c r="E38" s="11">
         <v>9737794</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <f t="shared" si="0"/>
         <v>2704944.9417320006</v>
       </c>
@@ -10279,7 +11002,7 @@
       <c r="E39" s="11">
         <v>7904310</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <f t="shared" si="0"/>
         <v>2195643.4231800004</v>
       </c>
@@ -10301,7 +11024,7 @@
       <c r="E40" s="11">
         <v>8145378</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <f t="shared" si="0"/>
         <v>2262606.8100840002</v>
       </c>
@@ -10323,7 +11046,7 @@
       <c r="E41" s="11">
         <v>8892189</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <f t="shared" si="0"/>
         <v>2470054.4760420001</v>
       </c>
@@ -10345,7 +11068,7 @@
       <c r="E42" s="11">
         <v>8865967</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="22">
         <f t="shared" si="0"/>
         <v>2462770.5813260004</v>
       </c>
@@ -10367,7 +11090,7 @@
       <c r="E43" s="11">
         <v>8283377</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="22">
         <f t="shared" si="0"/>
         <v>2300939.8963060002</v>
       </c>
@@ -10389,7 +11112,7 @@
       <c r="E44" s="11">
         <v>7851962</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="22">
         <f t="shared" si="0"/>
         <v>2181102.3004360003</v>
       </c>
@@ -10411,7 +11134,7 @@
       <c r="E45" s="11">
         <v>8516088</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="22">
         <f t="shared" si="0"/>
         <v>2365581.8924640003</v>
       </c>

--- a/RawData/BE_RawData_VPython.xlsx
+++ b/RawData/BE_RawData_VPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F960ECD-47FE-42ED-A645-E8B0F5F21417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC929BED-3D5E-4ADA-A25D-13B01948F047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="19650" windowHeight="13860" activeTab="6" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="3900" yWindow="2340" windowWidth="19650" windowHeight="13860" firstSheet="1" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
@@ -873,6 +873,88 @@
         </r>
       </text>
     </comment>
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{D02107B0-5AF3-4D84-A4F9-89909F661A68}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{6B785DF5-2106-441E-A621-670E6BF3F734}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{050916F2-5967-4642-9909-DE3FEE0AB8D7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
+Estimated from monetary value of import and export</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{861FB78E-709D-4E09-847F-762544086CD8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
+Estimated from monetary value of import and export</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B71" authorId="0" shapeId="0" xr:uid="{3D514987-5F4C-4039-BC5F-A29A41E2F099}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
+Estimated from monetary value of import and export</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B72" authorId="0" shapeId="0" xr:uid="{5534B759-7E46-4BD4-BBD6-6171F0ED7FA0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
+Estimated from monetary value of import and export</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1867,6 +1949,90 @@
             <family val="2"/>
           </rPr>
           <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{D20E699F-7CD6-45D4-9BFB-7145D93E1419}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
+Estimated from monetary value of import and export</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{4587919F-895A-4296-9A67-3A3931F7C522}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
+Estimated from monetary value of import and export</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{F7A2613B-3EB3-4BAD-B240-FB460933C12A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
+Estimated from monetary value of import and export</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{11BEE82A-63D3-4047-9C69-468F2E58AFBC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
+Estimated from monetary value of import and export</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B71" authorId="0" shapeId="0" xr:uid="{B1BA7D27-B94B-46D0-A1F1-325CA1436645}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
+Estimated from monetary value of import and export</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B72" authorId="0" shapeId="0" xr:uid="{C65ED911-DB52-4B3E-9A44-590459ACB507}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
+Estimated from monetary value of import and export</t>
         </r>
       </text>
     </comment>
@@ -3272,7 +3438,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3390,6 +3556,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4805,20 +4974,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0982404-9C07-4082-8695-AA4274664C99}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="13.5703125" style="6"/>
+    <col min="3" max="3" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="13.5703125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4924,7 +5094,7 @@
       </c>
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1960</v>
       </c>
@@ -4932,7 +5102,7 @@
         <v>699.89800000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1961</v>
       </c>
@@ -4940,7 +5110,7 @@
         <v>582.92999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1962</v>
       </c>
@@ -4949,7 +5119,7 @@
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1963</v>
       </c>
@@ -4958,7 +5128,7 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1964</v>
       </c>
@@ -4967,7 +5137,7 @@
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1965</v>
       </c>
@@ -4976,7 +5146,7 @@
       </c>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1966</v>
       </c>
@@ -4985,7 +5155,7 @@
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1967</v>
       </c>
@@ -4994,7 +5164,7 @@
       </c>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1968</v>
       </c>
@@ -5003,7 +5173,7 @@
       </c>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1969</v>
       </c>
@@ -5012,7 +5182,7 @@
       </c>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1970</v>
       </c>
@@ -5022,8 +5192,10 @@
       <c r="C27" s="8">
         <v>680</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1971</v>
       </c>
@@ -5033,8 +5205,10 @@
       <c r="C28" s="8">
         <v>620</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1972</v>
       </c>
@@ -5044,8 +5218,10 @@
       <c r="C29" s="8">
         <v>650</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1973</v>
       </c>
@@ -5055,8 +5231,10 @@
       <c r="C30" s="8">
         <v>770</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1974</v>
       </c>
@@ -5066,8 +5244,10 @@
       <c r="C31" s="8">
         <v>1050</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1975</v>
       </c>
@@ -5077,8 +5257,10 @@
       <c r="C32" s="8">
         <v>1275</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1976</v>
       </c>
@@ -5088,8 +5270,10 @@
       <c r="C33" s="8">
         <v>1570</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="11"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1977</v>
       </c>
@@ -5099,8 +5283,10 @@
       <c r="C34" s="8">
         <v>1830</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="11"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1978</v>
       </c>
@@ -5110,8 +5296,10 @@
       <c r="C35" s="8">
         <v>1850</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1979</v>
       </c>
@@ -5121,8 +5309,10 @@
       <c r="C36" s="8">
         <v>1850</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1980</v>
       </c>
@@ -5132,8 +5322,10 @@
       <c r="C37" s="8">
         <v>2500</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1981</v>
       </c>
@@ -5143,8 +5335,10 @@
       <c r="C38" s="8">
         <v>2100</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1982</v>
       </c>
@@ -5154,8 +5348,10 @@
       <c r="C39" s="8">
         <v>1900</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>1983</v>
       </c>
@@ -5164,7 +5360,7 @@
       </c>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1984</v>
       </c>
@@ -5173,7 +5369,7 @@
       </c>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1985</v>
       </c>
@@ -5182,7 +5378,7 @@
       </c>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1986</v>
       </c>
@@ -5191,7 +5387,7 @@
       </c>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>1987</v>
       </c>
@@ -5200,7 +5396,7 @@
       </c>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>1988</v>
       </c>
@@ -5209,7 +5405,7 @@
       </c>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>1989</v>
       </c>
@@ -5218,7 +5414,7 @@
       </c>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1990</v>
       </c>
@@ -5227,7 +5423,7 @@
       </c>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>1991</v>
       </c>
@@ -5506,7 +5702,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6691,7 +6887,9 @@
       <c r="A67" s="20">
         <v>2010</v>
       </c>
-      <c r="B67" s="38"/>
+      <c r="B67" s="8">
+        <v>571.90513386202372</v>
+      </c>
       <c r="C67" s="38"/>
       <c r="D67" s="38"/>
       <c r="E67" s="38"/>
@@ -6702,7 +6900,9 @@
       <c r="A68" s="20">
         <v>2011</v>
       </c>
-      <c r="B68" s="38"/>
+      <c r="B68" s="8">
+        <v>628.06719933218051</v>
+      </c>
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38"/>
@@ -6713,7 +6913,9 @@
       <c r="A69" s="20">
         <v>2012</v>
       </c>
-      <c r="B69" s="38"/>
+      <c r="B69" s="8">
+        <v>574.47814680102556</v>
+      </c>
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
       <c r="E69" s="38"/>
@@ -6724,7 +6926,9 @@
       <c r="A70" s="20">
         <v>2013</v>
       </c>
-      <c r="B70" s="38"/>
+      <c r="B70" s="8">
+        <v>641.19259435931076</v>
+      </c>
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
       <c r="E70" s="38"/>
@@ -6735,7 +6939,9 @@
       <c r="A71" s="20">
         <v>2014</v>
       </c>
-      <c r="B71" s="38"/>
+      <c r="B71" s="8">
+        <v>563.04318466400332</v>
+      </c>
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38"/>
@@ -6746,7 +6952,9 @@
       <c r="A72" s="20">
         <v>2015</v>
       </c>
-      <c r="B72" s="38"/>
+      <c r="B72" s="8">
+        <v>519.47242263430917</v>
+      </c>
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38"/>
@@ -6757,7 +6965,6 @@
       <c r="A73" s="20">
         <v>2016</v>
       </c>
-      <c r="B73" s="38"/>
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38"/>
@@ -6815,10 +7022,10 @@
   <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8138,7 +8345,9 @@
       <c r="A67" s="14">
         <v>2010</v>
       </c>
-      <c r="B67" s="8"/>
+      <c r="B67" s="8">
+        <v>1504.7526132404182</v>
+      </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -8150,7 +8359,9 @@
       <c r="A68" s="14">
         <v>2011</v>
       </c>
-      <c r="B68" s="8"/>
+      <c r="B68" s="8">
+        <v>1541.9470383275261</v>
+      </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -8162,7 +8373,9 @@
       <c r="A69" s="14">
         <v>2012</v>
       </c>
-      <c r="B69" s="8"/>
+      <c r="B69" s="8">
+        <v>1309.4793263646923</v>
+      </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -8174,7 +8387,9 @@
       <c r="A70" s="14">
         <v>2013</v>
       </c>
-      <c r="B70" s="8"/>
+      <c r="B70" s="8">
+        <v>1372.1160278745645</v>
+      </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -8186,7 +8401,9 @@
       <c r="A71" s="14">
         <v>2014</v>
       </c>
-      <c r="B71" s="8"/>
+      <c r="B71" s="8">
+        <v>1088.337862950058</v>
+      </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -8198,7 +8415,9 @@
       <c r="A72" s="14">
         <v>2015</v>
       </c>
-      <c r="B72" s="8"/>
+      <c r="B72" s="8">
+        <v>1025.6563298490128</v>
+      </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -8250,7 +8469,7 @@
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
+      <c r="F76" s="40"/>
       <c r="G76" s="8"/>
       <c r="I76" s="11"/>
     </row>
@@ -8262,41 +8481,45 @@
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
+      <c r="F77" s="40"/>
       <c r="G77" s="8"/>
       <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
+      <c r="F78" s="40"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
+      <c r="F79" s="40"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F80" s="40"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F81" s="40"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
     </row>
   </sheetData>
@@ -9804,11 +10027,11 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RawData/BE_RawData_VPython.xlsx
+++ b/RawData/BE_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC929BED-3D5E-4ADA-A25D-13B01948F047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C816E028-7B6F-49E7-9D90-EDB00E27013E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2340" windowWidth="19650" windowHeight="13860" firstSheet="1" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19650" windowHeight="13860" firstSheet="1" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>

--- a/RawData/BE_RawData_VPython.xlsx
+++ b/RawData/BE_RawData_VPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C816E028-7B6F-49E7-9D90-EDB00E27013E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1097FA62-72D3-480B-9FC5-F5089B768C6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19650" windowHeight="13860" firstSheet="1" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="21510" windowHeight="14670" activeTab="1" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
@@ -98,6 +98,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6CB673EF-88CC-4E56-B1B1-C6E3AF0F71A3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>OECD Data:
+https://data.oecd.org/pop/population.htm</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -292,146 +306,302 @@
         </r>
       </text>
     </comment>
-    <comment ref="B52" authorId="0" shapeId="0" xr:uid="{0824E303-BB30-4634-B8DD-77AAF192DFB1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie verrière, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B57" authorId="0" shapeId="0" xr:uid="{940205FD-65E9-4E62-98C0-C03A7B572C17}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie verrière, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{B3FCD55D-CE14-43DC-9B80-EA17C72F47EA}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie verrière, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B63" authorId="0" shapeId="0" xr:uid="{6EB391B8-A1F1-4E1D-A4A8-333501FB2B5E}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie verrière, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{01B09625-2204-4054-8959-EA4B845CBCCA}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2010, Fédération de l'industrie verrière, August 2011</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{E9BC966C-B602-47A8-BB64-6AED05EC225B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2010, Fédération de l'industrie verrière, August 2011</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B66" authorId="0" shapeId="0" xr:uid="{E544A356-635D-4C4F-8BA6-AE929F1A3158}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2010, Fédération de l'industrie verrière, August 2011</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{D6381EDB-FF40-404D-A24D-F773C530FFD0}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2013, Fédération de l'industrie verrière, November 2014</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{A8D8DBDD-3D47-4BAB-95DF-35B8DAD9C5CC}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2013, Fédération de l'industrie verrière, November 2014</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{8CB53E26-1B55-4B12-8495-94CE7EB08F9A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2013, Fédération de l'industrie verrière, November 2014</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{4F273189-935D-44A5-A69E-BB73377EF17B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2013, Fédération de l'industrie verrière, November 2014</t>
+    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{62955B20-96C1-4EF4-8868-5C8A1E4FAC3D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{D1F872DB-0C90-4F4C-A8F0-D488F41F2F69}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{5666A54F-B981-44FC-A5DA-AC381F334BB3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{98206CBA-A31D-4E48-980E-DD63BC03DA7E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{6C6552A8-DA75-4FFC-AAAC-E09419E743C3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B52" authorId="0" shapeId="0" xr:uid="{1F8E32FD-62AC-4A40-91E3-3CED289E6CBD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{F1261E74-12AA-49C9-BF1D-0F489E77AF0C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{70DC3473-3447-4719-A1C0-D766A356D209}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{25B8BFD1-FF8E-4695-8D3B-1F04E0873F8E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B56" authorId="0" shapeId="0" xr:uid="{52F33A99-0D0B-4259-A80A-327EB7C19980}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B57" authorId="0" shapeId="0" xr:uid="{EED5E0C0-7039-4EBE-BEB7-731F4AB2D310}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B58" authorId="0" shapeId="0" xr:uid="{CB926990-D23D-40E6-A836-F3281928C622}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{21748B7F-E41B-4370-85B5-FD2F0867FD43}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{1464D249-C5A4-4870-8379-8C910C5FE3F7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B61" authorId="0" shapeId="0" xr:uid="{692A6916-772E-44DF-93C7-154E663D6B1D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{A427882F-7797-4C83-9895-E1E70694B621}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B63" authorId="0" shapeId="0" xr:uid="{6019CF96-E4D4-4629-9B21-41F7B13F7B2D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{4B691808-64DE-4924-8E47-8CD5B4CC7882}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{FA00D844-B0AE-4966-9F18-BFBA78DC5A62}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B66" authorId="0" shapeId="0" xr:uid="{17454C45-7D9B-4EDD-8DBD-CD55B2F7B504}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{05FD7DBA-81F6-4F23-B05F-C0076288518C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{C5AFDD2F-1913-40D4-B64F-8130C27890FC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{1DE707F9-BA17-469A-B287-9FA7BCE6C68D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
         </r>
       </text>
     </comment>
@@ -717,7 +887,124 @@
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="0" shapeId="0" xr:uid="{CDA100EB-E4D1-4899-8E98-92FD799E5236}">
+    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{078C54D2-56DC-4786-97A6-7FE6FC705F6C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{6E006DC9-EAB0-4EBA-839D-D2AE2964FCDF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{EF08403B-27B8-44EC-B8A0-DD81A9062233}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B56" authorId="0" shapeId="0" xr:uid="{3D449FA4-467E-43E8-966F-7CC2D9101049}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B57" authorId="0" shapeId="0" xr:uid="{9E42B4A9-6053-43EA-BEE2-2D6065A0F3FE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B58" authorId="0" shapeId="0" xr:uid="{0491CCC9-0D93-4FD2-BF40-08CDDD1BC145}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{25DE4CA0-C782-4891-B8F5-1A1870D79E75}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{50667B2A-C9EF-4506-ADE3-7C3A2BFF8D8A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B61" authorId="0" shapeId="0" xr:uid="{CACEFC36-5970-46CE-BEC1-A8BFE85CE5F6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F61" authorId="0" shapeId="0" xr:uid="{0FD5FCD2-9E6D-4949-8E1F-879ED7431B0A}">
       <text>
         <r>
           <rPr>
@@ -730,7 +1017,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{C9F962C6-FE43-47F3-BC68-E6459FFD1D6A}">
+    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{24841E5A-9DBF-4C78-9B0B-943D1BABC290}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{65ACB346-1FC9-4BC4-B3D9-29BEBD7A472A}">
       <text>
         <r>
           <rPr>
@@ -743,215 +1043,185 @@
         </r>
       </text>
     </comment>
-    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{30B2C367-713B-4039-A875-D04FDEC9B5A2}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E61" authorId="0" shapeId="0" xr:uid="{E064522F-95D2-4A66-BE43-BB5409931E54}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F61" authorId="0" shapeId="0" xr:uid="{0FD5FCD2-9E6D-4949-8E1F-879ED7431B0A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G61" authorId="0" shapeId="0" xr:uid="{356E70F4-C48E-4C2D-94E6-A46D70AB8EF6}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{C1D27EB2-1C3F-4994-B4C5-B66BD4A47E76}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{DFC0E521-74AD-4969-B765-7FBB32BBB3D1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{D6F4FBB7-866B-478F-B389-927797773C31}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{0F2818E7-3B93-4E9D-8F5C-69EA1628730D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{65ACB346-1FC9-4BC4-B3D9-29BEBD7A472A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G62" authorId="0" shapeId="0" xr:uid="{78799D80-E00E-42C8-A038-A3FB4CDE6F76}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{D02107B0-5AF3-4D84-A4F9-89909F661A68}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{6B785DF5-2106-441E-A621-670E6BF3F734}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{050916F2-5967-4642-9909-DE3FEE0AB8D7}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
-Estimated from monetary value of import and export</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{861FB78E-709D-4E09-847F-762544086CD8}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
-Estimated from monetary value of import and export</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B71" authorId="0" shapeId="0" xr:uid="{3D514987-5F4C-4039-BC5F-A29A41E2F099}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
-Estimated from monetary value of import and export</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B72" authorId="0" shapeId="0" xr:uid="{5534B759-7E46-4BD4-BBD6-6171F0ED7FA0}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
-Estimated from monetary value of import and export</t>
+    <comment ref="B63" authorId="0" shapeId="0" xr:uid="{80A2AA8F-907C-4A82-BF95-AA641737F02B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{21A5E2D2-6FA4-46B0-BD76-3FB6B704C57E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{5D0B46C4-FC0C-4123-8FFD-37E8E39630BD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B66" authorId="0" shapeId="0" xr:uid="{8E90CD55-9F40-4450-B953-78F30EB5D004}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{082C09DC-AA1B-4909-9621-7BABA42F4BCF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{1DB6BF75-DA4B-4D2C-83D0-B263C8A48BBB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{BE9CA067-7C8B-4FFE-AA5F-B98C41FF3A00}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{62550DA9-EDE1-4DB8-B8C7-A4BD996750A1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B71" authorId="0" shapeId="0" xr:uid="{3D6CF2D4-A6EC-40BD-B099-F494078CA612}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B72" authorId="0" shapeId="0" xr:uid="{B67C11FC-A9F5-4ED3-B73B-6202CE03F359}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B73" authorId="0" shapeId="0" xr:uid="{03513F22-B1C1-4232-8A4A-F8431097938D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B74" authorId="0" shapeId="0" xr:uid="{2146BC18-100B-4D5A-A7E2-33F7384A2708}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B75" authorId="0" shapeId="0" xr:uid="{BDF7085D-FEC3-4CE3-935D-15FA29E59162}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{595310E7-CF60-4866-9FCE-D405FACB0B64}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
         </r>
       </text>
     </comment>
@@ -1757,7 +2027,124 @@
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="0" shapeId="0" xr:uid="{2CE05A23-4C3F-4070-A3A2-2D7697E414C5}">
+    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{C140BE8D-0119-4D06-B047-2BC12FF048AB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{6230554C-6AC9-4A4B-AE5C-C0CCBB29228D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{3F4C17E6-74A6-4554-A7FE-BB79AA1DD0C5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B56" authorId="0" shapeId="0" xr:uid="{23CAC9AF-93AE-459B-8448-8A3FF01A56D9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B57" authorId="0" shapeId="0" xr:uid="{8DDC68DA-0213-47FF-BDCC-8A500BC10B75}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B58" authorId="0" shapeId="0" xr:uid="{5F387C56-BB5C-4679-B3D8-9257373EA36D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{DD2DC4D8-9674-4195-88EF-3C6DE1133AAF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{1E25C87C-37E7-4B0D-A364-11384B8D47D4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B61" authorId="0" shapeId="0" xr:uid="{5B809094-DEDF-448A-9F28-BECB0E760EB5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F61" authorId="0" shapeId="0" xr:uid="{8F040916-0600-4F24-A46F-994897F4D296}">
       <text>
         <r>
           <rPr>
@@ -1770,7 +2157,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{FDA6022C-34B3-4396-BCB1-8A4E6CDE2E8B}">
+    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{4C139746-510F-4838-8CAC-D8DDAC0D9B61}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{343A9424-D441-4CEC-8748-039BCFDA0A5E}">
       <text>
         <r>
           <rPr>
@@ -1783,256 +2183,185 @@
         </r>
       </text>
     </comment>
-    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{BE988894-C09B-40F8-93E4-DCF974A1C412}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E61" authorId="0" shapeId="0" xr:uid="{49C8B607-F259-4941-B989-7D0B117AA87D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F61" authorId="0" shapeId="0" xr:uid="{8F040916-0600-4F24-A46F-994897F4D296}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G61" authorId="0" shapeId="0" xr:uid="{51DCC107-4AD3-4598-A0C2-04F96B821D99}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{2F52AA66-C7A7-4A4A-AF06-E4F555A1582B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{09D55305-099F-4E0C-B78E-F61FE61E3C8D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{C03DA372-F534-489F-9AA4-C7D84EB08DB9}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{5D5F498B-5A4A-4D4A-B13A-B807D17E34E2}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{343A9424-D441-4CEC-8748-039BCFDA0A5E}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G62" authorId="0" shapeId="0" xr:uid="{7D24CDD3-ED94-4CC0-A2D2-EE8FF7EFEAEE}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{649DBB3B-BD39-479F-B05F-D1C61AE2B9B8}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{4101AEDC-8EFF-473F-87C8-D53500AF7867}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B66" authorId="0" shapeId="0" xr:uid="{84CC4B34-BFC4-478A-AF21-ACBC007BED8C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiffres 2009, Fédération de l'industrie du verre, October 2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{D20E699F-7CD6-45D4-9BFB-7145D93E1419}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
-Estimated from monetary value of import and export</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{4587919F-895A-4296-9A67-3A3931F7C522}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
-Estimated from monetary value of import and export</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{F7A2613B-3EB3-4BAD-B240-FB460933C12A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
-Estimated from monetary value of import and export</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{11BEE82A-63D3-4047-9C69-468F2E58AFBC}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
-Estimated from monetary value of import and export</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B71" authorId="0" shapeId="0" xr:uid="{B1BA7D27-B94B-46D0-A1F1-325CA1436645}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
-Estimated from monetary value of import and export</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B72" authorId="0" shapeId="0" xr:uid="{C65ED911-DB52-4B3E-9A44-590459ACB507}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Données statistiques du secteur verrier, année 2015, Fédération de l'industrie du verre Belge, 2016
-Estimated from monetary value of import and export</t>
+    <comment ref="B63" authorId="0" shapeId="0" xr:uid="{4A97A96A-EF0E-40A2-B396-BD140B64B66C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{648A9EAF-B6BB-459B-B27D-E9167EF3EE50}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{3AD75844-3901-41D4-8537-E583BEE3E4CB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B66" authorId="0" shapeId="0" xr:uid="{A9D3A812-10B3-44EC-A246-D939D96C10E3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{3B48203C-95D9-42D3-B2D7-CA6B62D48DEB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{54CC9B35-70DA-4D46-867F-9CBD5611E284}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{A1A7A004-EE05-4B4E-88CD-4B0930DADF0D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{EF55D829-F589-4BCD-A248-44096B75FFAD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B71" authorId="0" shapeId="0" xr:uid="{46F28C7E-48F9-4B67-95FB-A1E8966B4848}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B72" authorId="0" shapeId="0" xr:uid="{EBDA581D-BE0F-4E08-8B91-73EE10FBBBF2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B73" authorId="0" shapeId="0" xr:uid="{CBF7C170-5F94-4858-8E2F-9D67012986C5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B74" authorId="0" shapeId="0" xr:uid="{D9ED8676-52BF-45E7-85EC-12D1B0EBFBAC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B75" authorId="0" shapeId="0" xr:uid="{F2CB5D53-396F-4E4A-A0E6-1FBC6504C51B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{3FD112BF-2FBC-4AD1-AA8D-5CA0A4DA74FA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
         </r>
       </text>
     </comment>
@@ -3256,7 +3585,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>glazing, '000 m²</t>
   </si>
@@ -3325,6 +3654,10 @@
   </si>
   <si>
     <t>VAB/person/year, "000 F</t>
+  </si>
+  <si>
+    <t>BE, 
+"000 persons</t>
   </si>
 </sst>
 </file>
@@ -3438,7 +3771,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3509,9 +3842,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3577,6 +3907,2279 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>consumption!$A$17:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>consumption!$D$17:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>27.539167486070145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.107796167247376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.260383906300831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.127448869752428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.586372360844525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.368977176669489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.07955499580185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.487736144452558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.595799979207822</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.420692515032144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.900579950289973</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.234363692753028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.383894552569252</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.202730445493735</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.929390094146541</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.81440669319457</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.181707068649416</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.098372329603251</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.091361788617881</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.815292445166538</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.203976062480976</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.73374581600568</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.552759740259742</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.3344155844155843</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.770674784373416</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.361330898762427</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.3287365645913596</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.359979736575479</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.440315087861023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.177802374723287</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23.176482391893249</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.294282287085167</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.186660029865607</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35.814439795215129</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39.353438390138479</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36.242097177300792</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51.033257260903568</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>49.479949029362999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.11328910275104</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>38.449863181070363</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36.090666682729378</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36.344231719604629</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.711286859433152</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44.662808589305996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>56.114473108413293</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.245179855275452</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>37.301040431641347</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50.442819956864902</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>49.32451416681824</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42.312460697506317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61C8-4124-8DB2-21337E72CF12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="808013231"/>
+        <c:axId val="808013647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="808013231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="808013647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="808013647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="808013231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>export!$A$17:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>export!$I$17:$I$50</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>252.06600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193.85399999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>269.80999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>214.85400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277.46099999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>211.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>277.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>292.10299999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>294.30100000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>332.02200000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350.495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>324.19100000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>420.88099999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>370.64599999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>282.40999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>345.41399999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>384.33699999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>266.57899999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>303.46900000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>327.35799999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>243.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>200.95299999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>251.90999999999985</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>111.08500000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43DF-4B52-91DF-1E550A6BF7D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="343331039"/>
+        <c:axId val="37623119"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="343331039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37623119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="37623119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343331039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>162357</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>108238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552017</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>54119</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45841783-AF93-48C9-8BF7-16DD4D03FBF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>102053</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>111580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>632731</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>187780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1047CCC2-0509-46C4-828F-9EC542BB81C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3894,10 +6497,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4431,399 +7034,738 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEEDA53-7E46-4237-BFF2-D54E4EED559A}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="13.5703125" style="6"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="16384" width="13.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1945</v>
       </c>
       <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1946</v>
       </c>
       <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>1947</v>
       </c>
       <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>1948</v>
       </c>
       <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1949</v>
       </c>
       <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>1950</v>
       </c>
       <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1951</v>
       </c>
       <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1952</v>
       </c>
       <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>1953</v>
       </c>
       <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>1954</v>
       </c>
       <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>1955</v>
       </c>
       <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>1956</v>
       </c>
       <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>1957</v>
       </c>
       <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>1958</v>
       </c>
       <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>1959</v>
       </c>
       <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>1960</v>
       </c>
       <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8">
+        <v>9153</v>
+      </c>
+      <c r="D17" s="39">
+        <f>(prod!B17+import!B17-export!B17)/C17*1000</f>
+        <v>27.539167486070145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>1961</v>
       </c>
       <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8">
+        <v>9184</v>
+      </c>
+      <c r="D18" s="39">
+        <f>(prod!B18+import!B18-export!B18)/C18*1000</f>
+        <v>21.107796167247376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>1962</v>
       </c>
       <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="8">
+        <v>9221</v>
+      </c>
+      <c r="D19" s="39">
+        <f>(prod!B19+import!B19-export!B19)/C19*1000</f>
+        <v>29.260383906300831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>1963</v>
       </c>
       <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="8">
+        <v>9290</v>
+      </c>
+      <c r="D20" s="39">
+        <f>(prod!B20+import!B20-export!B20)/C20*1000</f>
+        <v>23.127448869752428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>1964</v>
       </c>
       <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="8">
+        <v>9378</v>
+      </c>
+      <c r="D21" s="39">
+        <f>(prod!B21+import!B21-export!B21)/C21*1000</f>
+        <v>29.586372360844525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>1965</v>
       </c>
       <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="8">
+        <v>9464</v>
+      </c>
+      <c r="D22" s="39">
+        <f>(prod!B22+import!B22-export!B22)/C22*1000</f>
+        <v>22.368977176669489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>1966</v>
       </c>
       <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="8">
+        <v>9528</v>
+      </c>
+      <c r="D23" s="39">
+        <f>(prod!B23+import!B23-export!B23)/C23*1000</f>
+        <v>29.07955499580185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>1967</v>
       </c>
       <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="8">
+        <v>9581</v>
+      </c>
+      <c r="D24" s="39">
+        <f>(prod!B24+import!B24-export!B24)/C24*1000</f>
+        <v>30.487736144452558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>1968</v>
       </c>
       <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="8">
+        <v>9619</v>
+      </c>
+      <c r="D25" s="39">
+        <f>(prod!B25+import!B25-export!B25)/C25*1000</f>
+        <v>30.595799979207822</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>1969</v>
       </c>
       <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="8">
+        <v>9646</v>
+      </c>
+      <c r="D26" s="39">
+        <f>(prod!B26+import!B26-export!B26)/C26*1000</f>
+        <v>34.420692515032144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>1970</v>
       </c>
       <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="8">
+        <v>9656</v>
+      </c>
+      <c r="D27" s="39">
+        <f>(prod!B27+import!B27-export!B27)/C27*1000</f>
+        <v>34.900579950289973</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>1971</v>
       </c>
       <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="8">
+        <v>9673</v>
+      </c>
+      <c r="D28" s="39">
+        <f>(prod!B28+import!B28-export!B28)/C28*1000</f>
+        <v>36.234363692753028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1972</v>
       </c>
       <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="8">
+        <v>9711</v>
+      </c>
+      <c r="D29" s="39">
+        <f>(prod!B29+import!B29-export!B29)/C29*1000</f>
+        <v>33.383894552569252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>1973</v>
       </c>
       <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="8">
+        <v>9742</v>
+      </c>
+      <c r="D30" s="39">
+        <f>(prod!B30+import!B30-export!B30)/C30*1000</f>
+        <v>43.202730445493735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>1974</v>
       </c>
       <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="8">
+        <v>9772</v>
+      </c>
+      <c r="D31" s="39">
+        <f>(prod!B31+import!B31-export!B31)/C31*1000</f>
+        <v>37.929390094146541</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>1975</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="8">
+        <v>9801</v>
+      </c>
+      <c r="D32" s="39">
+        <f>(prod!B32+import!B32-export!B32)/C32*1000</f>
+        <v>28.81440669319457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>1976</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="8">
+        <v>9818</v>
+      </c>
+      <c r="D33" s="39">
+        <f>(prod!B33+import!B33-export!B33)/C33*1000</f>
+        <v>35.181707068649416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>1977</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="8">
+        <v>9830</v>
+      </c>
+      <c r="D34" s="39">
+        <f>(prod!B34+import!B34-export!B34)/C34*1000</f>
+        <v>39.098372329603251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>1978</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="8">
+        <v>9840</v>
+      </c>
+      <c r="D35" s="39">
+        <f>(prod!B35+import!B35-export!B35)/C35*1000</f>
+        <v>27.091361788617881</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>1979</v>
       </c>
       <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="8">
+        <v>9848</v>
+      </c>
+      <c r="D36" s="39">
+        <f>(prod!B36+import!B36-export!B36)/C36*1000</f>
+        <v>30.815292445166538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>1980</v>
       </c>
       <c r="B37" s="8"/>
-    </row>
-    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="8">
+        <v>9859</v>
+      </c>
+      <c r="D37" s="39">
+        <f>(prod!B37+import!B37-export!B37)/C37*1000</f>
+        <v>33.203976062480976</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>1981</v>
       </c>
       <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="8">
+        <v>9859</v>
+      </c>
+      <c r="D38" s="39">
+        <f>(prod!B38+import!B38-export!B38)/C38*1000</f>
+        <v>24.73374581600568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>1982</v>
       </c>
       <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="8">
+        <v>9856</v>
+      </c>
+      <c r="D39" s="39">
+        <f>(prod!B39+import!B39-export!B39)/C39*1000</f>
+        <v>17.552759740259742</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>1983</v>
       </c>
       <c r="B40" s="8"/>
-    </row>
-    <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="8">
+        <v>9856</v>
+      </c>
+      <c r="D40" s="39">
+        <f>(prod!B40+import!B40-export!B40)/C40*1000</f>
+        <v>9.3344155844155843</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>1984</v>
       </c>
       <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="8">
+        <v>9855</v>
+      </c>
+      <c r="D41" s="39">
+        <f>(prod!B41+import!B41-export!B41)/C41*1000</f>
+        <v>11.770674784373416</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>1985</v>
       </c>
       <c r="B42" s="8"/>
-    </row>
-    <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="8">
+        <v>9858</v>
+      </c>
+      <c r="D42" s="39">
+        <f>(prod!B42+import!B42-export!B42)/C42*1000</f>
+        <v>11.361330898762427</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>1986</v>
       </c>
       <c r="B43" s="8"/>
-    </row>
-    <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="8">
+        <v>9862</v>
+      </c>
+      <c r="D43" s="39">
+        <f>(prod!B43+import!B43-export!B43)/C43*1000</f>
+        <v>9.3287365645913596</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>1987</v>
       </c>
       <c r="B44" s="8"/>
-    </row>
-    <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="8">
+        <v>9870</v>
+      </c>
+      <c r="D44" s="39">
+        <f>(prod!B44+import!B44-export!B44)/C44*1000</f>
+        <v>20.359979736575479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>1988</v>
       </c>
       <c r="B45" s="8"/>
-    </row>
-    <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="8">
+        <v>9902</v>
+      </c>
+      <c r="D45" s="39">
+        <f>(prod!B45+import!B45-export!B45)/C45*1000</f>
+        <v>25.440315087861023</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>1989</v>
       </c>
       <c r="B46" s="8"/>
-    </row>
-    <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="8">
+        <v>9938</v>
+      </c>
+      <c r="D46" s="39">
+        <f>(prod!B46+import!B46-export!B46)/C46*1000</f>
+        <v>11.177802374723287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>1990</v>
       </c>
       <c r="B47" s="8"/>
-    </row>
-    <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="8">
+        <v>9967</v>
+      </c>
+      <c r="D47" s="39">
+        <f>(prod!B47+import!B47-export!B47)/C47*1000</f>
+        <v>23.176482391893249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>1991</v>
       </c>
       <c r="B48" s="8"/>
-    </row>
-    <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="8">
+        <v>10004</v>
+      </c>
+      <c r="D48" s="39">
+        <f>(prod!B48+import!B48-export!B48)/C48*1000</f>
+        <v>14.294282287085167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>1992</v>
       </c>
       <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="8">
+        <v>10045</v>
+      </c>
+      <c r="D49" s="39">
+        <f>(prod!B49+import!B49-export!B49)/C49*1000</f>
+        <v>25.186660029865607</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>1993</v>
       </c>
       <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="8">
+        <v>10084</v>
+      </c>
+      <c r="D50" s="39"/>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>1994</v>
       </c>
       <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="8">
+        <v>10116</v>
+      </c>
+      <c r="D51" s="39"/>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>1995</v>
       </c>
       <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="8">
+        <v>10137</v>
+      </c>
+      <c r="D52" s="39"/>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>1996</v>
       </c>
       <c r="B53" s="8"/>
-    </row>
-    <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="8">
+        <v>10157</v>
+      </c>
+      <c r="D53" s="39">
+        <f>(prod!B53+import!B53-export!B53)/C53*1000</f>
+        <v>35.814439795215129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>1997</v>
       </c>
       <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="8">
+        <v>10181</v>
+      </c>
+      <c r="D54" s="39">
+        <f>(prod!B54+import!B54-export!B54)/C54*1000</f>
+        <v>39.353438390138479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>1998</v>
       </c>
       <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="8">
+        <v>10203</v>
+      </c>
+      <c r="D55" s="39">
+        <f>(prod!B55+import!B55-export!B55)/C55*1000</f>
+        <v>36.242097177300792</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>1999</v>
       </c>
       <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="8">
+        <v>10226</v>
+      </c>
+      <c r="D56" s="39">
+        <f>(prod!B56+import!B56-export!B56)/C56*1000</f>
+        <v>51.033257260903568</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>2000</v>
       </c>
       <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="8">
+        <v>10251</v>
+      </c>
+      <c r="D57" s="39">
+        <f>(prod!B57+import!B57-export!B57)/C57*1000</f>
+        <v>49.479949029362999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>2001</v>
       </c>
       <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="8">
+        <v>10287</v>
+      </c>
+      <c r="D58" s="39">
+        <f>(prod!B58+import!B58-export!B58)/C58*1000</f>
+        <v>50.11328910275104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>2002</v>
       </c>
       <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="8">
+        <v>10333</v>
+      </c>
+      <c r="D59" s="39">
+        <f>(prod!B59+import!B59-export!B59)/C59*1000</f>
+        <v>38.449863181070363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>2003</v>
       </c>
       <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="8">
+        <v>10376</v>
+      </c>
+      <c r="D60" s="39">
+        <f>(prod!B60+import!B60-export!B60)/C60*1000</f>
+        <v>36.090666682729378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>2004</v>
       </c>
       <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="8">
+        <v>10421</v>
+      </c>
+      <c r="D61" s="39">
+        <f>(prod!B61+import!B61-export!B61)/C61*1000</f>
+        <v>36.344231719604629</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>2005</v>
       </c>
       <c r="B62" s="8"/>
-    </row>
-    <row r="63" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="8">
+        <v>10479</v>
+      </c>
+      <c r="D62" s="39">
+        <f>(prod!B62+import!B62-export!B62)/C62*1000</f>
+        <v>46.711286859433152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>2006</v>
       </c>
       <c r="B63" s="8"/>
-    </row>
-    <row r="64" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="8">
+        <v>10548</v>
+      </c>
+      <c r="D63" s="39">
+        <f>(prod!B63+import!B63-export!B63)/C63*1000</f>
+        <v>44.662808589305996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>2007</v>
       </c>
@@ -4831,8 +7773,15 @@
         <f>2500*(1.2*1.2)</f>
         <v>3600</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="8">
+        <v>10626</v>
+      </c>
+      <c r="D64" s="39">
+        <f>(prod!B64+import!B64-export!B64)/C64*1000</f>
+        <v>56.114473108413293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>2008</v>
       </c>
@@ -4840,8 +7789,15 @@
         <f>2500*(1.2*1.2)</f>
         <v>3600</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="8">
+        <v>10710</v>
+      </c>
+      <c r="D65" s="39">
+        <f>(prod!B65+import!B65-export!B65)/C65*1000</f>
+        <v>48.245179855275452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>2009</v>
       </c>
@@ -4849,8 +7805,15 @@
         <f>5450*(1.2*1.2)</f>
         <v>7848</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="8">
+        <v>10796</v>
+      </c>
+      <c r="D66" s="39">
+        <f>(prod!B66+import!B66-export!B66)/C66*1000</f>
+        <v>37.301040431641347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>2010</v>
       </c>
@@ -4858,8 +7821,15 @@
         <f>2450*(1.2*1.2)</f>
         <v>3528</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="8">
+        <v>10896</v>
+      </c>
+      <c r="D67" s="39">
+        <f>(prod!B67+import!B67-export!B67)/C67*1000</f>
+        <v>50.442819956864902</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>2011</v>
       </c>
@@ -4867,8 +7837,15 @@
         <f>2470*(1.2*1.2)</f>
         <v>3556.7999999999997</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="8">
+        <v>10994</v>
+      </c>
+      <c r="D68" s="39">
+        <f>(prod!B68+import!B68-export!B68)/C68*1000</f>
+        <v>49.32451416681824</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>2012</v>
       </c>
@@ -4876,60 +7853,93 @@
         <f>2430*(1.2*1.2)</f>
         <v>3499.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="8">
+        <v>11068</v>
+      </c>
+      <c r="D69" s="39">
+        <f>(prod!B69+import!B69-export!B69)/C69*1000</f>
+        <v>42.312460697506317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>2013</v>
       </c>
       <c r="B70" s="8"/>
-    </row>
-    <row r="71" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="8">
+        <v>11125</v>
+      </c>
+      <c r="D70" s="39"/>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>2014</v>
       </c>
       <c r="B71" s="8"/>
-    </row>
-    <row r="72" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="8">
+        <v>11180</v>
+      </c>
+      <c r="D71" s="39"/>
+    </row>
+    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>2015</v>
       </c>
       <c r="B72" s="8"/>
-    </row>
-    <row r="73" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="8">
+        <v>11238</v>
+      </c>
+      <c r="D72" s="39"/>
+    </row>
+    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>2016</v>
       </c>
       <c r="B73" s="8"/>
-    </row>
-    <row r="74" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="8">
+        <v>11295</v>
+      </c>
+      <c r="D73" s="39"/>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>2017</v>
       </c>
       <c r="B74" s="8"/>
-    </row>
-    <row r="75" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="8">
+        <v>11349</v>
+      </c>
+      <c r="D74" s="39"/>
+    </row>
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>2018</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="8">
+        <v>11404</v>
+      </c>
+      <c r="D75" s="39"/>
+    </row>
+    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>2019</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>2020</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="8"/>
     </row>
@@ -4967,7 +7977,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4976,11 +7987,11 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4992,13 +8003,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5419,247 +8430,239 @@
         <v>1990</v>
       </c>
       <c r="B47" s="9">
-        <v>1043.777</v>
-      </c>
-      <c r="C47" s="6"/>
+        <v>1142</v>
+      </c>
     </row>
     <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>1991</v>
       </c>
       <c r="B48" s="9">
-        <v>829.50199999999995</v>
-      </c>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>1992</v>
       </c>
       <c r="B49" s="9">
-        <v>916.94799999999998</v>
-      </c>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>1993</v>
       </c>
       <c r="B50" s="9">
-        <v>891.41399999999999</v>
-      </c>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>1994</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="9">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>1995</v>
       </c>
       <c r="B52" s="9">
-        <v>912</v>
-      </c>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>1996</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>1997</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="9">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>1998</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="9">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1999</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="9">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2000</v>
       </c>
       <c r="B57" s="9">
-        <v>1161</v>
-      </c>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2001</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="9">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2002</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="9">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2003</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="9">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>2004</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="9">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>2005</v>
       </c>
       <c r="B62" s="9">
-        <v>980</v>
-      </c>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>2006</v>
       </c>
       <c r="B63" s="9">
-        <v>966</v>
-      </c>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>2007</v>
       </c>
       <c r="B64" s="9">
-        <v>928</v>
-      </c>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>2008</v>
       </c>
       <c r="B65" s="9">
-        <v>908</v>
-      </c>
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>2009</v>
       </c>
       <c r="B66" s="9">
-        <v>633</v>
-      </c>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>2010</v>
       </c>
       <c r="B67" s="9">
-        <v>697</v>
-      </c>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>2011</v>
       </c>
       <c r="B68" s="9">
-        <v>655</v>
-      </c>
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>2012</v>
       </c>
       <c r="B69" s="9">
-        <v>597</v>
-      </c>
-      <c r="C69" s="24"/>
-    </row>
-    <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>2013</v>
       </c>
-      <c r="B70" s="9">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>2014</v>
       </c>
       <c r="B71" s="9"/>
     </row>
-    <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>2015</v>
       </c>
       <c r="B72" s="7"/>
     </row>
-    <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>2016</v>
       </c>
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>2017</v>
       </c>
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>2018</v>
       </c>
       <c r="B75" s="7"/>
     </row>
-    <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>2019</v>
       </c>
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>2020</v>
       </c>
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -5699,10 +8702,10 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5712,26 +8715,26 @@
     <col min="8" max="16384" width="13.5703125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5739,144 +8742,144 @@
       <c r="A2" s="20">
         <v>1945</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>1946</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>1947</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>1948</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>1949</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>1950</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>1951</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>1952</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>1953</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>1954</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>1955</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>1956</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>1957</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
@@ -5906,31 +8909,34 @@
       <c r="A16" s="20">
         <v>1959</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>1960</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38">
+      <c r="B17" s="37">
+        <f>SUM(C17:G17)</f>
+        <v>14</v>
+      </c>
+      <c r="C17" s="37">
         <v>11</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>1</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="37">
         <v>2</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="37">
         <v>0</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="37">
         <v>0</v>
       </c>
       <c r="H17" s="23"/>
@@ -5939,20 +8945,23 @@
       <c r="A18" s="20">
         <v>1961</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38">
+      <c r="B18" s="37">
+        <f t="shared" ref="B18:B20" si="0">SUM(C18:G18)</f>
+        <v>6</v>
+      </c>
+      <c r="C18" s="37">
         <v>3</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <v>1</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <v>1</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="37">
         <v>0</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="37">
         <v>1</v>
       </c>
       <c r="H18" s="23"/>
@@ -5961,20 +8970,23 @@
       <c r="A19" s="20">
         <v>1962</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38">
+      <c r="B19" s="37">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="37">
         <v>7</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>2</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="37">
         <v>2</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <v>0</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="37">
         <v>1</v>
       </c>
       <c r="H19" s="23"/>
@@ -5983,20 +8995,23 @@
       <c r="A20" s="20">
         <v>1963</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38">
+      <c r="B20" s="37">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C20" s="37">
         <v>1</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>4</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="37">
         <v>2</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="37">
         <v>0</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="37">
         <v>1</v>
       </c>
       <c r="H20" s="23"/>
@@ -6008,19 +9023,19 @@
       <c r="B21" s="8">
         <v>22.033999999999999</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="37">
         <v>6</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>12</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="37">
         <v>2</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="37">
         <v>0</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="37">
         <v>1</v>
       </c>
       <c r="H21" s="23"/>
@@ -6032,19 +9047,19 @@
       <c r="B22" s="8">
         <v>24.206</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="37">
         <v>7</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="37">
         <v>14</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="37">
         <v>2</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="37">
         <v>0</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="37">
         <v>1</v>
       </c>
       <c r="H22" s="23"/>
@@ -6053,20 +9068,23 @@
       <c r="A23" s="20">
         <v>1966</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38">
+      <c r="B23" s="37">
+        <f t="shared" ref="B23:B26" si="1">SUM(C23:G23)</f>
+        <v>34</v>
+      </c>
+      <c r="C23" s="37">
         <v>14</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="37">
         <v>16</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="37">
         <v>2</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="37">
         <v>0</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="37">
         <v>2</v>
       </c>
       <c r="H23" s="23"/>
@@ -6075,20 +9093,23 @@
       <c r="A24" s="20">
         <v>1967</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38">
+      <c r="B24" s="37">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C24" s="37">
         <v>19</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="37">
         <v>5</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="37">
         <v>2</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="37">
         <v>0</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="37">
         <v>3</v>
       </c>
       <c r="H24" s="23"/>
@@ -6097,20 +9118,23 @@
       <c r="A25" s="20">
         <v>1968</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38">
+      <c r="B25" s="37">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C25" s="37">
         <v>18</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="37">
         <v>10</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="37">
         <v>3</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="37">
         <v>0</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="37">
         <v>2</v>
       </c>
       <c r="H25" s="23"/>
@@ -6119,20 +9143,23 @@
       <c r="A26" s="20">
         <v>1969</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38">
+      <c r="B26" s="37">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C26" s="37">
         <v>11</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="37">
         <v>16</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="37">
         <v>3</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="37">
         <v>0</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="37">
         <v>5</v>
       </c>
       <c r="H26" s="23"/>
@@ -6145,19 +9172,19 @@
         <f>30+7</f>
         <v>37</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="37">
         <v>8</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <v>19</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="37">
         <v>3</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="37">
         <v>0</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="37">
         <v>6</v>
       </c>
       <c r="H27" s="23"/>
@@ -6166,20 +9193,23 @@
       <c r="A28" s="20">
         <v>1971</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="38">
+      <c r="B28" s="37">
+        <f t="shared" ref="B28:B38" si="2">SUM(C28:G28)</f>
+        <v>35</v>
+      </c>
+      <c r="C28" s="37">
         <v>6</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="37">
         <v>19</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="37">
         <v>3</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="37">
         <v>0</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="37">
         <v>7</v>
       </c>
       <c r="H28" s="23"/>
@@ -6188,20 +9218,23 @@
       <c r="A29" s="20">
         <v>1972</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="38">
+      <c r="B29" s="37">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="C29" s="37">
         <v>13</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="37">
         <v>21</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="37">
         <v>4</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="37">
         <v>0</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="37">
         <v>5</v>
       </c>
       <c r="H29" s="23"/>
@@ -6210,20 +9243,23 @@
       <c r="A30" s="20">
         <v>1973</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="38">
+      <c r="B30" s="37">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="C30" s="37">
         <v>21</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="37">
         <v>20</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="37">
         <v>8</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="37">
         <v>0</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="37">
         <v>7</v>
       </c>
       <c r="H30" s="23"/>
@@ -6232,20 +9268,23 @@
       <c r="A31" s="20">
         <v>1974</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="38">
+      <c r="B31" s="37">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="C31" s="37">
         <v>25</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="37">
         <v>20</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="37">
         <v>6</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="37">
         <v>0</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="37">
         <v>4</v>
       </c>
       <c r="H31" s="23"/>
@@ -6254,20 +9293,23 @@
       <c r="A32" s="20">
         <v>1975</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="38">
+      <c r="B32" s="37">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="C32" s="37">
         <v>26</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="37">
         <v>15</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="37">
         <v>5</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="37">
         <v>1</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="37">
         <v>5</v>
       </c>
       <c r="H32" s="23"/>
@@ -6276,20 +9318,23 @@
       <c r="A33" s="20">
         <v>1976</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="38">
+      <c r="B33" s="37">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="C33" s="37">
         <v>43</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="37">
         <v>19</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="37">
         <v>12</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="37">
         <v>2</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="37">
         <v>6</v>
       </c>
       <c r="H33" s="23"/>
@@ -6298,20 +9343,23 @@
       <c r="A34" s="20">
         <v>1977</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="38">
+      <c r="B34" s="37">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="C34" s="37">
         <v>57</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="37">
         <v>17</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="37">
         <v>10</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="37">
         <v>3</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="37">
         <v>7</v>
       </c>
       <c r="H34" s="23"/>
@@ -6320,20 +9368,23 @@
       <c r="A35" s="20">
         <v>1978</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="38">
+      <c r="B35" s="37">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="C35" s="37">
         <v>55</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="37">
         <v>15</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="37">
         <v>7</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="37">
         <v>5</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="37">
         <v>6</v>
       </c>
       <c r="H35" s="23"/>
@@ -6342,20 +9393,23 @@
       <c r="A36" s="20">
         <v>1979</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="38">
+      <c r="B36" s="37">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="C36" s="37">
         <v>78</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="37">
         <v>8</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="37">
         <v>9</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="37">
         <v>6</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="37">
         <v>7</v>
       </c>
       <c r="H36" s="23"/>
@@ -6364,20 +9418,23 @@
       <c r="A37" s="20">
         <v>1980</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="38">
+      <c r="B37" s="37">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="C37" s="37">
         <v>97</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="37">
         <v>7</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="37">
         <v>8</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="37">
         <v>9</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="37">
         <v>7</v>
       </c>
       <c r="H37" s="23"/>
@@ -6386,20 +9443,23 @@
       <c r="A38" s="20">
         <v>1981</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="38">
+      <c r="B38" s="37">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="C38" s="37">
         <v>98</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="37">
         <v>6</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="37">
         <v>5</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="37">
         <v>8</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="37">
         <v>6</v>
       </c>
       <c r="H38" s="23"/>
@@ -6412,19 +9472,19 @@
         <f>154+17</f>
         <v>171</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="37">
         <v>140</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="37">
         <v>7</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="37">
         <v>7</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="37">
         <v>7</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="37">
         <v>6</v>
       </c>
       <c r="H39" s="23"/>
@@ -6437,19 +9497,19 @@
         <f>138+17</f>
         <v>155</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40" s="37">
         <v>126</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="37">
         <v>7</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="37">
         <v>5</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="37">
         <v>6</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="37">
         <v>7</v>
       </c>
       <c r="H40" s="23"/>
@@ -6462,19 +9522,19 @@
         <f>118+18</f>
         <v>136</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="37">
         <v>103</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="37">
         <v>8</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="37">
         <v>7</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="37">
         <v>5</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="37">
         <v>9</v>
       </c>
       <c r="H41" s="23"/>
@@ -6487,19 +9547,19 @@
         <f>131+20</f>
         <v>151</v>
       </c>
-      <c r="C42" s="38">
+      <c r="C42" s="37">
         <v>118</v>
       </c>
-      <c r="D42" s="38">
+      <c r="D42" s="37">
         <v>7</v>
       </c>
-      <c r="E42" s="38">
+      <c r="E42" s="37">
         <v>6</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="37">
         <v>5</v>
       </c>
-      <c r="G42" s="38">
+      <c r="G42" s="37">
         <v>11</v>
       </c>
       <c r="H42" s="23"/>
@@ -6512,19 +9572,19 @@
         <f>136+24</f>
         <v>160</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="37">
         <v>125</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="37">
         <v>5</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="37">
         <v>6</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="37">
         <v>6</v>
       </c>
-      <c r="G43" s="38">
+      <c r="G43" s="37">
         <v>15</v>
       </c>
       <c r="H43" s="23"/>
@@ -6533,20 +9593,23 @@
       <c r="A44" s="20">
         <v>1987</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38">
+      <c r="B44" s="37">
+        <f t="shared" ref="B44:B50" si="3">SUM(C44:G44)</f>
+        <v>191</v>
+      </c>
+      <c r="C44" s="37">
         <v>155</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="37">
         <v>6</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="37">
         <v>5</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="37">
         <v>6</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44" s="37">
         <v>19</v>
       </c>
       <c r="H44" s="23"/>
@@ -6555,20 +9618,23 @@
       <c r="A45" s="20">
         <v>1988</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38">
+      <c r="B45" s="37">
+        <f t="shared" si="3"/>
+        <v>194</v>
+      </c>
+      <c r="C45" s="37">
         <v>142</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="37">
         <v>7</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="37">
         <v>6</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="37">
         <v>6</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="37">
         <v>33</v>
       </c>
       <c r="H45" s="23"/>
@@ -6577,20 +9643,23 @@
       <c r="A46" s="20">
         <v>1989</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38">
+      <c r="B46" s="37">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="C46" s="37">
         <v>142</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="37">
         <v>8</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="37">
         <v>5</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="37">
         <v>7</v>
       </c>
-      <c r="G46" s="38">
+      <c r="G46" s="37">
         <v>36</v>
       </c>
       <c r="H46" s="23"/>
@@ -6599,20 +9668,23 @@
       <c r="A47" s="20">
         <v>1990</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38">
+      <c r="B47" s="37">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="C47" s="37">
         <v>124</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="37">
         <v>11</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="37">
         <v>7</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="37">
         <v>8</v>
       </c>
-      <c r="G47" s="38">
+      <c r="G47" s="37">
         <v>30</v>
       </c>
       <c r="H47" s="23"/>
@@ -6621,20 +9693,23 @@
       <c r="A48" s="20">
         <v>1991</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38">
+      <c r="B48" s="37">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="C48" s="37">
         <v>147</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48" s="37">
         <v>10</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="37">
         <v>6</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="37">
         <v>11</v>
       </c>
-      <c r="G48" s="38">
+      <c r="G48" s="37">
         <v>28</v>
       </c>
       <c r="H48" s="23"/>
@@ -6643,20 +9718,23 @@
       <c r="A49" s="20">
         <v>1992</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38">
+      <c r="B49" s="37">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="C49" s="37">
         <v>166</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="37">
         <v>10</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49" s="37">
         <v>6</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="37">
         <v>10</v>
       </c>
-      <c r="G49" s="38">
+      <c r="G49" s="37">
         <v>29</v>
       </c>
       <c r="H49" s="23"/>
@@ -6665,20 +9743,23 @@
       <c r="A50" s="20">
         <v>1993</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38">
+      <c r="B50" s="37">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="C50" s="37">
         <v>106</v>
       </c>
-      <c r="D50" s="38">
+      <c r="D50" s="37">
         <v>10</v>
       </c>
-      <c r="E50" s="38">
+      <c r="E50" s="37">
         <v>8</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50" s="37">
         <v>6</v>
       </c>
-      <c r="G50" s="38">
+      <c r="G50" s="37">
         <v>25</v>
       </c>
       <c r="H50" s="23"/>
@@ -6687,322 +9768,333 @@
       <c r="A51" s="20">
         <v>1994</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>1995</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>1996</v>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
+      <c r="B53" s="8">
+        <v>227.74783500000004</v>
+      </c>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>1997</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
+      <c r="B54" s="8">
+        <v>144.56236999999996</v>
+      </c>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>1998</v>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
+      <c r="B55" s="8">
+        <v>219.30247999999997</v>
+      </c>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>1999</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
+      <c r="B56" s="8">
+        <v>257.18237499999998</v>
+      </c>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>2000</v>
       </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
+      <c r="B57" s="8">
+        <v>250.85938999999999</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>2001</v>
       </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
+      <c r="B58" s="8">
+        <v>238.67235000000002</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>2002</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
+      <c r="B59" s="8">
+        <v>245.98853500000001</v>
+      </c>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>2003</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
+      <c r="B60" s="8">
+        <v>262.16664499999996</v>
+      </c>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>2004</v>
       </c>
-      <c r="B61" s="38">
-        <v>536.70000000000005</v>
-      </c>
-      <c r="C61" s="38">
-        <v>376.9</v>
-      </c>
-      <c r="D61" s="38">
-        <v>3.3</v>
-      </c>
-      <c r="E61" s="38">
-        <v>6.6</v>
-      </c>
-      <c r="F61" s="38">
+      <c r="B61" s="8">
+        <v>270.80542999999994</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="37">
         <v>10.8</v>
       </c>
-      <c r="G61" s="38">
-        <v>117.4</v>
-      </c>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>2005</v>
       </c>
-      <c r="B62" s="38">
-        <v>527</v>
-      </c>
-      <c r="C62" s="38">
-        <v>345.6</v>
-      </c>
-      <c r="D62" s="38">
-        <v>3.3</v>
-      </c>
-      <c r="E62" s="38">
-        <v>4.5</v>
-      </c>
-      <c r="F62" s="38">
+      <c r="B62" s="8">
+        <v>272.66947499999998</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="37">
         <v>15.1</v>
       </c>
-      <c r="G62" s="38">
-        <v>136.80000000000001</v>
-      </c>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>2006</v>
       </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
+      <c r="B63" s="8">
+        <v>286.68788999999992</v>
+      </c>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>2007</v>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
+      <c r="B64" s="8">
+        <v>327.98110000000008</v>
+      </c>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>2008</v>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
+      <c r="B65" s="8">
+        <v>298.70961000000005</v>
+      </c>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>2009</v>
       </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
+      <c r="B66" s="8">
+        <v>226.05818500000001</v>
+      </c>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
         <v>2010</v>
       </c>
       <c r="B67" s="8">
-        <v>571.90513386202372</v>
-      </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
+        <v>291.62551499999995</v>
+      </c>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>2011</v>
       </c>
       <c r="B68" s="8">
-        <v>628.06719933218051</v>
-      </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
+        <v>276.16961000000003</v>
+      </c>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>2012</v>
       </c>
       <c r="B69" s="8">
-        <v>574.47814680102556</v>
-      </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
+        <v>238.987775</v>
+      </c>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>2013</v>
       </c>
       <c r="B70" s="8">
-        <v>641.19259435931076</v>
-      </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
+        <v>273.47733999999997</v>
+      </c>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>2014</v>
       </c>
       <c r="B71" s="8">
-        <v>563.04318466400332</v>
-      </c>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
+        <v>240.30352999999999</v>
+      </c>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>2015</v>
       </c>
       <c r="B72" s="8">
-        <v>519.47242263430917</v>
-      </c>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
+        <v>224.46110999999999</v>
+      </c>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>2016</v>
       </c>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
+      <c r="B73" s="8">
+        <v>216.26886500000001</v>
+      </c>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>2017</v>
       </c>
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
+      <c r="B74" s="8">
+        <v>230.95865499999996</v>
+      </c>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>2018</v>
       </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
+      <c r="B75" s="8">
+        <v>228.64879500000001</v>
+      </c>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>2019</v>
       </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
+      <c r="B76" s="8">
+        <v>254.22450500000002</v>
+      </c>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
@@ -7022,10 +10114,10 @@
   <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7036,25 +10128,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7169,6 +10261,10 @@
       <c r="G10" s="8">
         <v>1.1659999999999999</v>
       </c>
+      <c r="I10" s="11">
+        <f>prod!B10+import!B10-export!B10</f>
+        <v>-215.53199999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -7195,6 +10291,10 @@
         <f>12*0.146</f>
         <v>1.7519999999999998</v>
       </c>
+      <c r="I11" s="11">
+        <f>prod!B11+import!B11-export!B11</f>
+        <v>-240.29999999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
@@ -7221,6 +10321,10 @@
         <f>12*0.18</f>
         <v>2.16</v>
       </c>
+      <c r="I12" s="11">
+        <f>prod!B12+import!B12-export!B12</f>
+        <v>-327.26400000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
@@ -7247,6 +10351,10 @@
         <f>12*0.291</f>
         <v>3.492</v>
       </c>
+      <c r="I13" s="11">
+        <f>prod!B13+import!B13-export!B13</f>
+        <v>-343.584</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
@@ -7273,6 +10381,10 @@
         <f>12*0.353</f>
         <v>4.2359999999999998</v>
       </c>
+      <c r="I14" s="11">
+        <f>prod!B14+import!B14-export!B14</f>
+        <v>-290.50799999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
@@ -7303,7 +10415,10 @@
         <v>3.9960000000000004</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11">
+        <f>prod!B15+import!B15-export!B15</f>
+        <v>-323.661</v>
+      </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
@@ -7331,7 +10446,10 @@
         <v>4.7880000000000003</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="11">
+        <f>prod!B16+import!B16-export!B16</f>
+        <v>-431.70000000000005</v>
+      </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
@@ -7362,7 +10480,10 @@
         <v>6.516</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11">
+        <f>prod!B17+import!B17-export!B17</f>
+        <v>252.06600000000003</v>
+      </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -7388,7 +10509,10 @@
         <v>4</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="11">
+        <f>prod!B18+import!B18-export!B18</f>
+        <v>193.85399999999993</v>
+      </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
@@ -7414,7 +10538,10 @@
         <v>9</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="11">
+        <f>prod!B19+import!B19-export!B19</f>
+        <v>269.80999999999995</v>
+      </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
@@ -7440,7 +10567,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="11">
+        <f>prod!B20+import!B20-export!B20</f>
+        <v>214.85400000000004</v>
+      </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -7466,7 +10596,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="11">
+        <f>prod!B21+import!B21-export!B21</f>
+        <v>277.46099999999996</v>
+      </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
@@ -7492,13 +10625,19 @@
         <v>14</v>
       </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="11">
+        <f>prod!B22+import!B22-export!B22</f>
+        <v>211.70000000000005</v>
+      </c>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>1966</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4">
+        <f>SUM(C23:G23)</f>
+        <v>376</v>
+      </c>
       <c r="C23" s="8">
         <v>76</v>
       </c>
@@ -7513,13 +10652,21 @@
       </c>
       <c r="G23" s="8">
         <v>16</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11">
+        <f>prod!B23+import!B23-export!B23</f>
+        <v>277.07000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>1967</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4">
+        <f t="shared" ref="B24:B26" si="0">SUM(C24:G24)</f>
+        <v>370</v>
+      </c>
       <c r="C24" s="8">
         <v>72</v>
       </c>
@@ -7534,13 +10681,21 @@
       </c>
       <c r="G24" s="8">
         <v>19</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11">
+        <f>prod!B24+import!B24-export!B24</f>
+        <v>292.10299999999995</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>1968</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>413</v>
+      </c>
       <c r="C25" s="8">
         <v>79</v>
       </c>
@@ -7555,13 +10710,21 @@
       </c>
       <c r="G25" s="8">
         <v>21</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11">
+        <f>prod!B25+import!B25-export!B25</f>
+        <v>294.30100000000004</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>1969</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
       <c r="C26" s="8">
         <v>79</v>
       </c>
@@ -7576,6 +10739,11 @@
       </c>
       <c r="G26" s="8">
         <v>21</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11">
+        <f>prod!B26+import!B26-export!B26</f>
+        <v>332.02200000000005</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7601,12 +10769,20 @@
       <c r="G27" s="8">
         <v>25</v>
       </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11">
+        <f>prod!B27+import!B27-export!B27</f>
+        <v>337</v>
+      </c>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>1971</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="4">
+        <f t="shared" ref="B28:B38" si="1">SUM(C28:G28)</f>
+        <v>498</v>
+      </c>
       <c r="C28" s="8">
         <v>161</v>
       </c>
@@ -7621,13 +10797,21 @@
       </c>
       <c r="G28" s="8">
         <v>28</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11">
+        <f>prod!B28+import!B28-export!B28</f>
+        <v>350.495</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1972</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4">
+        <f t="shared" si="1"/>
+        <v>569</v>
+      </c>
       <c r="C29" s="8">
         <v>192</v>
       </c>
@@ -7642,13 +10826,21 @@
       </c>
       <c r="G29" s="8">
         <v>27</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11">
+        <f>prod!B29+import!B29-export!B29</f>
+        <v>324.19100000000003</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>1973</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="4">
+        <f t="shared" si="1"/>
+        <v>565</v>
+      </c>
       <c r="C30" s="8">
         <v>176</v>
       </c>
@@ -7663,13 +10855,21 @@
       </c>
       <c r="G30" s="8">
         <v>25</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11">
+        <f>prod!B30+import!B30-export!B30</f>
+        <v>420.88099999999997</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>1974</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4">
+        <f t="shared" si="1"/>
+        <v>515</v>
+      </c>
       <c r="C31" s="8">
         <v>149</v>
       </c>
@@ -7684,13 +10884,21 @@
       </c>
       <c r="G31" s="8">
         <v>24</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11">
+        <f>prod!B31+import!B31-export!B31</f>
+        <v>370.64599999999996</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>1975</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4">
+        <f t="shared" si="1"/>
+        <v>358</v>
+      </c>
       <c r="C32" s="8">
         <v>134</v>
       </c>
@@ -7705,13 +10913,21 @@
       </c>
       <c r="G32" s="8">
         <v>20</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11">
+        <f>prod!B32+import!B32-export!B32</f>
+        <v>282.40999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>1976</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4">
+        <f t="shared" si="1"/>
+        <v>505</v>
+      </c>
       <c r="C33" s="8">
         <v>264</v>
       </c>
@@ -7726,13 +10942,21 @@
       </c>
       <c r="G33" s="8">
         <v>27</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11">
+        <f>prod!B33+import!B33-export!B33</f>
+        <v>345.41399999999999</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>1977</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4">
+        <f t="shared" si="1"/>
+        <v>548</v>
+      </c>
       <c r="C34" s="8">
         <v>347</v>
       </c>
@@ -7747,13 +10971,21 @@
       </c>
       <c r="G34" s="8">
         <v>26</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11">
+        <f>prod!B34+import!B34-export!B34</f>
+        <v>384.33699999999999</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>1978</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4">
+        <f t="shared" si="1"/>
+        <v>633</v>
+      </c>
       <c r="C35" s="8">
         <v>423</v>
       </c>
@@ -7768,13 +11000,21 @@
       </c>
       <c r="G35" s="8">
         <v>28</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11">
+        <f>prod!B35+import!B35-export!B35</f>
+        <v>266.57899999999995</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>1979</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="4">
+        <f t="shared" si="1"/>
+        <v>646</v>
+      </c>
       <c r="C36" s="8">
         <v>449</v>
       </c>
@@ -7789,13 +11029,21 @@
       </c>
       <c r="G36" s="8">
         <v>28</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11">
+        <f>prod!B36+import!B36-export!B36</f>
+        <v>303.46900000000005</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>1980</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="4">
+        <f>SUM(C37:G37)</f>
+        <v>657</v>
+      </c>
       <c r="C37" s="8">
         <v>472</v>
       </c>
@@ -7810,13 +11058,21 @@
       </c>
       <c r="G37" s="8">
         <v>27</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11">
+        <f>prod!B37+import!B37-export!B37</f>
+        <v>327.35799999999995</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>1981</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="4">
+        <f t="shared" si="1"/>
+        <v>586</v>
+      </c>
       <c r="C38" s="8">
         <v>419</v>
       </c>
@@ -7833,6 +11089,10 @@
         <v>28</v>
       </c>
       <c r="H38" s="11"/>
+      <c r="I38" s="11">
+        <f>prod!B38+import!B38-export!B38</f>
+        <v>243.85000000000002</v>
+      </c>
     </row>
     <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
@@ -7858,7 +11118,10 @@
         <v>29</v>
       </c>
       <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="I39" s="11">
+        <f>prod!B39+import!B39-export!B39</f>
+        <v>173</v>
+      </c>
     </row>
     <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
@@ -7884,7 +11147,10 @@
         <v>37</v>
       </c>
       <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="11">
+        <f>prod!B40+import!B40-export!B40</f>
+        <v>92</v>
+      </c>
     </row>
     <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
@@ -7910,7 +11176,10 @@
         <v>42</v>
       </c>
       <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="I41" s="11">
+        <f>prod!B41+import!B41-export!B41</f>
+        <v>116</v>
+      </c>
     </row>
     <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
@@ -7936,7 +11205,10 @@
         <v>49</v>
       </c>
       <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="I42" s="11">
+        <f>prod!B42+import!B42-export!B42</f>
+        <v>112</v>
+      </c>
     </row>
     <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
@@ -7962,13 +11234,19 @@
         <v>59</v>
       </c>
       <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="I43" s="11">
+        <f>prod!B43+import!B43-export!B43</f>
+        <v>92</v>
+      </c>
     </row>
     <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>1987</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="4">
+        <f t="shared" ref="B44:B50" si="2">SUM(C44:G44)</f>
+        <v>876</v>
+      </c>
       <c r="C44" s="8">
         <v>675</v>
       </c>
@@ -7984,13 +11262,20 @@
       <c r="G44" s="8">
         <v>74</v>
       </c>
-      <c r="I44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11">
+        <f>prod!B44+import!B44-export!B44</f>
+        <v>200.95299999999997</v>
+      </c>
     </row>
     <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>1988</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="4">
+        <f t="shared" si="2"/>
+        <v>888</v>
+      </c>
       <c r="C45" s="8">
         <v>671</v>
       </c>
@@ -8006,13 +11291,20 @@
       <c r="G45" s="8">
         <v>95</v>
       </c>
-      <c r="I45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11">
+        <f>prod!B45+import!B45-export!B45</f>
+        <v>251.90999999999985</v>
+      </c>
     </row>
     <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>1989</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="4">
+        <f t="shared" si="2"/>
+        <v>1076</v>
+      </c>
       <c r="C46" s="8">
         <v>850</v>
       </c>
@@ -8028,13 +11320,20 @@
       <c r="G46" s="8">
         <v>111</v>
       </c>
-      <c r="I46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11">
+        <f>prod!B46+import!B46-export!B46</f>
+        <v>111.08500000000004</v>
+      </c>
     </row>
     <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>1990</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="4">
+        <f t="shared" si="2"/>
+        <v>1091</v>
+      </c>
       <c r="C47" s="8">
         <v>887</v>
       </c>
@@ -8050,13 +11349,20 @@
       <c r="G47" s="8">
         <v>100</v>
       </c>
-      <c r="I47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11">
+        <f>prod!B47+import!B47-export!B47</f>
+        <v>231</v>
+      </c>
     </row>
     <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>1991</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="4">
+        <f t="shared" si="2"/>
+        <v>957</v>
+      </c>
       <c r="C48" s="8">
         <v>765</v>
       </c>
@@ -8072,13 +11378,20 @@
       <c r="G48" s="8">
         <v>93</v>
       </c>
-      <c r="I48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11">
+        <f>prod!B48+import!B48-export!B48</f>
+        <v>143</v>
+      </c>
     </row>
     <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>1992</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="4">
+        <f t="shared" si="2"/>
+        <v>981</v>
+      </c>
       <c r="C49" s="8">
         <v>779</v>
       </c>
@@ -8094,13 +11407,20 @@
       <c r="G49" s="8">
         <v>109</v>
       </c>
-      <c r="I49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11">
+        <f>prod!B49+import!B49-export!B49</f>
+        <v>253</v>
+      </c>
     </row>
     <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>1993</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="4">
+        <f t="shared" si="2"/>
+        <v>1065</v>
+      </c>
       <c r="C50" s="8">
         <v>866</v>
       </c>
@@ -8116,7 +11436,11 @@
       <c r="G50" s="8">
         <v>110</v>
       </c>
-      <c r="I50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11">
+        <f>prod!B50+import!B50-export!B50</f>
+        <v>51</v>
+      </c>
     </row>
     <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
@@ -8135,7 +11459,7 @@
         <v>1995</v>
       </c>
       <c r="B52" s="8"/>
-      <c r="C52" s="10"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -8146,8 +11470,10 @@
       <c r="A53" s="14">
         <v>1996</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="10"/>
+      <c r="B53" s="8">
+        <v>1001.9805700000001</v>
+      </c>
+      <c r="C53" s="11"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -8158,8 +11484,10 @@
       <c r="A54" s="14">
         <v>1997</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="10"/>
+      <c r="B54" s="8">
+        <v>905.90501374999997</v>
+      </c>
+      <c r="C54" s="11"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -8170,8 +11498,10 @@
       <c r="A55" s="14">
         <v>1998</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="10"/>
+      <c r="B55" s="8">
+        <v>974.52436250000005</v>
+      </c>
+      <c r="C55" s="11"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
@@ -8182,8 +11512,10 @@
       <c r="A56" s="14">
         <v>1999</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="10"/>
+      <c r="B56" s="8">
+        <v>820.31628624999996</v>
+      </c>
+      <c r="C56" s="11"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
@@ -8194,8 +11526,10 @@
       <c r="A57" s="14">
         <v>2000</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="10"/>
+      <c r="B57" s="8">
+        <v>877.64043249999997</v>
+      </c>
+      <c r="C57" s="11"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -8206,8 +11540,10 @@
       <c r="A58" s="14">
         <v>2001</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
+      <c r="B58" s="8">
+        <v>866.15694500000006</v>
+      </c>
+      <c r="C58" s="11"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -8218,8 +11554,10 @@
       <c r="A59" s="14">
         <v>2002</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
+      <c r="B59" s="8">
+        <v>1123.6860987499999</v>
+      </c>
+      <c r="C59" s="11"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -8230,8 +11568,10 @@
       <c r="A60" s="14">
         <v>2003</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
+      <c r="B60" s="8">
+        <v>1035.6898874999999</v>
+      </c>
+      <c r="C60" s="11"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -8243,23 +11583,16 @@
         <v>2004</v>
       </c>
       <c r="B61" s="8">
-        <v>1445.3</v>
-      </c>
-      <c r="C61" s="8">
-        <v>911.8</v>
-      </c>
-      <c r="D61" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E61" s="8">
-        <v>60.1</v>
-      </c>
+        <v>1041.0621912500001</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
       <c r="F61" s="8">
         <v>34.1</v>
       </c>
-      <c r="G61" s="8">
-        <v>298.7</v>
-      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8267,36 +11600,31 @@
         <v>2005</v>
       </c>
       <c r="B62" s="8">
-        <f>974+456</f>
-        <v>1430</v>
-      </c>
-      <c r="C62" s="8">
-        <v>909.4</v>
-      </c>
-      <c r="D62" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="E62" s="8">
-        <v>63.2</v>
-      </c>
+        <v>1017.1818999999999</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
       <c r="F62" s="8">
         <v>30.9</v>
       </c>
-      <c r="G62" s="8">
-        <v>293.7</v>
-      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
       <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>2006</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="B63" s="8">
+        <v>1042.5845850000003</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
       <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8304,13 +11632,14 @@
         <v>2007</v>
       </c>
       <c r="B64" s="8">
-        <v>1911.7067363530778</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+        <v>1094.7087087500004</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
       <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8318,13 +11647,14 @@
         <v>2008</v>
       </c>
       <c r="B65" s="8">
-        <v>1907.4970963995356</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+        <v>1083.00373375</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
       <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8332,13 +11662,14 @@
         <v>2009</v>
       </c>
       <c r="B66" s="8">
-        <v>1338.9743321718931</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
+        <v>813.35615250000012</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
       <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8346,13 +11677,14 @@
         <v>2010</v>
       </c>
       <c r="B67" s="8">
-        <v>1504.7526132404182</v>
-      </c>
-      <c r="C67" s="8"/>
+        <v>912.00054875000001</v>
+      </c>
+      <c r="C67" s="11"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
       <c r="I67" s="11"/>
     </row>
     <row r="68" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8360,13 +11692,14 @@
         <v>2011</v>
       </c>
       <c r="B68" s="8">
-        <v>1541.9470383275261</v>
-      </c>
-      <c r="C68" s="8"/>
+        <v>959.89590125000018</v>
+      </c>
+      <c r="C68" s="11"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
       <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8374,9 +11707,9 @@
         <v>2012</v>
       </c>
       <c r="B69" s="8">
-        <v>1309.4793263646923</v>
-      </c>
-      <c r="C69" s="8"/>
+        <v>780.67346000000009</v>
+      </c>
+      <c r="C69" s="11"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -8388,9 +11721,9 @@
         <v>2013</v>
       </c>
       <c r="B70" s="8">
-        <v>1372.1160278745645</v>
-      </c>
-      <c r="C70" s="8"/>
+        <v>791.69499749999989</v>
+      </c>
+      <c r="C70" s="11"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -8402,9 +11735,9 @@
         <v>2014</v>
       </c>
       <c r="B71" s="8">
-        <v>1088.337862950058</v>
-      </c>
-      <c r="C71" s="8"/>
+        <v>634.72707749999995</v>
+      </c>
+      <c r="C71" s="11"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -8416,9 +11749,9 @@
         <v>2015</v>
       </c>
       <c r="B72" s="8">
-        <v>1025.6563298490128</v>
-      </c>
-      <c r="C72" s="8"/>
+        <v>643.42857000000015</v>
+      </c>
+      <c r="C72" s="11"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -8429,8 +11762,10 @@
       <c r="A73" s="14">
         <v>2016</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
+      <c r="B73" s="8">
+        <v>499.78879875000001</v>
+      </c>
+      <c r="C73" s="11"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -8441,8 +11776,10 @@
       <c r="A74" s="14">
         <v>2017</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
+      <c r="B74" s="8">
+        <v>547.19474625000009</v>
+      </c>
+      <c r="C74" s="11"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -8453,8 +11790,10 @@
       <c r="A75" s="14">
         <v>2018</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
+      <c r="B75" s="8">
+        <v>547.75624375000007</v>
+      </c>
+      <c r="C75" s="11"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -8465,11 +11804,13 @@
       <c r="A76" s="14">
         <v>2019</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+      <c r="B76" s="8">
+        <v>986.32601624999995</v>
+      </c>
+      <c r="C76" s="11"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
-      <c r="F76" s="40"/>
+      <c r="F76" s="39"/>
       <c r="G76" s="8"/>
       <c r="I76" s="11"/>
     </row>
@@ -8478,28 +11819,31 @@
         <v>2020</v>
       </c>
       <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
+      <c r="C77" s="11"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
-      <c r="F77" s="40"/>
+      <c r="F77" s="39"/>
       <c r="G77" s="8"/>
       <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
-      <c r="F78" s="40"/>
+      <c r="C78" s="6"/>
+      <c r="F78" s="39"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
-      <c r="F79" s="40"/>
+      <c r="C79" s="6"/>
+      <c r="F79" s="39"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
-      <c r="F80" s="40"/>
+      <c r="C80" s="6"/>
+      <c r="F80" s="39"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
-      <c r="F81" s="40"/>
+      <c r="F81" s="39"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
@@ -8525,7 +11869,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8543,35 +11888,35 @@
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="5" width="27.85546875" style="8" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="5" style="35" customWidth="1"/>
+    <col min="7" max="7" width="5" style="34" customWidth="1"/>
     <col min="8" max="9" width="36.42578125" style="6" customWidth="1"/>
     <col min="10" max="16384" width="13.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:9" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8583,7 +11928,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="34"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -8593,7 +11938,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="34"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -8603,7 +11948,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="G4" s="34"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -8613,7 +11958,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="G5" s="34"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -8623,7 +11968,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="G6" s="34"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -8633,7 +11978,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="G7" s="34"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -8643,7 +11988,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="G8" s="34"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -8653,7 +11998,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="G9" s="34"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -8663,7 +12008,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="G10" s="34"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -8673,7 +12018,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="G11" s="34"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -8683,7 +12028,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="G12" s="34"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -8693,7 +12038,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="G13" s="34"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -8703,7 +12048,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -8713,7 +12058,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="G15" s="34"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -8723,7 +12068,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="G16" s="34"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -8742,7 +12087,7 @@
       <c r="F17" s="1">
         <v>18</v>
       </c>
-      <c r="G17" s="34"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="1">
         <v>80.099999999999994</v>
       </c>
@@ -8767,7 +12112,7 @@
       <c r="F18" s="1">
         <v>15.9</v>
       </c>
-      <c r="G18" s="34"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="1">
         <v>85.3</v>
       </c>
@@ -8792,7 +12137,7 @@
       <c r="F19" s="1">
         <v>18</v>
       </c>
-      <c r="G19" s="34"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="1">
         <v>88</v>
       </c>
@@ -8817,7 +12162,7 @@
       <c r="F20" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="G20" s="34"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="1">
         <v>97.3</v>
       </c>
@@ -8842,7 +12187,7 @@
       <c r="F21" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="G21" s="34"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="1">
         <v>103</v>
       </c>
@@ -8867,7 +12212,7 @@
       <c r="F22" s="1">
         <v>18.100000000000001</v>
       </c>
-      <c r="G22" s="34"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="1">
         <v>107.1</v>
       </c>
@@ -8892,7 +12237,7 @@
       <c r="F23" s="1">
         <v>20</v>
       </c>
-      <c r="G23" s="34"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="1">
         <v>123.1</v>
       </c>
@@ -8917,7 +12262,7 @@
       <c r="F24" s="1">
         <v>21.4</v>
       </c>
-      <c r="G24" s="34"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="1">
         <v>136.6</v>
       </c>
@@ -8942,7 +12287,7 @@
       <c r="F25" s="1">
         <v>22.7</v>
       </c>
-      <c r="G25" s="34"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="1">
         <v>161.6</v>
       </c>
@@ -8967,7 +12312,7 @@
       <c r="F26" s="1">
         <v>24.3</v>
       </c>
-      <c r="G26" s="34"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="1">
         <v>176.6</v>
       </c>
@@ -8992,7 +12337,7 @@
       <c r="F27" s="1">
         <v>29</v>
       </c>
-      <c r="G27" s="34"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="1">
         <v>206.2</v>
       </c>
@@ -9017,7 +12362,7 @@
       <c r="F28" s="1">
         <v>31.1</v>
       </c>
-      <c r="G28" s="34"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="1">
         <v>251.5</v>
       </c>
@@ -9042,7 +12387,7 @@
       <c r="F29" s="1">
         <v>33.9</v>
       </c>
-      <c r="G29" s="34"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="1">
         <v>259.3</v>
       </c>
@@ -9067,7 +12412,7 @@
       <c r="F30" s="1">
         <v>38.9</v>
       </c>
-      <c r="G30" s="34"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="1">
         <v>300.8</v>
       </c>
@@ -9092,7 +12437,7 @@
       <c r="F31" s="1">
         <v>39.5</v>
       </c>
-      <c r="G31" s="34"/>
+      <c r="G31" s="33"/>
       <c r="H31" s="1">
         <v>359.2</v>
       </c>
@@ -9117,7 +12462,7 @@
       <c r="F32" s="1">
         <v>39.799999999999997</v>
       </c>
-      <c r="G32" s="34"/>
+      <c r="G32" s="33"/>
       <c r="H32" s="1">
         <v>374.9</v>
       </c>
@@ -9142,7 +12487,7 @@
       <c r="F33" s="1">
         <v>47</v>
       </c>
-      <c r="G33" s="34"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="1">
         <v>463.4</v>
       </c>
@@ -9167,7 +12512,7 @@
       <c r="F34" s="1">
         <v>51.7</v>
       </c>
-      <c r="G34" s="34"/>
+      <c r="G34" s="33"/>
       <c r="H34" s="1">
         <v>607.6</v>
       </c>
@@ -9192,7 +12537,7 @@
       <c r="F35" s="1">
         <v>55.6</v>
       </c>
-      <c r="G35" s="34"/>
+      <c r="G35" s="33"/>
       <c r="H35" s="1">
         <v>583.29999999999995</v>
       </c>
@@ -9217,7 +12562,7 @@
       <c r="F36" s="1">
         <v>60.2</v>
       </c>
-      <c r="G36" s="34"/>
+      <c r="G36" s="33"/>
       <c r="H36" s="1">
         <v>643.79999999999995</v>
       </c>
@@ -9242,7 +12587,7 @@
       <c r="F37" s="1">
         <v>64.900000000000006</v>
       </c>
-      <c r="G37" s="34"/>
+      <c r="G37" s="33"/>
       <c r="H37" s="1">
         <v>816.4</v>
       </c>
@@ -9267,7 +12612,7 @@
       <c r="F38" s="1">
         <v>63.1</v>
       </c>
-      <c r="G38" s="34"/>
+      <c r="G38" s="33"/>
       <c r="H38" s="1">
         <v>848.6</v>
       </c>
@@ -9292,7 +12637,7 @@
       <c r="F39" s="1">
         <v>64.8</v>
       </c>
-      <c r="G39" s="34"/>
+      <c r="G39" s="33"/>
       <c r="H39" s="1">
         <v>999.5</v>
       </c>
@@ -9317,7 +12662,7 @@
       <c r="F40" s="1">
         <v>64.8</v>
       </c>
-      <c r="G40" s="34"/>
+      <c r="G40" s="33"/>
       <c r="H40" s="1">
         <v>1055.3</v>
       </c>
@@ -9342,7 +12687,7 @@
       <c r="F41" s="1">
         <v>74</v>
       </c>
-      <c r="G41" s="34"/>
+      <c r="G41" s="33"/>
       <c r="H41" s="1">
         <v>1047.7</v>
       </c>
@@ -9367,7 +12712,7 @@
       <c r="F42" s="1">
         <v>71.3</v>
       </c>
-      <c r="G42" s="34"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="1">
         <v>1254.2</v>
       </c>
@@ -9394,7 +12739,7 @@
       <c r="F43" s="1">
         <v>77.2</v>
       </c>
-      <c r="G43" s="34"/>
+      <c r="G43" s="33"/>
       <c r="H43" s="1">
         <v>1409.9</v>
       </c>
@@ -9419,7 +12764,7 @@
       <c r="F44" s="1">
         <v>79.900000000000006</v>
       </c>
-      <c r="G44" s="34"/>
+      <c r="G44" s="33"/>
       <c r="H44" s="1">
         <v>1563.3</v>
       </c>
@@ -9444,7 +12789,7 @@
       <c r="F45" s="1">
         <v>83</v>
       </c>
-      <c r="G45" s="34"/>
+      <c r="G45" s="33"/>
       <c r="H45" s="1">
         <v>1587.1</v>
       </c>
@@ -9469,7 +12814,7 @@
       <c r="F46" s="1">
         <v>83.5</v>
       </c>
-      <c r="G46" s="34"/>
+      <c r="G46" s="33"/>
       <c r="H46" s="1">
         <v>1589.3</v>
       </c>
@@ -9494,7 +12839,7 @@
       <c r="F47" s="1">
         <v>87.1</v>
       </c>
-      <c r="G47" s="34"/>
+      <c r="G47" s="33"/>
       <c r="H47" s="1">
         <v>1513.3</v>
       </c>
@@ -9519,7 +12864,7 @@
       <c r="F48" s="1">
         <v>77.3</v>
       </c>
-      <c r="G48" s="34"/>
+      <c r="G48" s="33"/>
       <c r="H48" s="1">
         <v>1458.4</v>
       </c>
@@ -9544,7 +12889,7 @@
       <c r="F49" s="1">
         <v>85.6</v>
       </c>
-      <c r="G49" s="34"/>
+      <c r="G49" s="33"/>
       <c r="H49" s="1">
         <v>1440.9</v>
       </c>
@@ -9566,7 +12911,7 @@
       <c r="E50" s="8">
         <v>3352</v>
       </c>
-      <c r="G50" s="34"/>
+      <c r="G50" s="33"/>
     </row>
     <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -9576,7 +12921,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="G51" s="34"/>
+      <c r="G51" s="33"/>
     </row>
     <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -9592,7 +12937,7 @@
       <c r="E52" s="8">
         <v>2497</v>
       </c>
-      <c r="G52" s="34"/>
+      <c r="G52" s="33"/>
     </row>
     <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -9608,7 +12953,7 @@
       <c r="E53" s="8">
         <v>2504</v>
       </c>
-      <c r="G53" s="34"/>
+      <c r="G53" s="33"/>
     </row>
     <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -9624,7 +12969,7 @@
       <c r="E54" s="8">
         <v>2540</v>
       </c>
-      <c r="G54" s="34"/>
+      <c r="G54" s="33"/>
     </row>
     <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -9640,7 +12985,7 @@
       <c r="E55" s="8">
         <v>2561</v>
       </c>
-      <c r="G55" s="34"/>
+      <c r="G55" s="33"/>
     </row>
     <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -9656,7 +13001,7 @@
       <c r="E56" s="8">
         <v>2427</v>
       </c>
-      <c r="G56" s="34"/>
+      <c r="G56" s="33"/>
     </row>
     <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -9672,7 +13017,7 @@
       <c r="E57" s="8">
         <v>2500</v>
       </c>
-      <c r="G57" s="34"/>
+      <c r="G57" s="33"/>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -9688,7 +13033,7 @@
       <c r="E58" s="8">
         <v>2518</v>
       </c>
-      <c r="G58" s="34"/>
+      <c r="G58" s="33"/>
     </row>
     <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -9704,7 +13049,7 @@
       <c r="E59" s="8">
         <v>2453</v>
       </c>
-      <c r="G59" s="34"/>
+      <c r="G59" s="33"/>
     </row>
     <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -9720,7 +13065,7 @@
       <c r="E60" s="8">
         <v>2827</v>
       </c>
-      <c r="G60" s="34"/>
+      <c r="G60" s="33"/>
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -9736,7 +13081,7 @@
       <c r="E61" s="8">
         <v>2750</v>
       </c>
-      <c r="G61" s="34"/>
+      <c r="G61" s="33"/>
     </row>
     <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -9752,7 +13097,7 @@
       <c r="E62" s="8">
         <v>2697</v>
       </c>
-      <c r="G62" s="34"/>
+      <c r="G62" s="33"/>
     </row>
     <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -9768,7 +13113,7 @@
       <c r="E63" s="8">
         <v>2507</v>
       </c>
-      <c r="G63" s="34"/>
+      <c r="G63" s="33"/>
     </row>
     <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -9784,7 +13129,7 @@
       <c r="E64" s="8">
         <v>2472</v>
       </c>
-      <c r="G64" s="34"/>
+      <c r="G64" s="33"/>
     </row>
     <row r="65" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -9800,7 +13145,7 @@
       <c r="E65" s="8">
         <v>2584</v>
       </c>
-      <c r="G65" s="34"/>
+      <c r="G65" s="33"/>
     </row>
     <row r="66" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -9816,7 +13161,7 @@
       <c r="E66" s="8">
         <v>2599</v>
       </c>
-      <c r="G66" s="34"/>
+      <c r="G66" s="33"/>
     </row>
     <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -9832,7 +13177,7 @@
       <c r="E67" s="8">
         <v>2512</v>
       </c>
-      <c r="G67" s="34"/>
+      <c r="G67" s="33"/>
     </row>
     <row r="68" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -9848,7 +13193,7 @@
       <c r="E68" s="8">
         <v>2570</v>
       </c>
-      <c r="G68" s="34"/>
+      <c r="G68" s="33"/>
     </row>
     <row r="69" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -9864,7 +13209,7 @@
       <c r="E69" s="8">
         <v>2546</v>
       </c>
-      <c r="G69" s="34"/>
+      <c r="G69" s="33"/>
     </row>
     <row r="70" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -9880,7 +13225,7 @@
       <c r="E70" s="8">
         <v>2451</v>
       </c>
-      <c r="G70" s="34"/>
+      <c r="G70" s="33"/>
     </row>
     <row r="71" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
@@ -9896,7 +13241,7 @@
       <c r="E71" s="8">
         <v>2256</v>
       </c>
-      <c r="G71" s="34"/>
+      <c r="G71" s="33"/>
     </row>
     <row r="72" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -9912,7 +13257,7 @@
       <c r="E72" s="8">
         <v>2363</v>
       </c>
-      <c r="G72" s="34"/>
+      <c r="G72" s="33"/>
     </row>
     <row r="73" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
@@ -9928,7 +13273,7 @@
       <c r="E73" s="8">
         <v>2360</v>
       </c>
-      <c r="G73" s="34"/>
+      <c r="G73" s="33"/>
     </row>
     <row r="74" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -9944,7 +13289,7 @@
       <c r="E74" s="8">
         <v>2355</v>
       </c>
-      <c r="G74" s="34"/>
+      <c r="G74" s="33"/>
     </row>
     <row r="75" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
@@ -9960,7 +13305,7 @@
       <c r="E75" s="8">
         <v>2404</v>
       </c>
-      <c r="G75" s="34"/>
+      <c r="G75" s="33"/>
     </row>
     <row r="76" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -9970,7 +13315,7 @@
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
-      <c r="G76" s="34"/>
+      <c r="G76" s="33"/>
     </row>
     <row r="77" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -9980,7 +13325,7 @@
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
-      <c r="G77" s="34"/>
+      <c r="G77" s="33"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
@@ -10042,10 +13387,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10586,7 +13931,7 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
@@ -10600,25 +13945,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">

--- a/RawData/BE_RawData_VPython.xlsx
+++ b/RawData/BE_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA01E2E-57FD-4D47-A2F6-E569B2C1FE67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD863548-2EC2-44F1-BE77-8063B08D4D91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14715" yWindow="600" windowWidth="13125" windowHeight="15600" activeTab="4" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="1560" yWindow="600" windowWidth="13125" windowHeight="15600" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="workforce" sheetId="12" r:id="rId6"/>
     <sheet name="FlatGlassInd_GlassInd" sheetId="9" r:id="rId7"/>
     <sheet name="RawMat_GlassInd_ABS" sheetId="8" r:id="rId8"/>
+    <sheet name="Population" sheetId="18" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -98,20 +99,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6CB673EF-88CC-4E56-B1B1-C6E3AF0F71A3}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>OECD Data:
-https://data.oecd.org/pop/population.htm</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -149,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{CB10E512-9D92-4056-8D71-70FED6AEAF5A}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{FFF54F8C-42A9-47BE-BA11-9E812209664C}">
       <text>
         <r>
           <rPr>
@@ -159,7 +146,7 @@
             <family val="2"/>
           </rPr>
           <t>Calculus:
-The average glass thickness is estimated at around 9mm (2x4.5mm). See import and export data.</t>
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
         </r>
       </text>
     </comment>
@@ -217,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{B0549D22-40AF-4A9B-BC10-59F1A1DA741A}">
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{60B3FC3B-6055-4E4D-A231-0144E09060ED}">
       <text>
         <r>
           <rPr>
@@ -249,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{3AB7B9F4-1590-4E25-963A-3EEBB02E5941}">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{E0DC0D82-D9DF-4BD7-A33A-0B50C35C698C}">
       <text>
         <r>
           <rPr>
@@ -281,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{8586E7D9-7F4A-4B48-972D-768919F368A7}">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{B57BEA95-24D2-439E-BC94-D0202114BFEE}">
       <text>
         <r>
           <rPr>
@@ -313,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{75E5B087-15A0-4DB8-B8D8-856FF537EA0C}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{A59076F1-9E80-4441-8ED6-27E14722081D}">
       <text>
         <r>
           <rPr>
@@ -345,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{376886D1-6D5A-467E-9033-63DFF7BA93B0}">
+    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{B620C8B3-D3D8-4F2E-88AC-49DF22C49163}">
       <text>
         <r>
           <rPr>
@@ -377,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{5B921C9C-51EC-4917-9542-EE039474F33F}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{7E6E91CE-5369-400E-84C8-87ED4166867E}">
       <text>
         <r>
           <rPr>
@@ -409,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{2EA2EA32-C939-41E3-9248-F6CEBE552185}">
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{2D1186D9-881A-4F20-ADD8-CAB038072AAF}">
       <text>
         <r>
           <rPr>
@@ -441,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{52EC176A-4EC2-4307-8540-903D7511A2D4}">
+    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{BDD39EC5-4C5E-4627-87B4-F83CB68E978D}">
       <text>
         <r>
           <rPr>
@@ -473,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{0B98A300-9C08-477B-870C-A793F16760D7}">
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{7346AC3A-B774-4FA8-9EBF-CE05F08EDFFE}">
       <text>
         <r>
           <rPr>
@@ -505,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{95089EA7-7EBC-40A9-83AE-E66B33A7AD1A}">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{0E5ECCE1-5919-440F-A307-EE158D9FFF1C}">
       <text>
         <r>
           <rPr>
@@ -537,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{DF169E54-D977-4967-AD90-4D9B83D1B805}">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{04708709-9149-4AFB-87D7-A0DC6741F7FF}">
       <text>
         <r>
           <rPr>
@@ -569,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{C765E89B-6216-4860-855E-249CCB8A9E07}">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{3A282B50-09F3-4DC7-A499-5C5D00AEBFD8}">
       <text>
         <r>
           <rPr>
@@ -890,6 +877,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D53" authorId="0" shapeId="0" xr:uid="{6A92BE97-88FC-4CBB-B413-32D583A1F26B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B54" authorId="0" shapeId="0" xr:uid="{70DC3473-3447-4719-A1C0-D766A356D209}">
       <text>
         <r>
@@ -928,6 +929,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{89B94B09-4861-415E-8D8A-28B885190E83}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B55" authorId="0" shapeId="0" xr:uid="{25B8BFD1-FF8E-4695-8D3B-1F04E0873F8E}">
       <text>
         <r>
@@ -966,6 +981,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D55" authorId="0" shapeId="0" xr:uid="{715DB3FF-CBCE-47CD-A5B2-0CD675635A46}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B56" authorId="0" shapeId="0" xr:uid="{52F33A99-0D0B-4259-A80A-327EB7C19980}">
       <text>
         <r>
@@ -1004,6 +1033,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{846263C8-56D9-4393-B76F-9A928C23206C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B57" authorId="0" shapeId="0" xr:uid="{EED5E0C0-7039-4EBE-BEB7-731F4AB2D310}">
       <text>
         <r>
@@ -1042,6 +1085,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D57" authorId="0" shapeId="0" xr:uid="{BC86A0BE-7408-48E0-82BF-1E3CAA79D938}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B58" authorId="0" shapeId="0" xr:uid="{CB926990-D23D-40E6-A836-F3281928C622}">
       <text>
         <r>
@@ -1080,6 +1137,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D58" authorId="0" shapeId="0" xr:uid="{16080463-D40F-4F27-ACCA-FE286755C62E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B59" authorId="0" shapeId="0" xr:uid="{21748B7F-E41B-4370-85B5-FD2F0867FD43}">
       <text>
         <r>
@@ -1118,6 +1189,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D59" authorId="0" shapeId="0" xr:uid="{10BBC027-87B2-455D-AA4A-AD6760E6C1B7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B60" authorId="0" shapeId="0" xr:uid="{1464D249-C5A4-4870-8379-8C910C5FE3F7}">
       <text>
         <r>
@@ -1156,6 +1241,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{9A908036-2EA6-4224-A7B0-618BD55B22D6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B61" authorId="0" shapeId="0" xr:uid="{692A6916-772E-44DF-93C7-154E663D6B1D}">
       <text>
         <r>
@@ -1194,6 +1293,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{8019F4D1-CBCB-436E-AE65-388D66D48CC8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B62" authorId="0" shapeId="0" xr:uid="{A427882F-7797-4C83-9895-E1E70694B621}">
       <text>
         <r>
@@ -1232,6 +1345,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{AD00789E-24A2-4D4E-A56F-9878A4E01297}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B63" authorId="0" shapeId="0" xr:uid="{6019CF96-E4D4-4629-9B21-41F7B13F7B2D}">
       <text>
         <r>
@@ -1270,6 +1397,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D63" authorId="0" shapeId="0" xr:uid="{9001778D-D759-4E8B-BABE-B035C57C369F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B64" authorId="0" shapeId="0" xr:uid="{4B691808-64DE-4924-8E47-8CD5B4CC7882}">
       <text>
         <r>
@@ -1308,6 +1449,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D64" authorId="0" shapeId="0" xr:uid="{67AA3941-F7CA-43FA-9FB3-5255635E4178}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B65" authorId="0" shapeId="0" xr:uid="{FA00D844-B0AE-4966-9F18-BFBA78DC5A62}">
       <text>
         <r>
@@ -1346,6 +1501,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D65" authorId="0" shapeId="0" xr:uid="{807209AC-AED6-4500-8472-8777BC975CD6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B66" authorId="0" shapeId="0" xr:uid="{17454C45-7D9B-4EDD-8DBD-CD55B2F7B504}">
       <text>
         <r>
@@ -1384,6 +1553,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{4DAD81AD-7C93-413A-B8B7-40A0E8082195}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B67" authorId="0" shapeId="0" xr:uid="{05FD7DBA-81F6-4F23-B05F-C0076288518C}">
       <text>
         <r>
@@ -1422,6 +1605,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D67" authorId="0" shapeId="0" xr:uid="{D4BC2686-428A-4DF0-AE46-1D97F886885D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B68" authorId="0" shapeId="0" xr:uid="{C5AFDD2F-1913-40D4-B64F-8130C27890FC}">
       <text>
         <r>
@@ -1460,6 +1657,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{633C8BF9-74C6-4B80-B62E-A776BB70F9B7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B69" authorId="0" shapeId="0" xr:uid="{1DE707F9-BA17-469A-B287-9FA7BCE6C68D}">
       <text>
         <r>
@@ -1498,6 +1709,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D69" authorId="0" shapeId="0" xr:uid="{B425D0E3-C24A-4DA6-A957-E805ED32E0DC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C70" authorId="0" shapeId="0" xr:uid="{07FEBA3F-E56B-4F52-9259-160F498D974F}">
       <text>
         <r>
@@ -1523,6 +1748,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D70" authorId="0" shapeId="0" xr:uid="{87343770-E23F-494D-8192-C68B314BBD6E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C72" authorId="0" shapeId="0" xr:uid="{3424DAA8-F20D-40BB-A352-F67F4359BB28}">
       <text>
         <r>
@@ -1548,6 +1787,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{EB56DE9E-C15D-4F46-A9CD-7AAA263DD66F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C73" authorId="0" shapeId="0" xr:uid="{FFA7925B-2D83-4554-B348-1952BA9F2C5C}">
       <text>
         <r>
@@ -1573,6 +1826,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D73" authorId="0" shapeId="0" xr:uid="{ED37C69B-56F5-406A-A826-4175E81CD614}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C74" authorId="0" shapeId="0" xr:uid="{6DF2A1C8-5094-42B5-9407-778F607797C1}">
       <text>
         <r>
@@ -1598,6 +1865,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{9D55D874-1F2E-4728-B689-5C4A6224ED55}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C75" authorId="0" shapeId="0" xr:uid="{DF8387AD-0A51-4B49-A79D-71F86211F715}">
       <text>
         <r>
@@ -1623,6 +1904,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D75" authorId="0" shapeId="0" xr:uid="{D349DE63-84AB-480E-A446-357989BE3B82}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C76" authorId="0" shapeId="0" xr:uid="{E64FB881-E1E5-4712-9ABE-8C10751806EB}">
       <text>
         <r>
@@ -1645,6 +1940,20 @@
           <t xml:space="preserve">
 PRODCOM Database, Eurostat.
 Code: 23121330 - Multiple-walled insulating units of glass</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D76" authorId="0" shapeId="0" xr:uid="{862C43D0-02DD-4A37-B58A-478A6F1202A3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculus:
+The average glass thickness is estimated at around 10mm (2x5mm). See import and export data.</t>
         </r>
       </text>
     </comment>
@@ -1829,6 +2138,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{929BAED1-A62F-4FF8-AE58-2DA3C0FE5EA5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre en 1969, Rapport annuel, Fédération de l'industrie du verre, 1970</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B21" authorId="0" shapeId="0" xr:uid="{67FAEDF3-3681-4F76-AD42-0A15DFB5230E}">
       <text>
         <r>
@@ -6493,8 +6815,46 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>jean</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D03E3816-3F82-47F1-A999-231153AAE251}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>OECD Data:
+https://data.oecd.org/pop/population.htm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{A8064E29-81F2-45FE-8AD8-04497206EDD5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>La population de la Belgique, 1974, Société Belge de Démographie, Brussels : C.I.C.R.E.D.
+http://www.cicred.org/Eng/Publications/pdf/c-c4.pdf</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>glazing, '000 m²</t>
   </si>
@@ -6565,8 +6925,7 @@
     <t>VAB/person/year, "000 F</t>
   </si>
   <si>
-    <t>BE, 
-"000 persons</t>
+    <t>Population, x1000</t>
   </si>
 </sst>
 </file>
@@ -6579,7 +6938,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6622,6 +6981,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -6690,7 +7055,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -6822,6 +7187,14 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7693,606 +8066,446 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEEDA53-7E46-4237-BFF2-D54E4EED559A}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H58" sqref="H58"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="16384" width="13.5703125" style="6"/>
+    <col min="3" max="16384" width="13.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1945</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1946</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>1947</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>1948</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1949</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6"/>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>1950</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7"/>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1951</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8"/>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1952</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>1953</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>1954</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>1955</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>1956</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>1957</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>1958</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>1959</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>1960</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="8">
-        <v>9153</v>
-      </c>
-      <c r="D17" s="39"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="39"/>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>1961</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="8">
-        <v>9184</v>
-      </c>
-      <c r="D18" s="39"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="39"/>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>1962</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="8">
-        <v>9221</v>
-      </c>
-      <c r="D19" s="39"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="39"/>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>1963</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="8">
-        <v>9290</v>
-      </c>
-      <c r="D20" s="39"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="39"/>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>1964</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="8">
-        <v>9378</v>
-      </c>
-      <c r="D21" s="39"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="39"/>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>1965</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="8">
-        <v>9464</v>
-      </c>
-      <c r="D22" s="39"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="39"/>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>1966</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="8">
-        <v>9528</v>
-      </c>
-      <c r="D23" s="39"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="39"/>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>1967</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="8">
-        <v>9581</v>
-      </c>
-      <c r="D24" s="39"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="39"/>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>1968</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="8">
-        <v>9619</v>
-      </c>
-      <c r="D25" s="39"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="39"/>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>1969</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="8">
-        <v>9646</v>
-      </c>
-      <c r="D26" s="39"/>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="39"/>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>1970</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8">
-        <v>9656</v>
-      </c>
-      <c r="D27" s="39"/>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="39"/>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>1971</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="8">
-        <v>9673</v>
-      </c>
-      <c r="D28" s="39"/>
-    </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="39"/>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1972</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="8">
-        <v>9711</v>
-      </c>
-      <c r="D29" s="39"/>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="39"/>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>1973</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="8">
-        <v>9742</v>
-      </c>
-      <c r="D30" s="39"/>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="39"/>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>1974</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="8">
-        <v>9772</v>
-      </c>
-      <c r="D31" s="39"/>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="39"/>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>1975</v>
       </c>
-      <c r="C32" s="8">
-        <v>9801</v>
-      </c>
-      <c r="D32" s="39"/>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="39"/>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>1976</v>
       </c>
-      <c r="C33" s="8">
-        <v>9818</v>
-      </c>
-      <c r="D33" s="39"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="39"/>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>1977</v>
       </c>
-      <c r="C34" s="8">
-        <v>9830</v>
-      </c>
-      <c r="D34" s="39"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="39"/>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>1978</v>
       </c>
-      <c r="C35" s="8">
-        <v>9840</v>
-      </c>
-      <c r="D35" s="39"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="39"/>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>1979</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="8">
-        <v>9848</v>
-      </c>
-      <c r="D36" s="39"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="39"/>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>1980</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="8">
-        <v>9859</v>
-      </c>
-      <c r="D37" s="39"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="39"/>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>1981</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="8">
-        <v>9859</v>
-      </c>
-      <c r="D38" s="39"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="39"/>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>1982</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="8">
-        <v>9856</v>
-      </c>
-      <c r="D39" s="39"/>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="39"/>
+    </row>
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>1983</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="8">
-        <v>9856</v>
-      </c>
-      <c r="D40" s="39"/>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="39"/>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>1984</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="8">
-        <v>9855</v>
-      </c>
-      <c r="D41" s="39"/>
-    </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="39"/>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>1985</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="8">
-        <v>9858</v>
-      </c>
-      <c r="D42" s="39"/>
-    </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="39"/>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>1986</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="8">
-        <v>9862</v>
-      </c>
-      <c r="D43" s="39"/>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="39"/>
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>1987</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="8">
-        <v>9870</v>
-      </c>
-      <c r="D44" s="39"/>
-    </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="39"/>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>1988</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="8">
-        <v>9902</v>
-      </c>
-      <c r="D45" s="39"/>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="39"/>
+    </row>
+    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>1989</v>
       </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="8">
-        <v>9938</v>
-      </c>
-      <c r="D46" s="39"/>
-    </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="39"/>
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>1990</v>
       </c>
       <c r="B47" s="8"/>
-      <c r="C47" s="8">
-        <v>9967</v>
-      </c>
-      <c r="D47" s="39"/>
-    </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="39"/>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>1991</v>
       </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="8">
-        <v>10004</v>
-      </c>
-      <c r="D48" s="39"/>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="39"/>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>1992</v>
       </c>
       <c r="B49" s="8"/>
-      <c r="C49" s="8">
-        <v>10045</v>
-      </c>
-      <c r="D49" s="39"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="39"/>
+    </row>
+    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>1993</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="8">
-        <v>10084</v>
-      </c>
-      <c r="D50" s="39"/>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="39"/>
+    </row>
+    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>1994</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="C51" s="8">
-        <v>10116</v>
-      </c>
-      <c r="D51" s="39"/>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="39"/>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>1995</v>
       </c>
       <c r="B52" s="8"/>
-      <c r="C52" s="8">
-        <v>10137</v>
-      </c>
-      <c r="D52" s="39"/>
-    </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="39"/>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>1996</v>
       </c>
       <c r="B53" s="8"/>
-      <c r="C53" s="8">
-        <v>10157</v>
-      </c>
-      <c r="D53" s="39"/>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="39"/>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>1997</v>
       </c>
       <c r="B54" s="8"/>
-      <c r="C54" s="8">
-        <v>10181</v>
-      </c>
-      <c r="D54" s="39"/>
-    </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="39"/>
+    </row>
+    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>1998</v>
       </c>
       <c r="B55" s="8"/>
-      <c r="C55" s="8">
-        <v>10203</v>
-      </c>
-      <c r="D55" s="39"/>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="39"/>
+    </row>
+    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>1999</v>
       </c>
       <c r="B56" s="8"/>
-      <c r="C56" s="8">
-        <v>10226</v>
-      </c>
-      <c r="D56" s="39"/>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="39"/>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>2000</v>
       </c>
       <c r="B57" s="8"/>
-      <c r="C57" s="8">
-        <v>10251</v>
-      </c>
-      <c r="D57" s="39"/>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="39"/>
+    </row>
+    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>2001</v>
       </c>
       <c r="B58" s="8"/>
-      <c r="C58" s="8">
-        <v>10287</v>
-      </c>
-      <c r="D58" s="39"/>
-    </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="39"/>
+    </row>
+    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>2002</v>
       </c>
       <c r="B59" s="8"/>
-      <c r="C59" s="8">
-        <v>10333</v>
-      </c>
-      <c r="D59" s="39"/>
-    </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="39"/>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>2003</v>
       </c>
       <c r="B60" s="8"/>
-      <c r="C60" s="8">
-        <v>10376</v>
-      </c>
-      <c r="D60" s="39"/>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="39"/>
+    </row>
+    <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>2004</v>
       </c>
       <c r="B61" s="8"/>
-      <c r="C61" s="8">
-        <v>10421</v>
-      </c>
-      <c r="D61" s="39"/>
-    </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="39"/>
+    </row>
+    <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>2005</v>
       </c>
       <c r="B62" s="8"/>
-      <c r="C62" s="8">
-        <v>10479</v>
-      </c>
-      <c r="D62" s="39"/>
-    </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="39"/>
+    </row>
+    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>2006</v>
       </c>
       <c r="B63" s="8"/>
-      <c r="C63" s="8">
-        <v>10548</v>
-      </c>
-      <c r="D63" s="39"/>
-    </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="39"/>
+    </row>
+    <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>2007</v>
       </c>
@@ -8300,12 +8513,9 @@
         <f>2500*(1.2*1.2)</f>
         <v>3600</v>
       </c>
-      <c r="C64" s="8">
-        <v>10626</v>
-      </c>
-      <c r="D64" s="39"/>
-    </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="39"/>
+    </row>
+    <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>2008</v>
       </c>
@@ -8313,12 +8523,9 @@
         <f>2500*(1.2*1.2)</f>
         <v>3600</v>
       </c>
-      <c r="C65" s="8">
-        <v>10710</v>
-      </c>
-      <c r="D65" s="39"/>
-    </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="39"/>
+    </row>
+    <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>2009</v>
       </c>
@@ -8326,12 +8533,9 @@
         <f>5450*(1.2*1.2)</f>
         <v>7848</v>
       </c>
-      <c r="C66" s="8">
-        <v>10796</v>
-      </c>
-      <c r="D66" s="39"/>
-    </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="39"/>
+    </row>
+    <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>2010</v>
       </c>
@@ -8339,12 +8543,9 @@
         <f>2450*(1.2*1.2)</f>
         <v>3528</v>
       </c>
-      <c r="C67" s="8">
-        <v>10896</v>
-      </c>
-      <c r="D67" s="39"/>
-    </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="39"/>
+    </row>
+    <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>2011</v>
       </c>
@@ -8352,12 +8553,9 @@
         <f>2470*(1.2*1.2)</f>
         <v>3556.7999999999997</v>
       </c>
-      <c r="C68" s="8">
-        <v>10994</v>
-      </c>
-      <c r="D68" s="39"/>
-    </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="39"/>
+    </row>
+    <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>2012</v>
       </c>
@@ -8365,90 +8563,67 @@
         <f>2430*(1.2*1.2)</f>
         <v>3499.2</v>
       </c>
-      <c r="C69" s="8">
-        <v>11068</v>
-      </c>
-      <c r="D69" s="39"/>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="39"/>
+    </row>
+    <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>2013</v>
       </c>
       <c r="B70" s="8"/>
-      <c r="C70" s="8">
-        <v>11125</v>
-      </c>
-      <c r="D70" s="39"/>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="39"/>
+    </row>
+    <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>2014</v>
       </c>
       <c r="B71" s="8"/>
-      <c r="C71" s="8">
-        <v>11180</v>
-      </c>
-      <c r="D71" s="39"/>
-    </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="39"/>
+    </row>
+    <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>2015</v>
       </c>
       <c r="B72" s="8"/>
-      <c r="C72" s="8">
-        <v>11238</v>
-      </c>
-      <c r="D72" s="39"/>
-    </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="39"/>
+    </row>
+    <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>2016</v>
       </c>
       <c r="B73" s="8"/>
-      <c r="C73" s="8">
-        <v>11295</v>
-      </c>
-      <c r="D73" s="39"/>
-    </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="39"/>
+    </row>
+    <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>2017</v>
       </c>
       <c r="B74" s="8"/>
-      <c r="C74" s="8">
-        <v>11349</v>
-      </c>
-      <c r="D74" s="39"/>
-    </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="39"/>
+    </row>
+    <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>2018</v>
       </c>
-      <c r="C75" s="8">
-        <v>11404</v>
-      </c>
-      <c r="D75" s="39"/>
-    </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="39"/>
+    </row>
+    <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>2019</v>
       </c>
-      <c r="C76"/>
-    </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>2020</v>
       </c>
-      <c r="C77"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="8"/>
     </row>
@@ -8495,11 +8670,11 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8545,7 +8720,8 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="17">
+        <f>C4*0.0091*2.5</f>
         <v>0</v>
       </c>
     </row>
@@ -8568,6 +8744,14 @@
       <c r="B7" s="9">
         <v>206.25</v>
       </c>
+      <c r="C7" s="45">
+        <f>0.0015*C27</f>
+        <v>4.0513333333333339</v>
+      </c>
+      <c r="D7" s="8">
+        <f>C7*2.5*0.009</f>
+        <v>9.1155E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -8723,8 +8907,8 @@
         <v>2700.8888888888891</v>
       </c>
       <c r="D27" s="37">
-        <f>C27*11*2.5/1000</f>
-        <v>74.274444444444455</v>
+        <f t="shared" ref="D27:D38" si="0">C27*0.0091*2.5</f>
+        <v>61.445222222222228</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8739,8 +8923,8 @@
         <v>2646.8888888888891</v>
       </c>
       <c r="D28" s="37">
-        <f t="shared" ref="D28:D39" si="0">C28*10*2.5/1000</f>
-        <v>66.172222222222217</v>
+        <f t="shared" si="0"/>
+        <v>60.216722222222231</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8756,7 +8940,7 @@
       </c>
       <c r="D29" s="37">
         <f t="shared" si="0"/>
-        <v>66.847222222222214</v>
+        <v>60.830972222222229</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8772,7 +8956,7 @@
       </c>
       <c r="D30" s="37">
         <f t="shared" si="0"/>
-        <v>69.547222222222217</v>
+        <v>63.287972222222237</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8788,7 +8972,7 @@
       </c>
       <c r="D31" s="37">
         <f t="shared" si="0"/>
-        <v>75.847222222222214</v>
+        <v>69.020972222222227</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8804,7 +8988,7 @@
       </c>
       <c r="D32" s="37">
         <f t="shared" si="0"/>
-        <v>80.909722222222214</v>
+        <v>73.627847222222229</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8820,7 +9004,7 @@
       </c>
       <c r="D33" s="37">
         <f t="shared" si="0"/>
-        <v>87.547222222222217</v>
+        <v>79.667972222222232</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8836,7 +9020,7 @@
       </c>
       <c r="D34" s="37">
         <f t="shared" si="0"/>
-        <v>93.397222222222226</v>
+        <v>84.991472222222228</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8852,7 +9036,7 @@
       </c>
       <c r="D35" s="37">
         <f t="shared" si="0"/>
-        <v>93.847222222222214</v>
+        <v>85.400972222222236</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8868,7 +9052,7 @@
       </c>
       <c r="D36" s="37">
         <f t="shared" si="0"/>
-        <v>93.847222222222214</v>
+        <v>85.400972222222236</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8884,7 +9068,7 @@
       </c>
       <c r="D37" s="37">
         <f t="shared" si="0"/>
-        <v>108.47222222222221</v>
+        <v>98.709722222222226</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8900,7 +9084,7 @@
       </c>
       <c r="D38" s="37">
         <f t="shared" si="0"/>
-        <v>99.472222222222214</v>
+        <v>90.519722222222242</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8915,8 +9099,8 @@
         <v>3798.8888888888891</v>
       </c>
       <c r="D39" s="37">
-        <f t="shared" si="0"/>
-        <v>94.972222222222214</v>
+        <f>C39*0.0091*2.5</f>
+        <v>86.424722222222229</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9033,8 +9217,8 @@
         <v>4607.9660000000003</v>
       </c>
       <c r="D52" s="37">
-        <f>C52*10*2.5/1000</f>
-        <v>115.19915</v>
+        <f>C52*0.009*2.5</f>
+        <v>103.67923500000001</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9048,8 +9232,8 @@
         <v>4074.3609999999999</v>
       </c>
       <c r="D53" s="37">
-        <f t="shared" ref="D53:D75" si="1">C53*9*2.5/1000</f>
-        <v>91.673122499999991</v>
+        <f t="shared" ref="D53:D70" si="1">C53*0.009*2.5</f>
+        <v>91.673122499999977</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9124,7 +9308,7 @@
       </c>
       <c r="D58" s="37">
         <f t="shared" si="1"/>
-        <v>122.16782249999999</v>
+        <v>122.16782249999997</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9154,7 +9338,7 @@
       </c>
       <c r="D60" s="37">
         <f t="shared" si="1"/>
-        <v>109.18077749999999</v>
+        <v>109.1807775</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9169,7 +9353,7 @@
       </c>
       <c r="D61" s="37">
         <f t="shared" si="1"/>
-        <v>112.40689500000001</v>
+        <v>112.40689499999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9199,7 +9383,7 @@
       </c>
       <c r="D63" s="37">
         <f t="shared" si="1"/>
-        <v>121.39703999999999</v>
+        <v>121.39703999999998</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9214,7 +9398,7 @@
       </c>
       <c r="D64" s="37">
         <f t="shared" si="1"/>
-        <v>124.40108249999999</v>
+        <v>124.40108249999997</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9229,7 +9413,7 @@
       </c>
       <c r="D65" s="37">
         <f t="shared" si="1"/>
-        <v>116.46132750000001</v>
+        <v>116.4613275</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9259,7 +9443,7 @@
       </c>
       <c r="D67" s="37">
         <f t="shared" si="1"/>
-        <v>100.98346500000001</v>
+        <v>100.983465</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9301,7 +9485,7 @@
       </c>
       <c r="D70" s="37">
         <f t="shared" si="1"/>
-        <v>91.352430000000012</v>
+        <v>91.352429999999998</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9319,8 +9503,8 @@
         <v>3889.6</v>
       </c>
       <c r="D72" s="37">
-        <f t="shared" si="1"/>
-        <v>87.516000000000005</v>
+        <f t="shared" ref="D72:D76" si="2">C72*0.009*2.5</f>
+        <v>87.515999999999991</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9332,8 +9516,8 @@
         <v>3946.616</v>
       </c>
       <c r="D73" s="37">
-        <f t="shared" si="1"/>
-        <v>88.798860000000005</v>
+        <f t="shared" si="2"/>
+        <v>88.798859999999991</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9345,8 +9529,8 @@
         <v>4192.6400000000003</v>
       </c>
       <c r="D74" s="37">
-        <f t="shared" si="1"/>
-        <v>94.334400000000002</v>
+        <f t="shared" si="2"/>
+        <v>94.334399999999988</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9358,8 +9542,8 @@
         <v>4124.6139999999996</v>
       </c>
       <c r="D75" s="37">
-        <f t="shared" si="1"/>
-        <v>92.803815</v>
+        <f t="shared" si="2"/>
+        <v>92.803814999999986</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9371,8 +9555,8 @@
         <v>4349.4560000000001</v>
       </c>
       <c r="D76" s="37">
-        <f>C76*10*2.5/1000</f>
-        <v>108.73639999999999</v>
+        <f t="shared" si="2"/>
+        <v>97.862759999999994</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9425,13 +9609,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FB653F-4255-4899-B7D6-3BA7509BAA32}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9646,7 +9830,9 @@
       <c r="G15" s="8">
         <v>0.02</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
@@ -9683,7 +9869,9 @@
       <c r="G17" s="37">
         <v>0</v>
       </c>
-      <c r="H17" s="37"/>
+      <c r="H17" s="37">
+        <v>0</v>
+      </c>
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -9709,7 +9897,9 @@
       <c r="G18" s="37">
         <v>0</v>
       </c>
-      <c r="H18" s="37"/>
+      <c r="H18" s="37">
+        <v>0</v>
+      </c>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -9735,7 +9925,9 @@
       <c r="G19" s="37">
         <v>0</v>
       </c>
-      <c r="H19" s="37"/>
+      <c r="H19" s="37">
+        <v>0</v>
+      </c>
       <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -9761,7 +9953,9 @@
       <c r="G20" s="37">
         <v>0</v>
       </c>
-      <c r="H20" s="37"/>
+      <c r="H20" s="37">
+        <v>0</v>
+      </c>
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -9786,7 +9980,9 @@
       <c r="G21" s="37">
         <v>0</v>
       </c>
-      <c r="H21" s="37"/>
+      <c r="H21" s="37">
+        <v>0</v>
+      </c>
       <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -9811,7 +10007,9 @@
       <c r="G22" s="37">
         <v>0</v>
       </c>
-      <c r="H22" s="37"/>
+      <c r="H22" s="37">
+        <v>0</v>
+      </c>
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -9837,7 +10035,9 @@
       <c r="G23" s="37">
         <v>0</v>
       </c>
-      <c r="H23" s="37"/>
+      <c r="H23" s="37">
+        <v>0</v>
+      </c>
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -9863,7 +10063,9 @@
       <c r="G24" s="37">
         <v>0</v>
       </c>
-      <c r="H24" s="37"/>
+      <c r="H24" s="37">
+        <v>0</v>
+      </c>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -9889,7 +10091,9 @@
       <c r="G25" s="37">
         <v>0</v>
       </c>
-      <c r="H25" s="37"/>
+      <c r="H25" s="37">
+        <v>0</v>
+      </c>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -9915,7 +10119,9 @@
       <c r="G26" s="37">
         <v>0</v>
       </c>
-      <c r="H26" s="37"/>
+      <c r="H26" s="37">
+        <v>0</v>
+      </c>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -9941,7 +10147,9 @@
       <c r="G27" s="37">
         <v>0</v>
       </c>
-      <c r="H27" s="37"/>
+      <c r="H27" s="37">
+        <v>0</v>
+      </c>
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -9949,7 +10157,7 @@
         <v>1971</v>
       </c>
       <c r="B28" s="37">
-        <f>SUM(C28:G28)</f>
+        <f t="shared" ref="B28:B38" si="0">SUM(C28:G28)</f>
         <v>35</v>
       </c>
       <c r="C28" s="37">
@@ -9967,7 +10175,9 @@
       <c r="G28" s="37">
         <v>0</v>
       </c>
-      <c r="H28" s="37"/>
+      <c r="H28" s="37">
+        <v>0</v>
+      </c>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -9975,7 +10185,7 @@
         <v>1972</v>
       </c>
       <c r="B29" s="37">
-        <f>SUM(C29:G29)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C29" s="37">
@@ -9993,7 +10203,9 @@
       <c r="G29" s="37">
         <v>0</v>
       </c>
-      <c r="H29" s="37"/>
+      <c r="H29" s="37">
+        <v>0</v>
+      </c>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -10001,7 +10213,7 @@
         <v>1973</v>
       </c>
       <c r="B30" s="37">
-        <f>SUM(C30:G30)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="C30" s="37">
@@ -10019,7 +10231,9 @@
       <c r="G30" s="37">
         <v>0</v>
       </c>
-      <c r="H30" s="37"/>
+      <c r="H30" s="37">
+        <v>0</v>
+      </c>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -10027,7 +10241,7 @@
         <v>1974</v>
       </c>
       <c r="B31" s="37">
-        <f>SUM(C31:G31)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C31" s="37">
@@ -10045,7 +10259,9 @@
       <c r="G31" s="37">
         <v>0</v>
       </c>
-      <c r="H31" s="37"/>
+      <c r="H31" s="37">
+        <v>0</v>
+      </c>
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -10053,7 +10269,7 @@
         <v>1975</v>
       </c>
       <c r="B32" s="37">
-        <f>SUM(C32:G32)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C32" s="37">
@@ -10072,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="37">
-        <f>G32/2.5/0.009</f>
+        <f t="shared" ref="H32:H50" si="1">G32/2.5/0.009</f>
         <v>44.44444444444445</v>
       </c>
       <c r="I32" s="23"/>
@@ -10082,7 +10298,7 @@
         <v>1976</v>
       </c>
       <c r="B33" s="37">
-        <f>SUM(C33:G33)</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="C33" s="37">
@@ -10101,7 +10317,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="37">
-        <f>G33/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>88.8888888888889</v>
       </c>
       <c r="I33" s="23"/>
@@ -10111,7 +10327,7 @@
         <v>1977</v>
       </c>
       <c r="B34" s="37">
-        <f>SUM(C34:G34)</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="C34" s="37">
@@ -10130,7 +10346,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="37">
-        <f>G34/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>133.33333333333334</v>
       </c>
       <c r="I34" s="23"/>
@@ -10140,7 +10356,7 @@
         <v>1978</v>
       </c>
       <c r="B35" s="37">
-        <f>SUM(C35:G35)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="C35" s="37">
@@ -10159,7 +10375,7 @@
         <v>5</v>
       </c>
       <c r="H35" s="37">
-        <f>G35/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>222.22222222222223</v>
       </c>
       <c r="I35" s="23"/>
@@ -10169,7 +10385,7 @@
         <v>1979</v>
       </c>
       <c r="B36" s="37">
-        <f>SUM(C36:G36)</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="C36" s="37">
@@ -10188,7 +10404,7 @@
         <v>6</v>
       </c>
       <c r="H36" s="37">
-        <f>G36/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>266.66666666666669</v>
       </c>
       <c r="I36" s="23"/>
@@ -10198,7 +10414,7 @@
         <v>1980</v>
       </c>
       <c r="B37" s="37">
-        <f>SUM(C37:G37)</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="C37" s="37">
@@ -10217,7 +10433,7 @@
         <v>9</v>
       </c>
       <c r="H37" s="37">
-        <f>G37/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>400.00000000000006</v>
       </c>
       <c r="I37" s="23"/>
@@ -10227,7 +10443,7 @@
         <v>1981</v>
       </c>
       <c r="B38" s="37">
-        <f>SUM(C38:G38)</f>
+        <f t="shared" si="0"/>
         <v>123</v>
       </c>
       <c r="C38" s="37">
@@ -10246,7 +10462,7 @@
         <v>8</v>
       </c>
       <c r="H38" s="37">
-        <f>G38/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>355.5555555555556</v>
       </c>
       <c r="I38" s="23"/>
@@ -10275,7 +10491,7 @@
         <v>7</v>
       </c>
       <c r="H39" s="37">
-        <f>G39/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>311.11111111111114</v>
       </c>
       <c r="I39" s="23"/>
@@ -10304,7 +10520,7 @@
         <v>6</v>
       </c>
       <c r="H40" s="37">
-        <f>G40/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>266.66666666666669</v>
       </c>
       <c r="I40" s="23"/>
@@ -10333,7 +10549,7 @@
         <v>5</v>
       </c>
       <c r="H41" s="37">
-        <f>G41/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>222.22222222222223</v>
       </c>
       <c r="I41" s="23"/>
@@ -10362,7 +10578,7 @@
         <v>5</v>
       </c>
       <c r="H42" s="37">
-        <f>G42/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>222.22222222222223</v>
       </c>
       <c r="I42" s="23"/>
@@ -10391,7 +10607,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="37">
-        <f>G43/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>266.66666666666669</v>
       </c>
       <c r="I43" s="23"/>
@@ -10401,7 +10617,7 @@
         <v>1987</v>
       </c>
       <c r="B44" s="37">
-        <f>SUM(C44:G44)</f>
+        <f t="shared" ref="B44:B50" si="2">SUM(C44:G44)</f>
         <v>191</v>
       </c>
       <c r="C44" s="37">
@@ -10420,7 +10636,7 @@
         <v>6</v>
       </c>
       <c r="H44" s="37">
-        <f>G44/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>266.66666666666669</v>
       </c>
       <c r="I44" s="23"/>
@@ -10430,7 +10646,7 @@
         <v>1988</v>
       </c>
       <c r="B45" s="37">
-        <f>SUM(C45:G45)</f>
+        <f t="shared" si="2"/>
         <v>194</v>
       </c>
       <c r="C45" s="37">
@@ -10449,7 +10665,7 @@
         <v>6</v>
       </c>
       <c r="H45" s="37">
-        <f>G45/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>266.66666666666669</v>
       </c>
       <c r="I45" s="23"/>
@@ -10459,7 +10675,7 @@
         <v>1989</v>
       </c>
       <c r="B46" s="37">
-        <f>SUM(C46:G46)</f>
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
       <c r="C46" s="37">
@@ -10478,7 +10694,7 @@
         <v>7</v>
       </c>
       <c r="H46" s="37">
-        <f>G46/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>311.11111111111114</v>
       </c>
       <c r="I46" s="23"/>
@@ -10488,7 +10704,7 @@
         <v>1990</v>
       </c>
       <c r="B47" s="37">
-        <f>SUM(C47:G47)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="C47" s="37">
@@ -10507,7 +10723,7 @@
         <v>8</v>
       </c>
       <c r="H47" s="37">
-        <f>G47/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>355.5555555555556</v>
       </c>
       <c r="I47" s="23"/>
@@ -10517,7 +10733,7 @@
         <v>1991</v>
       </c>
       <c r="B48" s="37">
-        <f>SUM(C48:G48)</f>
+        <f t="shared" si="2"/>
         <v>202</v>
       </c>
       <c r="C48" s="37">
@@ -10536,17 +10752,17 @@
         <v>11</v>
       </c>
       <c r="H48" s="37">
-        <f>G48/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>488.88888888888897</v>
       </c>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>1992</v>
       </c>
       <c r="B49" s="37">
-        <f>SUM(C49:G49)</f>
+        <f t="shared" si="2"/>
         <v>221</v>
       </c>
       <c r="C49" s="37">
@@ -10565,17 +10781,17 @@
         <v>10</v>
       </c>
       <c r="H49" s="37">
-        <f>G49/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>444.44444444444446</v>
       </c>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>1993</v>
       </c>
       <c r="B50" s="37">
-        <f>SUM(C50:G50)</f>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="C50" s="37">
@@ -10594,12 +10810,12 @@
         <v>6</v>
       </c>
       <c r="H50" s="37">
-        <f>G50/2.5/0.009</f>
+        <f t="shared" si="1"/>
         <v>266.66666666666669</v>
       </c>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>1994</v>
       </c>
@@ -10611,7 +10827,7 @@
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>1995</v>
       </c>
@@ -10621,14 +10837,14 @@
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
       <c r="G52" s="37">
-        <f>H52*(9.2)*2.5/1000</f>
+        <f t="shared" ref="G52:G60" si="3">H52*(9.2)*2.5/1000</f>
         <v>9.2086019999999991</v>
       </c>
       <c r="H52" s="8">
         <v>400.37400000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>1996</v>
       </c>
@@ -10640,14 +10856,14 @@
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
       <c r="G53" s="37">
-        <f>H53*(9.2)*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>9.979538999999999</v>
       </c>
       <c r="H53" s="8">
         <v>433.89299999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>1997</v>
       </c>
@@ -10659,14 +10875,14 @@
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37">
-        <f>H54*(9.2)*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>10.487448000000001</v>
       </c>
       <c r="H54" s="8">
         <v>455.976</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>1998</v>
       </c>
@@ -10677,14 +10893,14 @@
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
       <c r="G55" s="37">
-        <f>H55*(9.2)*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>10.868373999999999</v>
       </c>
       <c r="H55" s="8">
         <v>472.53800000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>1999</v>
       </c>
@@ -10695,14 +10911,14 @@
       <c r="E56" s="38"/>
       <c r="F56" s="38"/>
       <c r="G56" s="37">
-        <f>H56*(9.2)*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>8.9088199999999986</v>
       </c>
       <c r="H56" s="8">
         <v>387.34</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>2000</v>
       </c>
@@ -10714,21 +10930,15 @@
       <c r="E57" s="38"/>
       <c r="F57" s="38"/>
       <c r="G57" s="37">
-        <f>H57*(9.2)*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>10.196681999999999</v>
       </c>
       <c r="H57" s="8">
         <v>443.334</v>
       </c>
-      <c r="I57" s="40">
-        <v>400374</v>
-      </c>
-      <c r="J57" s="19">
-        <f t="shared" ref="J57:J81" si="0">I57/1000</f>
-        <v>400.37400000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>2001</v>
       </c>
@@ -10740,21 +10950,15 @@
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
       <c r="G58" s="37">
-        <f>H58*(9.2)*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>11.294195999999999</v>
       </c>
       <c r="H58" s="8">
         <v>491.05200000000002</v>
       </c>
-      <c r="I58" s="40">
-        <v>433893</v>
-      </c>
-      <c r="J58" s="19">
-        <f t="shared" si="0"/>
-        <v>433.89299999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>2002</v>
       </c>
@@ -10766,21 +10970,15 @@
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
       <c r="G59" s="37">
-        <f>H59*(9.2)*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>10.998323999999997</v>
       </c>
       <c r="H59" s="8">
         <v>478.18799999999999</v>
       </c>
-      <c r="I59" s="40">
-        <v>455976</v>
-      </c>
-      <c r="J59" s="19">
-        <f t="shared" si="0"/>
-        <v>455.976</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>2003</v>
       </c>
@@ -10792,21 +10990,15 @@
       <c r="E60" s="38"/>
       <c r="F60" s="38"/>
       <c r="G60" s="37">
-        <f>H60*(9.2)*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>11.341921000000001</v>
       </c>
       <c r="H60" s="8">
         <v>493.12700000000001</v>
       </c>
-      <c r="I60" s="40">
-        <v>472538</v>
-      </c>
-      <c r="J60" s="19">
-        <f t="shared" si="0"/>
-        <v>472.53800000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>2004</v>
       </c>
@@ -10823,15 +11015,9 @@
       <c r="H61" s="8">
         <v>449.02499999999998</v>
       </c>
-      <c r="I61" s="40">
-        <v>387340</v>
-      </c>
-      <c r="J61" s="19">
-        <f t="shared" si="0"/>
-        <v>387.34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I61" s="40"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>2005</v>
       </c>
@@ -10848,15 +11034,9 @@
       <c r="H62" s="8">
         <v>699.721</v>
       </c>
-      <c r="I62" s="40">
-        <v>443334</v>
-      </c>
-      <c r="J62" s="19">
-        <f t="shared" si="0"/>
-        <v>443.334</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I62" s="40"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>2006</v>
       </c>
@@ -10868,21 +11048,15 @@
       <c r="E63" s="38"/>
       <c r="F63" s="38"/>
       <c r="G63" s="37">
-        <f>H63*(9.2)*2.5/1000</f>
+        <f t="shared" ref="G63:G76" si="4">H63*(9.2)*2.5/1000</f>
         <v>11.492777999999998</v>
       </c>
       <c r="H63" s="8">
         <v>499.68599999999998</v>
       </c>
-      <c r="I63" s="40">
-        <v>491052</v>
-      </c>
-      <c r="J63" s="19">
-        <f t="shared" si="0"/>
-        <v>491.05200000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I63" s="40"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>2007</v>
       </c>
@@ -10894,21 +11068,15 @@
       <c r="E64" s="38"/>
       <c r="F64" s="38"/>
       <c r="G64" s="37">
-        <f>H64*(9.2)*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>13.133505999999999</v>
       </c>
       <c r="H64" s="8">
         <v>571.02200000000005</v>
       </c>
-      <c r="I64" s="40">
-        <v>478188</v>
-      </c>
-      <c r="J64" s="19">
-        <f t="shared" si="0"/>
-        <v>478.18799999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I64" s="40"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>2008</v>
       </c>
@@ -10920,21 +11088,15 @@
       <c r="E65" s="37"/>
       <c r="F65" s="37"/>
       <c r="G65" s="37">
-        <f>H65*(9.2)*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>13.790339999999999</v>
       </c>
       <c r="H65" s="8">
         <v>599.58000000000004</v>
       </c>
-      <c r="I65" s="40">
-        <v>493127</v>
-      </c>
-      <c r="J65" s="19">
-        <f t="shared" si="0"/>
-        <v>493.12700000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I65" s="40"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>2009</v>
       </c>
@@ -10946,21 +11108,15 @@
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
       <c r="G66" s="37">
-        <f>H66*(9.2)*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>12.927333999999998</v>
       </c>
       <c r="H66" s="8">
         <v>562.05799999999999</v>
       </c>
-      <c r="I66" s="40">
-        <v>449025</v>
-      </c>
-      <c r="J66" s="19">
-        <f t="shared" si="0"/>
-        <v>449.02499999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I66" s="40"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
         <v>2010</v>
       </c>
@@ -10971,21 +11127,15 @@
       <c r="E67" s="37"/>
       <c r="F67" s="37"/>
       <c r="G67" s="37">
-        <f>H67*(9.2)*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>11.184739</v>
       </c>
       <c r="H67" s="8">
         <v>486.29300000000001</v>
       </c>
-      <c r="I67" s="40">
-        <v>699721</v>
-      </c>
-      <c r="J67" s="19">
-        <f t="shared" si="0"/>
-        <v>699.721</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I67" s="40"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>2011</v>
       </c>
@@ -10996,21 +11146,15 @@
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
       <c r="G68" s="37">
-        <f>H68*(9.2)*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>12.343110999999999</v>
       </c>
       <c r="H68" s="8">
         <v>536.65700000000004</v>
       </c>
-      <c r="I68" s="40">
-        <v>499686</v>
-      </c>
-      <c r="J68" s="19">
-        <f t="shared" si="0"/>
-        <v>499.68599999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I68" s="40"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>2012</v>
       </c>
@@ -11021,21 +11165,15 @@
       <c r="E69" s="37"/>
       <c r="F69" s="37"/>
       <c r="G69" s="37">
-        <f>H69*(9.2)*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>13.599508999999998</v>
       </c>
       <c r="H69" s="8">
         <v>591.28300000000002</v>
       </c>
-      <c r="I69" s="40">
-        <v>571022</v>
-      </c>
-      <c r="J69" s="19">
-        <f t="shared" si="0"/>
-        <v>571.02200000000005</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I69" s="40"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>2013</v>
       </c>
@@ -11046,21 +11184,15 @@
       <c r="E70" s="37"/>
       <c r="F70" s="37"/>
       <c r="G70" s="37">
-        <f>H70*(9.2)*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>11.751458999999999</v>
       </c>
       <c r="H70" s="8">
         <v>510.93299999999999</v>
       </c>
-      <c r="I70" s="40">
-        <v>599580</v>
-      </c>
-      <c r="J70" s="19">
-        <f t="shared" si="0"/>
-        <v>599.58000000000004</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I70" s="40"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>2014</v>
       </c>
@@ -11071,21 +11203,15 @@
       <c r="E71" s="37"/>
       <c r="F71" s="37"/>
       <c r="G71" s="37">
-        <f>H71*(9.2)*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>12.467908999999997</v>
       </c>
       <c r="H71" s="8">
         <v>542.08299999999997</v>
       </c>
-      <c r="I71" s="40">
-        <v>562058</v>
-      </c>
-      <c r="J71" s="19">
-        <f t="shared" si="0"/>
-        <v>562.05799999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I71" s="40"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>2015</v>
       </c>
@@ -11096,21 +11222,15 @@
       <c r="E72" s="37"/>
       <c r="F72" s="37"/>
       <c r="G72" s="37">
-        <f>H72*(9.2)*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>10.045572</v>
       </c>
       <c r="H72" s="8">
         <v>436.76400000000001</v>
       </c>
-      <c r="I72" s="40">
-        <v>486293</v>
-      </c>
-      <c r="J72" s="19">
-        <f t="shared" si="0"/>
-        <v>486.29300000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I72" s="40"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>2016</v>
       </c>
@@ -11121,21 +11241,15 @@
       <c r="E73" s="37"/>
       <c r="F73" s="37"/>
       <c r="G73" s="37">
-        <f>H73*(9.2)*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>9.8299009999999978</v>
       </c>
       <c r="H73" s="8">
         <v>427.387</v>
       </c>
-      <c r="I73" s="40">
-        <v>536657</v>
-      </c>
-      <c r="J73" s="19">
-        <f t="shared" si="0"/>
-        <v>536.65700000000004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I73" s="40"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>2017</v>
       </c>
@@ -11147,21 +11261,15 @@
       <c r="E74" s="37"/>
       <c r="F74" s="37"/>
       <c r="G74" s="37">
-        <f>H74*(9.2)*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>10.351357</v>
       </c>
       <c r="H74" s="8">
         <v>450.05900000000003</v>
       </c>
-      <c r="I74" s="40">
-        <v>591283</v>
-      </c>
-      <c r="J74" s="19">
-        <f t="shared" si="0"/>
-        <v>591.28300000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I74" s="40"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>2018</v>
       </c>
@@ -11173,21 +11281,15 @@
       <c r="E75" s="37"/>
       <c r="F75" s="37"/>
       <c r="G75" s="37">
-        <f>H75*(9.2)*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>8.2984229999999997</v>
       </c>
       <c r="H75" s="8">
         <v>360.80099999999999</v>
       </c>
-      <c r="I75" s="40">
-        <v>510933</v>
-      </c>
-      <c r="J75" s="19">
-        <f t="shared" si="0"/>
-        <v>510.93299999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I75" s="40"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>2019</v>
       </c>
@@ -11199,67 +11301,31 @@
       <c r="E76" s="37"/>
       <c r="F76" s="37"/>
       <c r="G76" s="37">
-        <f>H76*(9.2)*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>14.018108999999997</v>
       </c>
       <c r="H76" s="8">
         <v>609.48299999999995</v>
       </c>
-      <c r="I76" s="40">
-        <v>542083</v>
-      </c>
-      <c r="J76" s="19">
-        <f t="shared" si="0"/>
-        <v>542.08299999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I76" s="40"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>2020</v>
       </c>
-      <c r="I77" s="40">
-        <v>436764</v>
-      </c>
-      <c r="J77" s="19">
-        <f t="shared" si="0"/>
-        <v>436.76400000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I78" s="40">
-        <v>427387</v>
-      </c>
-      <c r="J78" s="19">
-        <f t="shared" si="0"/>
-        <v>427.387</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I79" s="40">
-        <v>450059</v>
-      </c>
-      <c r="J79" s="19">
-        <f t="shared" si="0"/>
-        <v>450.05900000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I80" s="40">
-        <v>360801</v>
-      </c>
-      <c r="J80" s="19">
-        <f t="shared" si="0"/>
-        <v>360.80099999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I81" s="40">
-        <v>609483</v>
-      </c>
-      <c r="J81" s="19">
-        <f t="shared" si="0"/>
-        <v>609.48299999999995</v>
-      </c>
+      <c r="I77" s="40"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I78" s="40"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I79" s="40"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I80" s="40"/>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I81" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11273,11 +11339,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11643,7 +11709,7 @@
         <v>13.080000000000002</v>
       </c>
       <c r="H17" s="37">
-        <f>G17/2.5/0.009</f>
+        <f t="shared" ref="H17:H50" si="0">G17/2.5/0.009</f>
         <v>581.33333333333348</v>
       </c>
       <c r="I17" s="11"/>
@@ -11673,7 +11739,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="37">
-        <f>G18/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>755.55555555555554</v>
       </c>
       <c r="I18" s="11"/>
@@ -11703,7 +11769,7 @@
         <v>20</v>
       </c>
       <c r="H19" s="37">
-        <f>G19/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>888.88888888888891</v>
       </c>
       <c r="I19" s="11"/>
@@ -11733,7 +11799,7 @@
         <v>21</v>
       </c>
       <c r="H20" s="37">
-        <f>G20/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>933.33333333333348</v>
       </c>
       <c r="I20" s="11"/>
@@ -11763,7 +11829,7 @@
         <v>25</v>
       </c>
       <c r="H21" s="37">
-        <f>G21/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1111.1111111111111</v>
       </c>
       <c r="I21" s="11"/>
@@ -11793,7 +11859,7 @@
         <v>34</v>
       </c>
       <c r="H22" s="37">
-        <f>G22/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1511.1111111111111</v>
       </c>
       <c r="I22" s="11"/>
@@ -11823,7 +11889,7 @@
         <v>32</v>
       </c>
       <c r="H23" s="37">
-        <f>G23/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1422.2222222222224</v>
       </c>
       <c r="I23" s="11"/>
@@ -11853,7 +11919,7 @@
         <v>36</v>
       </c>
       <c r="H24" s="37">
-        <f>G24/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1600.0000000000002</v>
       </c>
       <c r="I24" s="11"/>
@@ -11883,7 +11949,7 @@
         <v>37</v>
       </c>
       <c r="H25" s="37">
-        <f>G25/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1644.4444444444446</v>
       </c>
       <c r="I25" s="11"/>
@@ -11913,7 +11979,7 @@
         <v>42</v>
       </c>
       <c r="H26" s="37">
-        <f>G26/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1866.666666666667</v>
       </c>
       <c r="I26" s="11"/>
@@ -11943,7 +12009,7 @@
         <v>47</v>
       </c>
       <c r="H27" s="37">
-        <f>G27/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>2088.8888888888891</v>
       </c>
       <c r="I27" s="11"/>
@@ -11954,7 +12020,7 @@
         <v>1971</v>
       </c>
       <c r="B28" s="4">
-        <f>SUM(C28:G28)</f>
+        <f t="shared" ref="B28:B38" si="1">SUM(C28:G28)</f>
         <v>498</v>
       </c>
       <c r="C28" s="8">
@@ -11973,7 +12039,7 @@
         <v>45</v>
       </c>
       <c r="H28" s="37">
-        <f>G28/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>2000.0000000000002</v>
       </c>
       <c r="I28" s="11"/>
@@ -11984,7 +12050,7 @@
         <v>1972</v>
       </c>
       <c r="B29" s="4">
-        <f>SUM(C29:G29)</f>
+        <f t="shared" si="1"/>
         <v>569</v>
       </c>
       <c r="C29" s="8">
@@ -12003,7 +12069,7 @@
         <v>44</v>
       </c>
       <c r="H29" s="37">
-        <f>G29/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1955.5555555555559</v>
       </c>
       <c r="I29" s="11"/>
@@ -12014,7 +12080,7 @@
         <v>1973</v>
       </c>
       <c r="B30" s="4">
-        <f>SUM(C30:G30)</f>
+        <f t="shared" si="1"/>
         <v>565</v>
       </c>
       <c r="C30" s="8">
@@ -12033,7 +12099,7 @@
         <v>40</v>
       </c>
       <c r="H30" s="37">
-        <f>G30/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1777.7777777777778</v>
       </c>
       <c r="I30" s="11"/>
@@ -12044,7 +12110,7 @@
         <v>1974</v>
       </c>
       <c r="B31" s="4">
-        <f>SUM(C31:G31)</f>
+        <f t="shared" si="1"/>
         <v>515</v>
       </c>
       <c r="C31" s="8">
@@ -12063,7 +12129,7 @@
         <v>34</v>
       </c>
       <c r="H31" s="37">
-        <f>G31/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1511.1111111111111</v>
       </c>
       <c r="I31" s="11"/>
@@ -12074,7 +12140,7 @@
         <v>1975</v>
       </c>
       <c r="B32" s="4">
-        <f>SUM(C32:G32)</f>
+        <f t="shared" si="1"/>
         <v>358</v>
       </c>
       <c r="C32" s="8">
@@ -12093,7 +12159,7 @@
         <v>34</v>
       </c>
       <c r="H32" s="37">
-        <f>G32/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1511.1111111111111</v>
       </c>
       <c r="I32" s="11"/>
@@ -12104,7 +12170,7 @@
         <v>1976</v>
       </c>
       <c r="B33" s="4">
-        <f>SUM(C33:G33)</f>
+        <f t="shared" si="1"/>
         <v>505</v>
       </c>
       <c r="C33" s="8">
@@ -12123,7 +12189,7 @@
         <v>32</v>
       </c>
       <c r="H33" s="37">
-        <f>G33/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1422.2222222222224</v>
       </c>
       <c r="I33" s="11"/>
@@ -12134,7 +12200,7 @@
         <v>1977</v>
       </c>
       <c r="B34" s="4">
-        <f>SUM(C34:G34)</f>
+        <f t="shared" si="1"/>
         <v>548</v>
       </c>
       <c r="C34" s="8">
@@ -12153,7 +12219,7 @@
         <v>26</v>
       </c>
       <c r="H34" s="37">
-        <f>G34/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1155.5555555555557</v>
       </c>
       <c r="I34" s="11"/>
@@ -12164,7 +12230,7 @@
         <v>1978</v>
       </c>
       <c r="B35" s="4">
-        <f>SUM(C35:G35)</f>
+        <f t="shared" si="1"/>
         <v>633</v>
       </c>
       <c r="C35" s="8">
@@ -12183,7 +12249,7 @@
         <v>33</v>
       </c>
       <c r="H35" s="37">
-        <f>G35/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1466.6666666666667</v>
       </c>
       <c r="I35" s="11"/>
@@ -12194,7 +12260,7 @@
         <v>1979</v>
       </c>
       <c r="B36" s="4">
-        <f>SUM(C36:G36)</f>
+        <f t="shared" si="1"/>
         <v>646</v>
       </c>
       <c r="C36" s="8">
@@ -12213,7 +12279,7 @@
         <v>41</v>
       </c>
       <c r="H36" s="37">
-        <f>G36/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1822.2222222222222</v>
       </c>
       <c r="I36" s="11"/>
@@ -12224,7 +12290,7 @@
         <v>1980</v>
       </c>
       <c r="B37" s="4">
-        <f>SUM(C37:G37)</f>
+        <f t="shared" si="1"/>
         <v>657</v>
       </c>
       <c r="C37" s="8">
@@ -12243,7 +12309,7 @@
         <v>54</v>
       </c>
       <c r="H37" s="37">
-        <f>G37/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>2400.0000000000005</v>
       </c>
       <c r="I37" s="11"/>
@@ -12254,7 +12320,7 @@
         <v>1981</v>
       </c>
       <c r="B38" s="4">
-        <f>SUM(C38:G38)</f>
+        <f t="shared" si="1"/>
         <v>586</v>
       </c>
       <c r="C38" s="8">
@@ -12273,7 +12339,7 @@
         <v>39</v>
       </c>
       <c r="H38" s="37">
-        <f>G38/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1733.3333333333335</v>
       </c>
       <c r="I38" s="11"/>
@@ -12303,7 +12369,7 @@
         <v>29</v>
       </c>
       <c r="H39" s="37">
-        <f>G39/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1288.8888888888889</v>
       </c>
       <c r="I39" s="11"/>
@@ -12333,7 +12399,7 @@
         <v>25</v>
       </c>
       <c r="H40" s="37">
-        <f>G40/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1111.1111111111111</v>
       </c>
       <c r="I40" s="11"/>
@@ -12363,7 +12429,7 @@
         <v>24</v>
       </c>
       <c r="H41" s="37">
-        <f>G41/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1066.6666666666667</v>
       </c>
       <c r="I41" s="11"/>
@@ -12393,7 +12459,7 @@
         <v>27</v>
       </c>
       <c r="H42" s="37">
-        <f>G42/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1200.0000000000002</v>
       </c>
       <c r="I42" s="11"/>
@@ -12423,7 +12489,7 @@
         <v>28</v>
       </c>
       <c r="H43" s="37">
-        <f>G43/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1244.4444444444446</v>
       </c>
       <c r="I43" s="11"/>
@@ -12434,7 +12500,7 @@
         <v>1987</v>
       </c>
       <c r="B44" s="4">
-        <f>SUM(C44:G44)</f>
+        <f t="shared" ref="B44:B50" si="2">SUM(C44:G44)</f>
         <v>876</v>
       </c>
       <c r="C44" s="8">
@@ -12453,7 +12519,7 @@
         <v>32</v>
       </c>
       <c r="H44" s="37">
-        <f>G44/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1422.2222222222224</v>
       </c>
       <c r="I44" s="11"/>
@@ -12464,7 +12530,7 @@
         <v>1988</v>
       </c>
       <c r="B45" s="4">
-        <f>SUM(C45:G45)</f>
+        <f t="shared" si="2"/>
         <v>888</v>
       </c>
       <c r="C45" s="8">
@@ -12483,7 +12549,7 @@
         <v>37</v>
       </c>
       <c r="H45" s="37">
-        <f>G45/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1644.4444444444446</v>
       </c>
       <c r="I45" s="11"/>
@@ -12494,7 +12560,7 @@
         <v>1989</v>
       </c>
       <c r="B46" s="4">
-        <f>SUM(C46:G46)</f>
+        <f t="shared" si="2"/>
         <v>1076</v>
       </c>
       <c r="C46" s="8">
@@ -12513,7 +12579,7 @@
         <v>32</v>
       </c>
       <c r="H46" s="37">
-        <f>G46/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1422.2222222222224</v>
       </c>
       <c r="I46" s="11"/>
@@ -12524,7 +12590,7 @@
         <v>1990</v>
       </c>
       <c r="B47" s="4">
-        <f>SUM(C47:G47)</f>
+        <f t="shared" si="2"/>
         <v>1091</v>
       </c>
       <c r="C47" s="8">
@@ -12543,7 +12609,7 @@
         <v>30</v>
       </c>
       <c r="H47" s="37">
-        <f>G47/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1333.3333333333335</v>
       </c>
       <c r="I47" s="11"/>
@@ -12554,7 +12620,7 @@
         <v>1991</v>
       </c>
       <c r="B48" s="4">
-        <f>SUM(C48:G48)</f>
+        <f t="shared" si="2"/>
         <v>957</v>
       </c>
       <c r="C48" s="8">
@@ -12573,7 +12639,7 @@
         <v>28</v>
       </c>
       <c r="H48" s="37">
-        <f>G48/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1244.4444444444446</v>
       </c>
       <c r="I48" s="11"/>
@@ -12584,7 +12650,7 @@
         <v>1992</v>
       </c>
       <c r="B49" s="4">
-        <f>SUM(C49:G49)</f>
+        <f t="shared" si="2"/>
         <v>981</v>
       </c>
       <c r="C49" s="8">
@@ -12603,7 +12669,7 @@
         <v>26</v>
       </c>
       <c r="H49" s="37">
-        <f>G49/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1155.5555555555557</v>
       </c>
       <c r="I49" s="11"/>
@@ -12614,7 +12680,7 @@
         <v>1993</v>
       </c>
       <c r="B50" s="4">
-        <f>SUM(C50:G50)</f>
+        <f t="shared" si="2"/>
         <v>1065</v>
       </c>
       <c r="C50" s="8">
@@ -12633,7 +12699,7 @@
         <v>27</v>
       </c>
       <c r="H50" s="37">
-        <f>G50/2.5/0.009</f>
+        <f t="shared" si="0"/>
         <v>1200.0000000000002</v>
       </c>
       <c r="I50" s="11"/>
@@ -12662,7 +12728,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="8">
-        <f>H52*11*2.5/1000</f>
+        <f t="shared" ref="G52:G60" si="3">H52*11*2.5/1000</f>
         <v>31.953322500000002</v>
       </c>
       <c r="H52" s="8">
@@ -12683,7 +12749,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="8">
-        <f>H53*11*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>28.438575</v>
       </c>
       <c r="H53" s="8">
@@ -12704,7 +12770,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="8">
-        <f>H54*11*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>32.004307499999996</v>
       </c>
       <c r="H54" s="8">
@@ -12725,7 +12791,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="8">
-        <f>H55*11*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>36.909702500000002</v>
       </c>
       <c r="H55" s="8">
@@ -12746,7 +12812,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="8">
-        <f>H56*11*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>41.368497500000004</v>
       </c>
       <c r="H56" s="8">
@@ -12767,7 +12833,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="8">
-        <f>H57*11*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>45.356987500000002</v>
       </c>
       <c r="H57" s="8">
@@ -12788,7 +12854,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="10"/>
       <c r="G58" s="8">
-        <f>H58*11*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>47.589767500000001</v>
       </c>
       <c r="H58" s="8">
@@ -12809,7 +12875,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="10"/>
       <c r="G59" s="8">
-        <f>H59*11*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>42.730462500000002</v>
       </c>
       <c r="H59" s="8">
@@ -12830,7 +12896,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="10"/>
       <c r="G60" s="8">
-        <f>H60*11*2.5/1000</f>
+        <f t="shared" si="3"/>
         <v>35.249142500000005</v>
       </c>
       <c r="H60" s="8">
@@ -12891,7 +12957,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="8">
-        <f>H63*11*2.5/1000</f>
+        <f t="shared" ref="G63:G75" si="4">H63*11*2.5/1000</f>
         <v>23.251745000000003</v>
       </c>
       <c r="H63" s="8">
@@ -12912,7 +12978,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="8">
-        <f>H64*11*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>27.908347500000001</v>
       </c>
       <c r="H64" s="8">
@@ -12933,7 +12999,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="8">
-        <f>H65*11*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>29.395684999999997</v>
       </c>
       <c r="H65" s="8">
@@ -12954,7 +13020,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="8">
-        <f>H66*11*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>23.787912499999997</v>
       </c>
       <c r="H66" s="8">
@@ -12975,7 +13041,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="10"/>
       <c r="G67" s="8">
-        <f>H67*11*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>22.698307500000002</v>
       </c>
       <c r="H67" s="8">
@@ -12996,7 +13062,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="10"/>
       <c r="G68" s="8">
-        <f>H68*11*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>19.528629999999996</v>
       </c>
       <c r="H68" s="8">
@@ -13017,7 +13083,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="10"/>
       <c r="G69" s="8">
-        <f>H69*11*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>15.309442500000001</v>
       </c>
       <c r="H69" s="8">
@@ -13038,7 +13104,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="10"/>
       <c r="G70" s="8">
-        <f>H70*11*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>15.463222500000001</v>
       </c>
       <c r="H70" s="8">
@@ -13059,7 +13125,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="10"/>
       <c r="G71" s="8">
-        <f>H71*11*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>14.345732499999999</v>
       </c>
       <c r="H71" s="8">
@@ -13080,7 +13146,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="10"/>
       <c r="G72" s="8">
-        <f>H72*11*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>19.744972499999999</v>
       </c>
       <c r="H72" s="8">
@@ -13101,7 +13167,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="10"/>
       <c r="G73" s="8">
-        <f>H73*11*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>21.609857499999997</v>
       </c>
       <c r="H73" s="8">
@@ -13122,7 +13188,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="10"/>
       <c r="G74" s="8">
-        <f>H74*11*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>19.800934999999999</v>
       </c>
       <c r="H74" s="8">
@@ -13143,7 +13209,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="10"/>
       <c r="G75" s="8">
-        <f>H75*11*2.5/1000</f>
+        <f t="shared" si="4"/>
         <v>20.938197500000001</v>
       </c>
       <c r="H75" s="8">
@@ -16323,4 +16389,634 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20697ACE-82C7-45F0-9119-243699C7EDD6}">
+  <dimension ref="A1:C88"/>
+  <sheetViews>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>1947</v>
+      </c>
+      <c r="B4" s="8">
+        <v>8512</v>
+      </c>
+      <c r="C4" s="46"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>1960</v>
+      </c>
+      <c r="B17" s="8">
+        <v>9153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>1961</v>
+      </c>
+      <c r="B18" s="8">
+        <v>9184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>1962</v>
+      </c>
+      <c r="B19" s="8">
+        <v>9221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>1963</v>
+      </c>
+      <c r="B20" s="8">
+        <v>9290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>1964</v>
+      </c>
+      <c r="B21" s="8">
+        <v>9378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>1965</v>
+      </c>
+      <c r="B22" s="8">
+        <v>9464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>1966</v>
+      </c>
+      <c r="B23" s="8">
+        <v>9528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>1967</v>
+      </c>
+      <c r="B24" s="8">
+        <v>9581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>1968</v>
+      </c>
+      <c r="B25" s="8">
+        <v>9619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>1969</v>
+      </c>
+      <c r="B26" s="8">
+        <v>9646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>1970</v>
+      </c>
+      <c r="B27" s="8">
+        <v>9656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>1971</v>
+      </c>
+      <c r="B28" s="8">
+        <v>9673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>1972</v>
+      </c>
+      <c r="B29" s="8">
+        <v>9711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>1973</v>
+      </c>
+      <c r="B30" s="8">
+        <v>9742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>1974</v>
+      </c>
+      <c r="B31" s="8">
+        <v>9772</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>1975</v>
+      </c>
+      <c r="B32" s="8">
+        <v>9801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>1976</v>
+      </c>
+      <c r="B33" s="8">
+        <v>9818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>1977</v>
+      </c>
+      <c r="B34" s="8">
+        <v>9830</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>1978</v>
+      </c>
+      <c r="B35" s="8">
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>1979</v>
+      </c>
+      <c r="B36" s="8">
+        <v>9848</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>1980</v>
+      </c>
+      <c r="B37" s="8">
+        <v>9859</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>1981</v>
+      </c>
+      <c r="B38" s="8">
+        <v>9859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>1982</v>
+      </c>
+      <c r="B39" s="8">
+        <v>9856</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>1983</v>
+      </c>
+      <c r="B40" s="8">
+        <v>9856</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>1984</v>
+      </c>
+      <c r="B41" s="8">
+        <v>9855</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>1985</v>
+      </c>
+      <c r="B42" s="8">
+        <v>9858</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>1986</v>
+      </c>
+      <c r="B43" s="8">
+        <v>9862</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>1987</v>
+      </c>
+      <c r="B44" s="8">
+        <v>9870</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>1988</v>
+      </c>
+      <c r="B45" s="8">
+        <v>9902</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>1989</v>
+      </c>
+      <c r="B46" s="8">
+        <v>9938</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>1990</v>
+      </c>
+      <c r="B47" s="8">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>1991</v>
+      </c>
+      <c r="B48" s="8">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>1992</v>
+      </c>
+      <c r="B49" s="8">
+        <v>10045</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>1993</v>
+      </c>
+      <c r="B50" s="8">
+        <v>10084</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>1994</v>
+      </c>
+      <c r="B51" s="8">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>1995</v>
+      </c>
+      <c r="B52" s="8">
+        <v>10137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>1996</v>
+      </c>
+      <c r="B53" s="8">
+        <v>10157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>1997</v>
+      </c>
+      <c r="B54" s="8">
+        <v>10181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>1998</v>
+      </c>
+      <c r="B55" s="8">
+        <v>10203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>1999</v>
+      </c>
+      <c r="B56" s="8">
+        <v>10226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
+        <v>2000</v>
+      </c>
+      <c r="B57" s="8">
+        <v>10251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
+        <v>2001</v>
+      </c>
+      <c r="B58" s="8">
+        <v>10287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <v>2002</v>
+      </c>
+      <c r="B59" s="8">
+        <v>10333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>2003</v>
+      </c>
+      <c r="B60" s="8">
+        <v>10376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>2004</v>
+      </c>
+      <c r="B61" s="8">
+        <v>10421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>2005</v>
+      </c>
+      <c r="B62" s="8">
+        <v>10479</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>2006</v>
+      </c>
+      <c r="B63" s="8">
+        <v>10548</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>2007</v>
+      </c>
+      <c r="B64" s="8">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>2008</v>
+      </c>
+      <c r="B65" s="8">
+        <v>10710</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>2009</v>
+      </c>
+      <c r="B66" s="8">
+        <v>10796</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <v>2010</v>
+      </c>
+      <c r="B67" s="8">
+        <v>10896</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
+        <v>2011</v>
+      </c>
+      <c r="B68" s="8">
+        <v>10994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <v>2012</v>
+      </c>
+      <c r="B69" s="8">
+        <v>11068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>2013</v>
+      </c>
+      <c r="B70" s="8">
+        <v>11125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
+        <v>2014</v>
+      </c>
+      <c r="B71" s="8">
+        <v>11180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
+        <v>2015</v>
+      </c>
+      <c r="B72" s="8">
+        <v>11238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
+        <v>2016</v>
+      </c>
+      <c r="B73" s="8">
+        <v>11295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
+        <v>2017</v>
+      </c>
+      <c r="B74" s="8">
+        <v>11349</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
+        <v>2018</v>
+      </c>
+      <c r="B75" s="8">
+        <v>11404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B76" s="8">
+        <v>11481</v>
+      </c>
+      <c r="C76" s="48"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
+        <v>2020</v>
+      </c>
+      <c r="B77" s="47">
+        <v>11493</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/RawData/BE_RawData_VPython.xlsx
+++ b/RawData/BE_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD863548-2EC2-44F1-BE77-8063B08D4D91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50ED58E-133A-4BD9-A8D8-3FAB57E25531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="600" windowWidth="13125" windowHeight="15600" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
@@ -122,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{6C77227F-1643-4775-B843-631830CA24FD}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{6C77227F-1643-4775-B843-631830CA24FD}">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{FFF54F8C-42A9-47BE-BA11-9E812209664C}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{FFF54F8C-42A9-47BE-BA11-9E812209664C}">
       <text>
         <r>
           <rPr>
@@ -160,6 +160,19 @@
             <family val="2"/>
           </rPr>
           <t>"L'industrie du verre en Belgique", Verre, vol 1, n° 4, July-August, 1987, p. 432-9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{96C299E4-2F85-40C0-9F3A-1BF5ACC63F3A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100.000 insulating glass units intalled in Europe in the year 1955. We suppose an average window area of 1.5x1.5m². It represents 2% of the annual production of the year 1970. We generalise this ratio to France and Belgium.</t>
         </r>
       </text>
     </comment>
@@ -7055,7 +7068,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -7195,6 +7208,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -8670,11 +8686,11 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8711,19 +8727,19 @@
         <v>1946</v>
       </c>
       <c r="B3" s="9"/>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <f>C3*0.009*2.5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1947</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <f>C4*0.0091*2.5</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -8744,14 +8760,6 @@
       <c r="B7" s="9">
         <v>206.25</v>
       </c>
-      <c r="C7" s="45">
-        <f>0.0015*C27</f>
-        <v>4.0513333333333339</v>
-      </c>
-      <c r="D7" s="8">
-        <f>C7*2.5*0.009</f>
-        <v>9.1155E-2</v>
-      </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -8782,6 +8790,14 @@
         <v>1955</v>
       </c>
       <c r="B12" s="9"/>
+      <c r="C12" s="45">
+        <f>0.02*C27</f>
+        <v>54.017777777777781</v>
+      </c>
+      <c r="D12" s="8">
+        <f>C12*0.009*2.5</f>
+        <v>1.2154</v>
+      </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -8907,8 +8923,8 @@
         <v>2700.8888888888891</v>
       </c>
       <c r="D27" s="37">
-        <f t="shared" ref="D27:D38" si="0">C27*0.0091*2.5</f>
-        <v>61.445222222222228</v>
+        <f>C27*0.009*2.5</f>
+        <v>60.769999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8923,8 +8939,8 @@
         <v>2646.8888888888891</v>
       </c>
       <c r="D28" s="37">
-        <f t="shared" si="0"/>
-        <v>60.216722222222231</v>
+        <f t="shared" ref="D28:D39" si="0">C28*0.009*2.5</f>
+        <v>59.555</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8940,7 +8956,7 @@
       </c>
       <c r="D29" s="37">
         <f t="shared" si="0"/>
-        <v>60.830972222222229</v>
+        <v>60.162500000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8956,7 +8972,7 @@
       </c>
       <c r="D30" s="37">
         <f t="shared" si="0"/>
-        <v>63.287972222222237</v>
+        <v>62.592500000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8972,7 +8988,7 @@
       </c>
       <c r="D31" s="37">
         <f t="shared" si="0"/>
-        <v>69.020972222222227</v>
+        <v>68.262500000000003</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8988,7 +9004,7 @@
       </c>
       <c r="D32" s="37">
         <f t="shared" si="0"/>
-        <v>73.627847222222229</v>
+        <v>72.818750000000009</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9004,7 +9020,7 @@
       </c>
       <c r="D33" s="37">
         <f t="shared" si="0"/>
-        <v>79.667972222222232</v>
+        <v>78.792500000000004</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9020,7 +9036,7 @@
       </c>
       <c r="D34" s="37">
         <f t="shared" si="0"/>
-        <v>84.991472222222228</v>
+        <v>84.05749999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9036,7 +9052,7 @@
       </c>
       <c r="D35" s="37">
         <f t="shared" si="0"/>
-        <v>85.400972222222236</v>
+        <v>84.462499999999991</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9052,7 +9068,7 @@
       </c>
       <c r="D36" s="37">
         <f t="shared" si="0"/>
-        <v>85.400972222222236</v>
+        <v>84.462499999999991</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9068,7 +9084,7 @@
       </c>
       <c r="D37" s="37">
         <f t="shared" si="0"/>
-        <v>98.709722222222226</v>
+        <v>97.625</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9084,7 +9100,7 @@
       </c>
       <c r="D38" s="37">
         <f t="shared" si="0"/>
-        <v>90.519722222222242</v>
+        <v>89.525000000000006</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9099,8 +9115,8 @@
         <v>3798.8888888888891</v>
       </c>
       <c r="D39" s="37">
-        <f>C39*0.0091*2.5</f>
-        <v>86.424722222222229</v>
+        <f t="shared" si="0"/>
+        <v>85.474999999999994</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9615,7 +9631,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11339,11 +11355,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12699,8 +12715,8 @@
         <v>27</v>
       </c>
       <c r="H50" s="37">
-        <f t="shared" si="0"/>
-        <v>1200.0000000000002</v>
+        <f>G50/2.5/0.01</f>
+        <v>1080</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
@@ -12902,7 +12918,6 @@
       <c r="H60" s="8">
         <v>1281.787</v>
       </c>
-      <c r="I60" s="39"/>
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12922,7 +12937,10 @@
       <c r="H61" s="8">
         <v>1129.606</v>
       </c>
-      <c r="I61" s="39"/>
+      <c r="I61" s="49">
+        <f>G61/H61/2.5</f>
+        <v>1.2075006683746368E-2</v>
+      </c>
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12942,8 +12960,14 @@
       <c r="H62" s="8">
         <v>1132.49</v>
       </c>
-      <c r="I62" s="39"/>
-      <c r="J62" s="11"/>
+      <c r="I62" s="49">
+        <f>G62/H62/2.5</f>
+        <v>1.0914003655661418E-2</v>
+      </c>
+      <c r="J62" s="11">
+        <f>I62+I61</f>
+        <v>2.2989010339407784E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
@@ -12964,7 +12988,10 @@
         <v>845.51800000000003</v>
       </c>
       <c r="I63" s="39"/>
-      <c r="J63" s="11"/>
+      <c r="J63" s="49">
+        <f>J62/2</f>
+        <v>1.1494505169703892E-2</v>
+      </c>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14">

--- a/RawData/BE_RawData_VPython.xlsx
+++ b/RawData/BE_RawData_VPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50ED58E-133A-4BD9-A8D8-3FAB57E25531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EA3DFA-4754-4061-9692-BB89F2B515E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="1170" yWindow="600" windowWidth="13125" windowHeight="15600" firstSheet="2" activeTab="4" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
@@ -4333,13 +4333,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See also:
+Verre…, vol 1, N° 4, juillet-aout 1987
 "L'industrie du verre en Belgique" p. 432-9</t>
         </r>
       </text>
@@ -4576,13 +4576,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See also:
+Verre…, vol 1, N° 4, juillet-aout 1987
 "L'industrie du verre en Belgique" p. 432-9</t>
         </r>
       </text>
@@ -4610,13 +4610,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See also:
+Verre…, vol 1, N° 4, juillet-aout 1987
 "L'industrie du verre en Belgique" p. 432-9</t>
         </r>
       </text>
@@ -4644,13 +4644,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See also:
+Verre…, vol 1, N° 4, juillet-aout 1987
 "L'industrie du verre en Belgique" p. 432-9</t>
         </r>
       </text>
@@ -4678,13 +4678,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See also:
+Verre…, vol 1, N° 4, juillet-aout 1987
 "L'industrie du verre en Belgique" p. 432-9</t>
         </r>
       </text>
@@ -4712,13 +4712,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Verre…, vol 1, N° 4, juillet-aout 1987
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See also:
+Verre…, vol 1, N° 4, juillet-aout 1987
 "L'industrie du verre en Belgique" p. 432-9</t>
         </r>
       </text>
@@ -7068,7 +7068,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -7209,6 +7209,10 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -8687,10 +8691,10 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8821,7 +8825,7 @@
       <c r="A16" s="2">
         <v>1959</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="51"/>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -9631,7 +9635,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9867,8 +9871,8 @@
         <v>1960</v>
       </c>
       <c r="B17" s="37">
-        <f>SUM(C17:G17)</f>
-        <v>14</v>
+        <f>14+1</f>
+        <v>15</v>
       </c>
       <c r="C17" s="37">
         <v>11</v>
@@ -9895,8 +9899,8 @@
         <v>1961</v>
       </c>
       <c r="B18" s="37">
-        <f>SUM(C18:G18)</f>
-        <v>6</v>
+        <f>4+1</f>
+        <v>5</v>
       </c>
       <c r="C18" s="37">
         <v>3</v>
@@ -9923,7 +9927,7 @@
         <v>1962</v>
       </c>
       <c r="B19" s="37">
-        <f>SUM(C19:G19)</f>
+        <f>11+1</f>
         <v>12</v>
       </c>
       <c r="C19" s="37">
@@ -9951,7 +9955,7 @@
         <v>1963</v>
       </c>
       <c r="B20" s="37">
-        <f>SUM(C20:G20)</f>
+        <f>7+1</f>
         <v>8</v>
       </c>
       <c r="C20" s="37">
@@ -10033,8 +10037,8 @@
         <v>1966</v>
       </c>
       <c r="B23" s="37">
-        <f>SUM(C23:G23)</f>
-        <v>34</v>
+        <f>32+3</f>
+        <v>35</v>
       </c>
       <c r="C23" s="37">
         <v>14</v>
@@ -10061,8 +10065,8 @@
         <v>1967</v>
       </c>
       <c r="B24" s="37">
-        <f>SUM(C24:G24)</f>
-        <v>29</v>
+        <f>26+1</f>
+        <v>27</v>
       </c>
       <c r="C24" s="37">
         <v>19</v>
@@ -10089,8 +10093,8 @@
         <v>1968</v>
       </c>
       <c r="B25" s="37">
-        <f>SUM(C25:G25)</f>
-        <v>33</v>
+        <f>31+3</f>
+        <v>34</v>
       </c>
       <c r="C25" s="37">
         <v>18</v>
@@ -10117,8 +10121,8 @@
         <v>1969</v>
       </c>
       <c r="B26" s="37">
-        <f>SUM(C26:G26)</f>
-        <v>35</v>
+        <f>30+6</f>
+        <v>36</v>
       </c>
       <c r="C26" s="37">
         <v>11</v>
@@ -10173,8 +10177,8 @@
         <v>1971</v>
       </c>
       <c r="B28" s="37">
-        <f t="shared" ref="B28:B38" si="0">SUM(C28:G28)</f>
-        <v>35</v>
+        <f>29+9</f>
+        <v>38</v>
       </c>
       <c r="C28" s="37">
         <v>6</v>
@@ -10201,8 +10205,8 @@
         <v>1972</v>
       </c>
       <c r="B29" s="37">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f>38+7</f>
+        <v>45</v>
       </c>
       <c r="C29" s="37">
         <v>13</v>
@@ -10229,8 +10233,8 @@
         <v>1973</v>
       </c>
       <c r="B30" s="37">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f>50+9</f>
+        <v>59</v>
       </c>
       <c r="C30" s="37">
         <v>21</v>
@@ -10257,8 +10261,8 @@
         <v>1974</v>
       </c>
       <c r="B31" s="37">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <f>51+7</f>
+        <v>58</v>
       </c>
       <c r="C31" s="37">
         <v>25</v>
@@ -10285,8 +10289,8 @@
         <v>1975</v>
       </c>
       <c r="B32" s="37">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f>46+7</f>
+        <v>53</v>
       </c>
       <c r="C32" s="37">
         <v>26</v>
@@ -10304,7 +10308,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="37">
-        <f t="shared" ref="H32:H50" si="1">G32/2.5/0.009</f>
+        <f t="shared" ref="H32:H50" si="0">G32/2.5/0.009</f>
         <v>44.44444444444445</v>
       </c>
       <c r="I32" s="23"/>
@@ -10314,8 +10318,8 @@
         <v>1976</v>
       </c>
       <c r="B33" s="37">
-        <f t="shared" si="0"/>
-        <v>82</v>
+        <f>75+10</f>
+        <v>85</v>
       </c>
       <c r="C33" s="37">
         <v>43</v>
@@ -10333,7 +10337,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88.8888888888889</v>
       </c>
       <c r="I33" s="23"/>
@@ -10343,8 +10347,8 @@
         <v>1977</v>
       </c>
       <c r="B34" s="37">
-        <f t="shared" si="0"/>
-        <v>94</v>
+        <f>84+14</f>
+        <v>98</v>
       </c>
       <c r="C34" s="37">
         <v>57</v>
@@ -10362,7 +10366,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>133.33333333333334</v>
       </c>
       <c r="I34" s="23"/>
@@ -10372,8 +10376,8 @@
         <v>1978</v>
       </c>
       <c r="B35" s="37">
-        <f t="shared" si="0"/>
-        <v>88</v>
+        <f>77+14</f>
+        <v>91</v>
       </c>
       <c r="C35" s="37">
         <v>55</v>
@@ -10391,7 +10395,7 @@
         <v>5</v>
       </c>
       <c r="H35" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>222.22222222222223</v>
       </c>
       <c r="I35" s="23"/>
@@ -10401,8 +10405,8 @@
         <v>1979</v>
       </c>
       <c r="B36" s="37">
-        <f t="shared" si="0"/>
-        <v>108</v>
+        <f>94+16</f>
+        <v>110</v>
       </c>
       <c r="C36" s="37">
         <v>78</v>
@@ -10420,7 +10424,7 @@
         <v>6</v>
       </c>
       <c r="H36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>266.66666666666669</v>
       </c>
       <c r="I36" s="23"/>
@@ -10430,8 +10434,8 @@
         <v>1980</v>
       </c>
       <c r="B37" s="37">
-        <f t="shared" si="0"/>
-        <v>128</v>
+        <f>111+20</f>
+        <v>131</v>
       </c>
       <c r="C37" s="37">
         <v>97</v>
@@ -10449,7 +10453,7 @@
         <v>9</v>
       </c>
       <c r="H37" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>400.00000000000006</v>
       </c>
       <c r="I37" s="23"/>
@@ -10459,8 +10463,8 @@
         <v>1981</v>
       </c>
       <c r="B38" s="37">
-        <f t="shared" si="0"/>
-        <v>123</v>
+        <f>110+18</f>
+        <v>128</v>
       </c>
       <c r="C38" s="37">
         <v>98</v>
@@ -10478,7 +10482,7 @@
         <v>8</v>
       </c>
       <c r="H38" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>355.5555555555556</v>
       </c>
       <c r="I38" s="23"/>
@@ -10507,7 +10511,7 @@
         <v>7</v>
       </c>
       <c r="H39" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>311.11111111111114</v>
       </c>
       <c r="I39" s="23"/>
@@ -10536,7 +10540,7 @@
         <v>6</v>
       </c>
       <c r="H40" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>266.66666666666669</v>
       </c>
       <c r="I40" s="23"/>
@@ -10565,7 +10569,7 @@
         <v>5</v>
       </c>
       <c r="H41" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>222.22222222222223</v>
       </c>
       <c r="I41" s="23"/>
@@ -10594,7 +10598,7 @@
         <v>5</v>
       </c>
       <c r="H42" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>222.22222222222223</v>
       </c>
       <c r="I42" s="23"/>
@@ -10623,7 +10627,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>266.66666666666669</v>
       </c>
       <c r="I43" s="23"/>
@@ -10633,8 +10637,8 @@
         <v>1987</v>
       </c>
       <c r="B44" s="37">
-        <f t="shared" ref="B44:B50" si="2">SUM(C44:G44)</f>
-        <v>191</v>
+        <f>166+30</f>
+        <v>196</v>
       </c>
       <c r="C44" s="37">
         <v>155</v>
@@ -10652,7 +10656,7 @@
         <v>6</v>
       </c>
       <c r="H44" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>266.66666666666669</v>
       </c>
       <c r="I44" s="23"/>
@@ -10662,8 +10666,8 @@
         <v>1988</v>
       </c>
       <c r="B45" s="37">
-        <f t="shared" si="2"/>
-        <v>194</v>
+        <f>156+44</f>
+        <v>200</v>
       </c>
       <c r="C45" s="37">
         <v>142</v>
@@ -10681,7 +10685,7 @@
         <v>6</v>
       </c>
       <c r="H45" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>266.66666666666669</v>
       </c>
       <c r="I45" s="23"/>
@@ -10691,8 +10695,8 @@
         <v>1989</v>
       </c>
       <c r="B46" s="37">
-        <f t="shared" si="2"/>
-        <v>198</v>
+        <f>155+49</f>
+        <v>204</v>
       </c>
       <c r="C46" s="37">
         <v>142</v>
@@ -10710,7 +10714,7 @@
         <v>7</v>
       </c>
       <c r="H46" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>311.11111111111114</v>
       </c>
       <c r="I46" s="23"/>
@@ -10720,8 +10724,8 @@
         <v>1990</v>
       </c>
       <c r="B47" s="37">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <f>142+45</f>
+        <v>187</v>
       </c>
       <c r="C47" s="37">
         <v>124</v>
@@ -10739,7 +10743,7 @@
         <v>8</v>
       </c>
       <c r="H47" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>355.5555555555556</v>
       </c>
       <c r="I47" s="23"/>
@@ -10749,8 +10753,8 @@
         <v>1991</v>
       </c>
       <c r="B48" s="37">
-        <f t="shared" si="2"/>
-        <v>202</v>
+        <f>163+46</f>
+        <v>209</v>
       </c>
       <c r="C48" s="37">
         <v>147</v>
@@ -10768,7 +10772,7 @@
         <v>11</v>
       </c>
       <c r="H48" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>488.88888888888897</v>
       </c>
       <c r="I48" s="23"/>
@@ -10778,8 +10782,8 @@
         <v>1992</v>
       </c>
       <c r="B49" s="37">
-        <f t="shared" si="2"/>
-        <v>221</v>
+        <f>182+48</f>
+        <v>230</v>
       </c>
       <c r="C49" s="37">
         <v>166</v>
@@ -10797,7 +10801,7 @@
         <v>10</v>
       </c>
       <c r="H49" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>444.44444444444446</v>
       </c>
       <c r="I49" s="23"/>
@@ -10807,8 +10811,8 @@
         <v>1993</v>
       </c>
       <c r="B50" s="37">
-        <f t="shared" si="2"/>
-        <v>155</v>
+        <f>124+38</f>
+        <v>162</v>
       </c>
       <c r="C50" s="37">
         <v>106</v>
@@ -10826,7 +10830,7 @@
         <v>6</v>
       </c>
       <c r="H50" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>266.66666666666669</v>
       </c>
       <c r="I50" s="23"/>
@@ -10853,7 +10857,7 @@
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
       <c r="G52" s="37">
-        <f t="shared" ref="G52:G60" si="3">H52*(9.2)*2.5/1000</f>
+        <f t="shared" ref="G52:G60" si="1">H52*(9.2)*2.5/1000</f>
         <v>9.2086019999999991</v>
       </c>
       <c r="H52" s="8">
@@ -10872,7 +10876,7 @@
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
       <c r="G53" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9.979538999999999</v>
       </c>
       <c r="H53" s="8">
@@ -10891,7 +10895,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10.487448000000001</v>
       </c>
       <c r="H54" s="8">
@@ -10909,7 +10913,7 @@
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
       <c r="G55" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10.868373999999999</v>
       </c>
       <c r="H55" s="8">
@@ -10927,7 +10931,7 @@
       <c r="E56" s="38"/>
       <c r="F56" s="38"/>
       <c r="G56" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8.9088199999999986</v>
       </c>
       <c r="H56" s="8">
@@ -10946,7 +10950,7 @@
       <c r="E57" s="38"/>
       <c r="F57" s="38"/>
       <c r="G57" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10.196681999999999</v>
       </c>
       <c r="H57" s="8">
@@ -10966,7 +10970,7 @@
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
       <c r="G58" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11.294195999999999</v>
       </c>
       <c r="H58" s="8">
@@ -10986,7 +10990,7 @@
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
       <c r="G59" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10.998323999999997</v>
       </c>
       <c r="H59" s="8">
@@ -11006,7 +11010,7 @@
       <c r="E60" s="38"/>
       <c r="F60" s="38"/>
       <c r="G60" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11.341921000000001</v>
       </c>
       <c r="H60" s="8">
@@ -11064,7 +11068,7 @@
       <c r="E63" s="38"/>
       <c r="F63" s="38"/>
       <c r="G63" s="37">
-        <f t="shared" ref="G63:G76" si="4">H63*(9.2)*2.5/1000</f>
+        <f t="shared" ref="G63:G76" si="2">H63*(9.2)*2.5/1000</f>
         <v>11.492777999999998</v>
       </c>
       <c r="H63" s="8">
@@ -11084,7 +11088,7 @@
       <c r="E64" s="38"/>
       <c r="F64" s="38"/>
       <c r="G64" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.133505999999999</v>
       </c>
       <c r="H64" s="8">
@@ -11104,7 +11108,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="37"/>
       <c r="G65" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.790339999999999</v>
       </c>
       <c r="H65" s="8">
@@ -11124,7 +11128,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
       <c r="G66" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12.927333999999998</v>
       </c>
       <c r="H66" s="8">
@@ -11143,7 +11147,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="37"/>
       <c r="G67" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>11.184739</v>
       </c>
       <c r="H67" s="8">
@@ -11162,7 +11166,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
       <c r="G68" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12.343110999999999</v>
       </c>
       <c r="H68" s="8">
@@ -11181,7 +11185,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="37"/>
       <c r="G69" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13.599508999999998</v>
       </c>
       <c r="H69" s="8">
@@ -11200,7 +11204,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="37"/>
       <c r="G70" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>11.751458999999999</v>
       </c>
       <c r="H70" s="8">
@@ -11219,7 +11223,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="37"/>
       <c r="G71" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12.467908999999997</v>
       </c>
       <c r="H71" s="8">
@@ -11238,7 +11242,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="37"/>
       <c r="G72" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10.045572</v>
       </c>
       <c r="H72" s="8">
@@ -11257,7 +11261,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="37"/>
       <c r="G73" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>9.8299009999999978</v>
       </c>
       <c r="H73" s="8">
@@ -11277,7 +11281,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="37"/>
       <c r="G74" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10.351357</v>
       </c>
       <c r="H74" s="8">
@@ -11297,7 +11301,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="37"/>
       <c r="G75" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8.2984229999999997</v>
       </c>
       <c r="H75" s="8">
@@ -11317,7 +11321,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="37"/>
       <c r="G76" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14.018108999999997</v>
       </c>
       <c r="H76" s="8">
@@ -11356,10 +11360,10 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11725,7 +11729,7 @@
         <v>13.080000000000002</v>
       </c>
       <c r="H17" s="37">
-        <f t="shared" ref="H17:H50" si="0">G17/2.5/0.009</f>
+        <f t="shared" ref="H17:H49" si="0">G17/2.5/0.009</f>
         <v>581.33333333333348</v>
       </c>
       <c r="I17" s="11"/>
@@ -11886,8 +11890,8 @@
         <v>1966</v>
       </c>
       <c r="B23" s="4">
-        <f>SUM(C23:G23)</f>
-        <v>376</v>
+        <f>328+66</f>
+        <v>394</v>
       </c>
       <c r="C23" s="8">
         <v>76</v>
@@ -11916,8 +11920,8 @@
         <v>1967</v>
       </c>
       <c r="B24" s="4">
-        <f>SUM(C24:G24)</f>
-        <v>370</v>
+        <f>315+72</f>
+        <v>387</v>
       </c>
       <c r="C24" s="8">
         <v>72</v>
@@ -11946,8 +11950,8 @@
         <v>1968</v>
       </c>
       <c r="B25" s="4">
-        <f>SUM(C25:G25)</f>
-        <v>413</v>
+        <f>354+76</f>
+        <v>430</v>
       </c>
       <c r="C25" s="8">
         <v>79</v>
@@ -11976,8 +11980,8 @@
         <v>1969</v>
       </c>
       <c r="B26" s="4">
-        <f>SUM(C26:G26)</f>
-        <v>432</v>
+        <f>369+82</f>
+        <v>451</v>
       </c>
       <c r="C26" s="8">
         <v>79</v>
@@ -12036,8 +12040,8 @@
         <v>1971</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" ref="B28:B38" si="1">SUM(C28:G28)</f>
-        <v>498</v>
+        <f>425+97</f>
+        <v>522</v>
       </c>
       <c r="C28" s="8">
         <v>161</v>
@@ -12066,8 +12070,8 @@
         <v>1972</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" si="1"/>
-        <v>569</v>
+        <f>498+101</f>
+        <v>599</v>
       </c>
       <c r="C29" s="8">
         <v>192</v>
@@ -12096,8 +12100,8 @@
         <v>1973</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" si="1"/>
-        <v>565</v>
+        <f>500+102</f>
+        <v>602</v>
       </c>
       <c r="C30" s="8">
         <v>176</v>
@@ -12126,8 +12130,8 @@
         <v>1974</v>
       </c>
       <c r="B31" s="4">
-        <f t="shared" si="1"/>
-        <v>515</v>
+        <f>457+90</f>
+        <v>547</v>
       </c>
       <c r="C31" s="8">
         <v>149</v>
@@ -12156,8 +12160,8 @@
         <v>1975</v>
       </c>
       <c r="B32" s="4">
-        <f t="shared" si="1"/>
-        <v>358</v>
+        <f>304+80</f>
+        <v>384</v>
       </c>
       <c r="C32" s="8">
         <v>134</v>
@@ -12186,8 +12190,8 @@
         <v>1976</v>
       </c>
       <c r="B33" s="4">
-        <f t="shared" si="1"/>
-        <v>505</v>
+        <f>447+89</f>
+        <v>536</v>
       </c>
       <c r="C33" s="8">
         <v>264</v>
@@ -12216,8 +12220,8 @@
         <v>1977</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" si="1"/>
-        <v>548</v>
+        <f>497+78</f>
+        <v>575</v>
       </c>
       <c r="C34" s="8">
         <v>347</v>
@@ -12246,8 +12250,8 @@
         <v>1978</v>
       </c>
       <c r="B35" s="4">
-        <f t="shared" si="1"/>
-        <v>633</v>
+        <f>572+89</f>
+        <v>661</v>
       </c>
       <c r="C35" s="8">
         <v>423</v>
@@ -12276,8 +12280,8 @@
         <v>1979</v>
       </c>
       <c r="B36" s="4">
-        <f t="shared" si="1"/>
-        <v>646</v>
+        <f>578+96</f>
+        <v>674</v>
       </c>
       <c r="C36" s="8">
         <v>449</v>
@@ -12306,8 +12310,8 @@
         <v>1980</v>
       </c>
       <c r="B37" s="4">
-        <f t="shared" si="1"/>
-        <v>657</v>
+        <f>576+113</f>
+        <v>689</v>
       </c>
       <c r="C37" s="8">
         <v>472</v>
@@ -12336,8 +12340,8 @@
         <v>1981</v>
       </c>
       <c r="B38" s="4">
-        <f t="shared" si="1"/>
-        <v>586</v>
+        <f>519+101</f>
+        <v>620</v>
       </c>
       <c r="C38" s="8">
         <v>419</v>
@@ -12366,8 +12370,8 @@
         <v>1982</v>
       </c>
       <c r="B39" s="4">
-        <f>600+108</f>
-        <v>708</v>
+        <f>601+108</f>
+        <v>709</v>
       </c>
       <c r="C39" s="8">
         <v>527</v>
@@ -12516,8 +12520,8 @@
         <v>1987</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" ref="B44:B50" si="2">SUM(C44:G44)</f>
-        <v>876</v>
+        <f>770+194</f>
+        <v>964</v>
       </c>
       <c r="C44" s="8">
         <v>675</v>
@@ -12546,8 +12550,8 @@
         <v>1988</v>
       </c>
       <c r="B45" s="4">
-        <f t="shared" si="2"/>
-        <v>888</v>
+        <f>757+229</f>
+        <v>986</v>
       </c>
       <c r="C45" s="8">
         <v>671</v>
@@ -12576,8 +12580,8 @@
         <v>1989</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" si="2"/>
-        <v>1076</v>
+        <f>934+252</f>
+        <v>1186</v>
       </c>
       <c r="C46" s="8">
         <v>850</v>
@@ -12606,8 +12610,8 @@
         <v>1990</v>
       </c>
       <c r="B47" s="4">
-        <f t="shared" si="2"/>
-        <v>1091</v>
+        <f>961+239</f>
+        <v>1200</v>
       </c>
       <c r="C47" s="8">
         <v>887</v>
@@ -12636,8 +12640,8 @@
         <v>1991</v>
       </c>
       <c r="B48" s="4">
-        <f t="shared" si="2"/>
-        <v>957</v>
+        <f>836+232</f>
+        <v>1068</v>
       </c>
       <c r="C48" s="8">
         <v>765</v>
@@ -12666,8 +12670,8 @@
         <v>1992</v>
       </c>
       <c r="B49" s="4">
-        <f t="shared" si="2"/>
-        <v>981</v>
+        <f>846+229</f>
+        <v>1075</v>
       </c>
       <c r="C49" s="8">
         <v>779</v>
@@ -12696,8 +12700,8 @@
         <v>1993</v>
       </c>
       <c r="B50" s="4">
-        <f t="shared" si="2"/>
-        <v>1065</v>
+        <f>928+265</f>
+        <v>1193</v>
       </c>
       <c r="C50" s="8">
         <v>866</v>
@@ -12744,7 +12748,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="8">
-        <f t="shared" ref="G52:G60" si="3">H52*11*2.5/1000</f>
+        <f t="shared" ref="G52:G60" si="1">H52*11*2.5/1000</f>
         <v>31.953322500000002</v>
       </c>
       <c r="H52" s="8">
@@ -12765,7 +12769,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>28.438575</v>
       </c>
       <c r="H53" s="8">
@@ -12786,7 +12790,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>32.004307499999996</v>
       </c>
       <c r="H54" s="8">
@@ -12807,7 +12811,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>36.909702500000002</v>
       </c>
       <c r="H55" s="8">
@@ -12828,7 +12832,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>41.368497500000004</v>
       </c>
       <c r="H56" s="8">
@@ -12849,7 +12853,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45.356987500000002</v>
       </c>
       <c r="H57" s="8">
@@ -12870,7 +12874,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="10"/>
       <c r="G58" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>47.589767500000001</v>
       </c>
       <c r="H58" s="8">
@@ -12891,7 +12895,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="10"/>
       <c r="G59" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.730462500000002</v>
       </c>
       <c r="H59" s="8">
@@ -12912,7 +12916,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="10"/>
       <c r="G60" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>35.249142500000005</v>
       </c>
       <c r="H60" s="8">
@@ -12981,7 +12985,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="8">
-        <f t="shared" ref="G63:G75" si="4">H63*11*2.5/1000</f>
+        <f t="shared" ref="G63:G75" si="2">H63*11*2.5/1000</f>
         <v>23.251745000000003</v>
       </c>
       <c r="H63" s="8">
@@ -13005,7 +13009,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>27.908347500000001</v>
       </c>
       <c r="H64" s="8">
@@ -13026,7 +13030,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>29.395684999999997</v>
       </c>
       <c r="H65" s="8">
@@ -13047,7 +13051,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>23.787912499999997</v>
       </c>
       <c r="H66" s="8">
@@ -13068,7 +13072,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="10"/>
       <c r="G67" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>22.698307500000002</v>
       </c>
       <c r="H67" s="8">
@@ -13089,7 +13093,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="10"/>
       <c r="G68" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19.528629999999996</v>
       </c>
       <c r="H68" s="8">
@@ -13110,7 +13114,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="10"/>
       <c r="G69" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15.309442500000001</v>
       </c>
       <c r="H69" s="8">
@@ -13131,7 +13135,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="10"/>
       <c r="G70" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15.463222500000001</v>
       </c>
       <c r="H70" s="8">
@@ -13152,7 +13156,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="10"/>
       <c r="G71" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14.345732499999999</v>
       </c>
       <c r="H71" s="8">
@@ -13173,7 +13177,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="10"/>
       <c r="G72" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19.744972499999999</v>
       </c>
       <c r="H72" s="8">
@@ -13194,7 +13198,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="10"/>
       <c r="G73" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>21.609857499999997</v>
       </c>
       <c r="H73" s="8">
@@ -13215,7 +13219,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="10"/>
       <c r="G74" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19.800934999999999</v>
       </c>
       <c r="H74" s="8">
@@ -13236,7 +13240,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="10"/>
       <c r="G75" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20.938197500000001</v>
       </c>
       <c r="H75" s="8">
@@ -16422,8 +16426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20697ACE-82C7-45F0-9119-243699C7EDD6}">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16489,6 +16493,8 @@
       <c r="A10" s="14">
         <v>1953</v>
       </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="14">

--- a/RawData/BE_RawData_VPython.xlsx
+++ b/RawData/BE_RawData_VPython.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C49B05-2C8C-4ADF-8865-84D891FF7253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD51EE50-8D73-483D-AA49-1F8A36AA2BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="18525" windowHeight="15600" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21165" windowHeight="15600" activeTab="4" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="19" r:id="rId1"/>
     <sheet name="prod" sheetId="15" r:id="rId2"/>
     <sheet name="import" sheetId="14" r:id="rId3"/>
     <sheet name="export" sheetId="13" r:id="rId4"/>
-    <sheet name="Population" sheetId="18" r:id="rId5"/>
+    <sheet name="Energy_Intensity" sheetId="20" r:id="rId5"/>
+    <sheet name="Population" sheetId="18" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1632,6 +1636,562 @@
     <author>jean</author>
   </authors>
   <commentList>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{DE537177-3911-4596-AA03-3835C6C01F34}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>French data: see paper for explanation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{D206FCDE-335E-4920-B453-B58C33114E10}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>French data: see paper for explanation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{087A89E6-A66E-4BBD-928F-6B194FF60FC9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{B95431E1-3982-4C0A-A5FC-D15F35146521}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{8F06FEB8-9546-43D5-A6DB-CB71AEB1562E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{16C0BCF4-9E11-4201-B1AD-CE952F0FE18B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{7D93CD46-417C-42CD-AA7F-E2E0E3FFF9C3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{FB51A112-1D64-42D4-AAC8-F93A979609F2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{7D4C727A-EF44-4896-A09A-34C1A4F1446B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{4DAF08F2-FD84-42B2-A21B-7997544440DF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{084B936F-8A54-40CA-B925-5A418DFA6A13}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{FB67D8DD-F384-4A7A-8E33-BBAB6E7B1FA2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{64D53901-A92E-4EF7-9298-F674D2B1E323}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{41C88D21-6E50-4400-88FD-6A659BAAA377}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{F8CD4DCA-40F2-444A-97D7-8E5F99E86DA8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{5CE94E9C-3353-47AF-B1BF-438981A7FA28}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{15CA4ED0-AAA5-41E8-863C-CC8C22209288}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{D4F16F58-A8AD-4E7A-8A1C-4392B4590CF3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{3B74881D-88EA-438D-9F4B-700EB315BF81}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{FAC8AD69-B36C-487B-9B20-08C90EBD0E7A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{FE5DC22D-35BC-4234-8748-8AE45E7B04DD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{F5AFFC68-91A1-4976-9B4C-7DDDD8EE626D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="0" shapeId="0" xr:uid="{F3C9A46D-459D-4945-9E1E-9E44D4DA868A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{62263B9B-EC07-4766-BBAE-9F55583F8221}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{CBF2758F-B604-47F3-99CB-2AC57A8845C2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{C9EA12CC-B7B4-49F7-B42F-C23FD1044097}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B45" authorId="0" shapeId="0" xr:uid="{FFE76674-C8D2-4BC0-950B-EA5AFA419A9B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0" xr:uid="{7E865A39-DF89-4CFC-A5C3-9A5B3D68AF59}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D45" authorId="0" shapeId="0" xr:uid="{64411045-B946-42B0-8634-06C7EC93E236}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{6E5B2B96-FCB1-421D-95E1-B353EC696B4D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B52" authorId="0" shapeId="0" xr:uid="{0B4E96A6-257D-46AA-B963-1BCFD1A801CB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Dinesen et al., 1994),  (Tackels, 1993), (Weir, 1998) and (West et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{7136E34E-3013-4C38-B4CC-E74F51634316}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Dinesen et al., 1994),  (Tackels, 1993), (Weir, 1998) and (West et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D52" authorId="0" shapeId="0" xr:uid="{95FC4FDA-BCDB-4B3F-9AB2-019AD98439BE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Dinesen et al., 1994),  (Tackels, 1993), (Weir, 1998) and (West et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{030C8104-8D81-457A-8579-D99098794C7D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Dinesen et al., 1994),  (Tackels, 1993), (Weir, 1998) and (West et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{039AE180-EEB0-45F6-8286-8E09B58A6FB9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{AC3A829B-397D-4859-8314-4B77983921AE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D67" authorId="0" shapeId="0" xr:uid="{192AF2BA-4794-40C3-B48E-49ACD4238D11}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E67" authorId="0" shapeId="0" xr:uid="{1A69A1E0-0A3C-44CA-A254-6792F6F1258F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{72D8DD52-12F8-4B6A-BFD4-072FF9464C9C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C76" authorId="0" shapeId="0" xr:uid="{F54D31B0-3DFA-4F01-B982-E766429A0EDF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D76" authorId="0" shapeId="0" xr:uid="{9491EF51-462C-4170-A6D8-36A9213F51AC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E76" authorId="0" shapeId="0" xr:uid="{2600A99E-340E-4B8F-9612-33F71417A296}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>jean</author>
+  </authors>
+  <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D03E3816-3F82-47F1-A999-231153AAE251}">
       <text>
         <r>
@@ -1665,7 +2225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>year</t>
   </si>
@@ -1720,17 +2280,36 @@
   <si>
     <t>(VGI-FIV, 1966)</t>
   </si>
+  <si>
+    <t>fuel oil, GJ/t</t>
+  </si>
+  <si>
+    <t>electricity, GJ/t</t>
+  </si>
+  <si>
+    <t>natural gas, GJ/t</t>
+  </si>
+  <si>
+    <t>Total, GJ/t</t>
+  </si>
+  <si>
+    <t>(VGI-FIV, 2001)</t>
+  </si>
+  <si>
+    <t>Fédération de l'industrie du verre (VGI-FIV), 2001. La réduction des émissions de gaz à effet de serre.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1803,6 +2382,26 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1871,7 +2470,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1978,6 +2577,42 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1996,6 +2631,73 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="References"/>
+      <sheetName val="prod"/>
+      <sheetName val="import"/>
+      <sheetName val="export"/>
+      <sheetName val="Population"/>
+      <sheetName val="MatEnergy_WindowGlass"/>
+      <sheetName val="MatEnergy_PlateGlass"/>
+      <sheetName val="RawMat_Intensity"/>
+      <sheetName val="Energy_Intensity"/>
+      <sheetName val="emissions"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="7">
+          <cell r="G7">
+            <v>0.25630252100840334</v>
+          </cell>
+          <cell r="I7">
+            <v>0.40493697478991592</v>
+          </cell>
+          <cell r="K7">
+            <v>0.33876050420168063</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="7">
+          <cell r="L7">
+            <v>26.691839999999999</v>
+          </cell>
+          <cell r="N7">
+            <v>0.36000000000000004</v>
+          </cell>
+          <cell r="O7">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="7">
+          <cell r="L7">
+            <v>43.411199999999994</v>
+          </cell>
+          <cell r="N7">
+            <v>1.8</v>
+          </cell>
+          <cell r="O7">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2295,10 +2997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025F8ED2-37F9-40BE-8E6A-7FBA957A3175}">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="118.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,50 +3035,77 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C9" s="38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="39"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="38"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C15" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D15" s="39" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+    </row>
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" xr:uid="{B84DBD6C-579B-48BC-96D1-AA795C116670}"/>
+    <hyperlink ref="D15" r:id="rId1" xr:uid="{B84DBD6C-579B-48BC-96D1-AA795C116670}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{BABC48D3-1AA2-44C3-9FD9-1ACF96779787}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{9095B0BE-927F-4EF3-8BC6-7EABCBE59D13}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{9095B0BE-927F-4EF3-8BC6-7EABCBE59D13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
@@ -2389,7 +3118,7 @@
   <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
@@ -4541,6 +5270,919 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7426F8F2-947A-4C47-BA81-FD7398DE30D5}">
+  <dimension ref="A1:AL88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.140625" style="45" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="43">
+        <v>1945</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
+        <v>1946</v>
+      </c>
+      <c r="B3" s="44"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
+        <v>1950</v>
+      </c>
+      <c r="B7" s="44">
+        <f>([1]prod!$G7*[1]MatEnergy_PlateGlass!L7)+(([1]prod!$I7+[1]prod!$K7)*[1]MatEnergy_WindowGlass!L7)</f>
+        <v>30.977054117647054</v>
+      </c>
+      <c r="C7" s="44">
+        <f>([1]prod!$G7*[1]MatEnergy_PlateGlass!N7)+(([1]prod!$I7+[1]prod!$K7)*[1]MatEnergy_WindowGlass!N7)</f>
+        <v>0.72907563025210087</v>
+      </c>
+      <c r="D7" s="44">
+        <f>([1]prod!$G7*[1]MatEnergy_PlateGlass!O7)+(([1]prod!$I7+[1]prod!$K7)*[1]MatEnergy_WindowGlass!O7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="44">
+        <f>SUM(B7:D7)</f>
+        <v>31.706129747899155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="43">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="43">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="43">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="43">
+        <v>1958</v>
+      </c>
+      <c r="B15" s="46"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="43">
+        <v>1959</v>
+      </c>
+      <c r="B16" s="46"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
+        <v>1960</v>
+      </c>
+      <c r="B17" s="47">
+        <f>0.8*E17</f>
+        <v>16.8</v>
+      </c>
+      <c r="C17" s="47">
+        <f>0.047*E17</f>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="D17" s="47">
+        <f>0.125*E17</f>
+        <v>2.625</v>
+      </c>
+      <c r="E17" s="50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="43">
+        <v>1961</v>
+      </c>
+      <c r="E18" s="50"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="43">
+        <v>1962</v>
+      </c>
+      <c r="E19" s="50"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="43">
+        <v>1963</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="E20" s="50"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="43">
+        <v>1964</v>
+      </c>
+      <c r="E21" s="50"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="43">
+        <v>1965</v>
+      </c>
+      <c r="B22" s="47">
+        <f>0.79*E22</f>
+        <v>16.6295</v>
+      </c>
+      <c r="C22" s="47">
+        <f>0.055*E22</f>
+        <v>1.1577500000000001</v>
+      </c>
+      <c r="D22" s="47">
+        <f>0.12*E22</f>
+        <v>2.5259999999999998</v>
+      </c>
+      <c r="E22" s="50">
+        <v>21.05</v>
+      </c>
+      <c r="J22" s="51"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="43">
+        <v>1966</v>
+      </c>
+      <c r="E23" s="50"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="43">
+        <v>1967</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="50"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="43">
+        <v>1968</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="50"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="43">
+        <v>1969</v>
+      </c>
+      <c r="E26" s="50"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="43">
+        <v>1970</v>
+      </c>
+      <c r="B27" s="46">
+        <f>0.79*E27</f>
+        <v>15.721</v>
+      </c>
+      <c r="C27" s="46">
+        <f>0.04*E27</f>
+        <v>0.79599999999999993</v>
+      </c>
+      <c r="D27" s="46">
+        <f>0.17*E27</f>
+        <v>3.383</v>
+      </c>
+      <c r="E27" s="50">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="43">
+        <v>1971</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="50"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="43">
+        <v>1972</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="50"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="43">
+        <v>1973</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="50"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="43">
+        <v>1974</v>
+      </c>
+      <c r="E31" s="50"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="43">
+        <v>1975</v>
+      </c>
+      <c r="B32" s="46">
+        <f>0.77*E32</f>
+        <v>13.636700000000001</v>
+      </c>
+      <c r="C32" s="46">
+        <f>0.04*E32</f>
+        <v>0.70840000000000003</v>
+      </c>
+      <c r="D32" s="46">
+        <f>0.18*E32</f>
+        <v>3.1878000000000002</v>
+      </c>
+      <c r="E32" s="50">
+        <v>17.71</v>
+      </c>
+      <c r="J32" s="51"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="43">
+        <v>1976</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="50"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="43">
+        <v>1977</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="50"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="43">
+        <v>1978</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="50"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="43">
+        <v>1979</v>
+      </c>
+      <c r="E36" s="50"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="43">
+        <v>1980</v>
+      </c>
+      <c r="B37" s="46">
+        <f>0.68*E37</f>
+        <v>10.376800000000001</v>
+      </c>
+      <c r="C37" s="46">
+        <f>0.04*E37</f>
+        <v>0.61040000000000005</v>
+      </c>
+      <c r="D37" s="46">
+        <f>0.3*E37</f>
+        <v>4.5779999999999994</v>
+      </c>
+      <c r="E37" s="50">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="43">
+        <v>1981</v>
+      </c>
+      <c r="E38" s="50"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="43">
+        <v>1982</v>
+      </c>
+      <c r="E39" s="50"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="43">
+        <v>1983</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="50"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="43">
+        <v>1984</v>
+      </c>
+      <c r="E41" s="50"/>
+      <c r="J41" s="51"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="43">
+        <v>1985</v>
+      </c>
+      <c r="B42" s="46">
+        <f>0.65*E42</f>
+        <v>8.918000000000001</v>
+      </c>
+      <c r="C42" s="46">
+        <f>0.04*E42</f>
+        <v>0.54880000000000007</v>
+      </c>
+      <c r="D42" s="46">
+        <f>0.3*E42</f>
+        <v>4.1159999999999997</v>
+      </c>
+      <c r="E42" s="50">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="43">
+        <v>1986</v>
+      </c>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="50"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="43">
+        <v>1987</v>
+      </c>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="50"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="43">
+        <v>1988</v>
+      </c>
+      <c r="B45" s="46">
+        <f>0.65*E45</f>
+        <v>8.1640000000000015</v>
+      </c>
+      <c r="C45" s="46">
+        <f>0.04*E45</f>
+        <v>0.50240000000000007</v>
+      </c>
+      <c r="D45" s="46">
+        <f>0.3*E45</f>
+        <v>3.7679999999999998</v>
+      </c>
+      <c r="E45" s="50">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="43">
+        <v>1989</v>
+      </c>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="46"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="43">
+        <v>1990</v>
+      </c>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="46"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="43">
+        <v>1991</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="46"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="43">
+        <v>1992</v>
+      </c>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="43">
+        <v>1993</v>
+      </c>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="43">
+        <v>1994</v>
+      </c>
+      <c r="B51" s="44"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="43">
+        <v>1995</v>
+      </c>
+      <c r="B52" s="46">
+        <v>5.01</v>
+      </c>
+      <c r="C52" s="46">
+        <v>1.48</v>
+      </c>
+      <c r="D52" s="46">
+        <v>4.8</v>
+      </c>
+      <c r="E52" s="46">
+        <v>11.3</v>
+      </c>
+      <c r="F52" s="46"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="43">
+        <v>1996</v>
+      </c>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="43">
+        <v>1997</v>
+      </c>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="43">
+        <v>1998</v>
+      </c>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="43">
+        <v>1999</v>
+      </c>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="43">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="46"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="43">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="43">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="43">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="43">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="43">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="43">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="43">
+        <v>2007</v>
+      </c>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A65" s="43">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A66" s="43">
+        <v>2009</v>
+      </c>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="47"/>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A67" s="43">
+        <v>2010</v>
+      </c>
+      <c r="B67" s="46">
+        <v>2.1</v>
+      </c>
+      <c r="C67" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="D67" s="46">
+        <v>6.1</v>
+      </c>
+      <c r="E67" s="44">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A68" s="43">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A69" s="43">
+        <v>2012</v>
+      </c>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A70" s="43">
+        <v>2013</v>
+      </c>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A71" s="43">
+        <v>2014</v>
+      </c>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A72" s="43">
+        <v>2015</v>
+      </c>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A73" s="43">
+        <v>2016</v>
+      </c>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A74" s="43">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A75" s="43">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A76" s="43">
+        <v>2019</v>
+      </c>
+      <c r="B76" s="46">
+        <v>2.1</v>
+      </c>
+      <c r="C76" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="D76" s="46">
+        <v>6.1</v>
+      </c>
+      <c r="E76" s="44">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A77" s="43">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="48"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="45"/>
+      <c r="O78" s="45"/>
+      <c r="P78" s="45"/>
+      <c r="Q78" s="45"/>
+      <c r="R78" s="45"/>
+      <c r="S78" s="45"/>
+      <c r="T78" s="45"/>
+      <c r="U78" s="45"/>
+      <c r="V78" s="45"/>
+      <c r="W78" s="45"/>
+      <c r="X78" s="45"/>
+      <c r="Y78" s="45"/>
+      <c r="Z78" s="45"/>
+      <c r="AA78" s="45"/>
+      <c r="AB78" s="45"/>
+      <c r="AC78" s="45"/>
+      <c r="AD78" s="45"/>
+      <c r="AE78" s="45"/>
+      <c r="AF78" s="45"/>
+      <c r="AG78" s="45"/>
+      <c r="AH78" s="45"/>
+      <c r="AI78" s="45"/>
+      <c r="AJ78" s="45"/>
+      <c r="AK78" s="45"/>
+      <c r="AL78" s="45"/>
+    </row>
+    <row r="79" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="48"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="45"/>
+      <c r="O79" s="45"/>
+      <c r="P79" s="45"/>
+      <c r="Q79" s="45"/>
+      <c r="R79" s="45"/>
+      <c r="S79" s="45"/>
+      <c r="T79" s="45"/>
+      <c r="U79" s="45"/>
+      <c r="V79" s="45"/>
+      <c r="W79" s="45"/>
+      <c r="X79" s="45"/>
+      <c r="Y79" s="45"/>
+      <c r="Z79" s="45"/>
+      <c r="AA79" s="45"/>
+      <c r="AB79" s="45"/>
+      <c r="AC79" s="45"/>
+      <c r="AD79" s="45"/>
+      <c r="AE79" s="45"/>
+      <c r="AF79" s="45"/>
+      <c r="AG79" s="45"/>
+      <c r="AH79" s="45"/>
+      <c r="AI79" s="45"/>
+      <c r="AJ79" s="45"/>
+      <c r="AK79" s="45"/>
+      <c r="AL79" s="45"/>
+    </row>
+    <row r="80" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="48"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="45"/>
+      <c r="P80" s="45"/>
+      <c r="Q80" s="45"/>
+      <c r="R80" s="45"/>
+      <c r="S80" s="45"/>
+      <c r="T80" s="45"/>
+      <c r="U80" s="45"/>
+      <c r="V80" s="45"/>
+      <c r="W80" s="45"/>
+      <c r="X80" s="45"/>
+      <c r="Y80" s="45"/>
+      <c r="Z80" s="45"/>
+      <c r="AA80" s="45"/>
+      <c r="AB80" s="45"/>
+      <c r="AC80" s="45"/>
+      <c r="AD80" s="45"/>
+      <c r="AE80" s="45"/>
+      <c r="AF80" s="45"/>
+      <c r="AG80" s="45"/>
+      <c r="AH80" s="45"/>
+      <c r="AI80" s="45"/>
+      <c r="AJ80" s="45"/>
+      <c r="AK80" s="45"/>
+      <c r="AL80" s="45"/>
+    </row>
+    <row r="87" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="48"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="45"/>
+      <c r="M87" s="45"/>
+      <c r="N87" s="45"/>
+      <c r="O87" s="45"/>
+      <c r="P87" s="45"/>
+      <c r="Q87" s="45"/>
+      <c r="R87" s="45"/>
+      <c r="S87" s="45"/>
+      <c r="T87" s="45"/>
+      <c r="U87" s="45"/>
+      <c r="V87" s="45"/>
+      <c r="W87" s="45"/>
+      <c r="X87" s="45"/>
+      <c r="Y87" s="45"/>
+      <c r="Z87" s="45"/>
+      <c r="AA87" s="45"/>
+      <c r="AB87" s="45"/>
+      <c r="AC87" s="45"/>
+      <c r="AD87" s="45"/>
+      <c r="AE87" s="45"/>
+      <c r="AF87" s="45"/>
+      <c r="AG87" s="45"/>
+      <c r="AH87" s="45"/>
+      <c r="AI87" s="45"/>
+      <c r="AJ87" s="45"/>
+      <c r="AK87" s="45"/>
+      <c r="AL87" s="45"/>
+    </row>
+    <row r="88" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="48"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="45"/>
+      <c r="K88" s="45"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="45"/>
+      <c r="O88" s="45"/>
+      <c r="P88" s="45"/>
+      <c r="Q88" s="45"/>
+      <c r="R88" s="45"/>
+      <c r="S88" s="45"/>
+      <c r="T88" s="45"/>
+      <c r="U88" s="45"/>
+      <c r="V88" s="45"/>
+      <c r="W88" s="45"/>
+      <c r="X88" s="45"/>
+      <c r="Y88" s="45"/>
+      <c r="Z88" s="45"/>
+      <c r="AA88" s="45"/>
+      <c r="AB88" s="45"/>
+      <c r="AC88" s="45"/>
+      <c r="AD88" s="45"/>
+      <c r="AE88" s="45"/>
+      <c r="AF88" s="45"/>
+      <c r="AG88" s="45"/>
+      <c r="AH88" s="45"/>
+      <c r="AI88" s="45"/>
+      <c r="AJ88" s="45"/>
+      <c r="AK88" s="45"/>
+      <c r="AL88" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20697ACE-82C7-45F0-9119-243699C7EDD6}">
   <dimension ref="A1:C88"/>
   <sheetViews>

--- a/RawData/BE_RawData_VPython.xlsx
+++ b/RawData/BE_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD51EE50-8D73-483D-AA49-1F8A36AA2BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795F3120-76E9-485D-8624-B62E05E183EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21165" windowHeight="15600" activeTab="4" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="19" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="Energy_Intensity" sheetId="20" r:id="rId5"/>
     <sheet name="Population" sheetId="18" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,6 +56,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{7D19D481-1AE5-4F00-92CC-2BC7A1ED48F7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Fédération des chambres syndicales de l'industrie du verre, 1954, p.96</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0" xr:uid="{407A7C97-EB52-47A4-BCE1-6F42EAC4D62B}">
       <text>
         <r>
@@ -72,6 +82,46 @@
         </r>
       </text>
     </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{1BCDF8D7-0DAD-4978-8389-D64B38090866}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"L'industrie du verre en Belgique", Verre, vol 1, n° 4, July-August, 1987, p. 432-9
+See also: (Anon., 1958)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{307CF1E5-B6CD-4EC2-9A3B-2B065240C029}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994) and (Knoops, 1959)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{FAA1A9DE-9BB8-4611-A7C9-B29E4907E680}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994) and (Knoops, 1959)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B27" authorId="0" shapeId="0" xr:uid="{8E43DA06-AC0A-4D94-B9AF-4357EE45ACB1}">
       <text>
         <r>
@@ -92,6 +142,45 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> "L'industrie du verre en Belgique", Verre, vol 1, n° 4, July-August 1987, p. 432-9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{85DDDD64-BD1D-44A5-9B0F-4204BA7F9341}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994) and (Knoops, 1959)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{1A38B02E-8817-4216-8AC0-052A70D363FA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994) and (Knoops, 1959)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{E2586584-73F3-482E-A0A5-7F109192060E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 1994) and (CCE, 1984)</t>
         </r>
       </text>
     </comment>
@@ -228,6 +317,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{D76BCAA0-2D27-49F5-84CF-D2E0A5372A6F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(VGI-FIV, 1994) </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B48" authorId="0" shapeId="0" xr:uid="{D1F872DB-0C90-4F4C-A8F0-D488F41F2F69}">
       <text>
         <r>
@@ -254,6 +356,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="C49" authorId="0" shapeId="0" xr:uid="{ECECA26F-6AD9-4D34-BFCD-F2DE1CA64B8C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(VGI-FIV, 1994) </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B50" authorId="0" shapeId="0" xr:uid="{98206CBA-A31D-4E48-980E-DD63BC03DA7E}">
       <text>
         <r>
@@ -384,6 +499,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{3CE50C11-5DEC-4A34-9212-E6AEC6F06D22}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculated according to Eurostat data</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B60" authorId="0" shapeId="0" xr:uid="{1464D249-C5A4-4870-8379-8C910C5FE3F7}">
       <text>
         <r>
@@ -397,6 +525,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{978068F5-5345-4CA7-8B84-351613691F80}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculated according to Eurostat data</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B61" authorId="0" shapeId="0" xr:uid="{692A6916-772E-44DF-93C7-154E663D6B1D}">
       <text>
         <r>
@@ -449,6 +590,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{428A5052-C7D5-4936-BFF5-4E6B463734F0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculated according to Eurostat data</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B65" authorId="0" shapeId="0" xr:uid="{FA00D844-B0AE-4966-9F18-BFBA78DC5A62}">
       <text>
         <r>
@@ -488,6 +642,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{1EA9AED8-CF1A-4062-A0BA-B08CEBCFA60E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculated according to Eurostat data</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B68" authorId="0" shapeId="0" xr:uid="{C5AFDD2F-1913-40D4-B64F-8130C27890FC}">
       <text>
         <r>
@@ -511,6 +678,32 @@
             <family val="2"/>
           </rPr>
           <t>ICEDD, Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global, p. 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B71" authorId="0" shapeId="0" xr:uid="{3F02FD14-E8BA-4F69-BCB0-C2BC38B02ED7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Prodcom)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C71" authorId="0" shapeId="0" xr:uid="{83A624BD-659B-4CC0-BB1E-CE77119B0307}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculated according to Eurostat data</t>
         </r>
       </text>
     </comment>
@@ -1019,19 +1212,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{595310E7-CF60-4866-9FCE-D405FACB0B64}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -1613,19 +1793,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{3FD112BF-2FBC-4AD1-AA8D-5CA0A4DA74FA}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -2225,7 +2392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>year</t>
   </si>
@@ -2297,6 +2464,36 @@
   </si>
   <si>
     <t>Fédération de l'industrie du verre (VGI-FIV), 2001. La réduction des émissions de gaz à effet de serre.</t>
+  </si>
+  <si>
+    <t>bldg glass/flat glass, %</t>
+  </si>
+  <si>
+    <t>Knoops, É, 1959. L'industrie belge du verre en 1958. Bulletin de l'Institut de recherches économiques et sociales, 25 (4), 355-64</t>
+  </si>
+  <si>
+    <t>(Knoops, 1959)</t>
+  </si>
+  <si>
+    <t>Fédération de l'industrie du verre, 1970. L'industrie du verre en 1969. Brussels: Fédération de l'industrie du verre. Royal Library of Belgium, call number BD 25.971.</t>
+  </si>
+  <si>
+    <t>Anon., 1958. Le verre belge. Brussels: Fédération de l'industrie du verre. Royal Library of Belgium, call number B 14.280 1.</t>
+  </si>
+  <si>
+    <t>(FIV, 1970)</t>
+  </si>
+  <si>
+    <t>(Anon., 1958)</t>
+  </si>
+  <si>
+    <t>(CCE, 1984)</t>
+  </si>
+  <si>
+    <t>Commission des Communautés Européennes (CCE), 1984. L'industrie du verre dans la CEE.</t>
+  </si>
+  <si>
+    <t>https://op.europa.eu/en/publication-detail/-/publication/9441267d-6d47-461a-bc38-494d8c007e02/language-fr</t>
   </si>
 </sst>
 </file>
@@ -2470,7 +2667,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2613,6 +2810,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2631,73 +2843,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="References"/>
-      <sheetName val="prod"/>
-      <sheetName val="import"/>
-      <sheetName val="export"/>
-      <sheetName val="Population"/>
-      <sheetName val="MatEnergy_WindowGlass"/>
-      <sheetName val="MatEnergy_PlateGlass"/>
-      <sheetName val="RawMat_Intensity"/>
-      <sheetName val="Energy_Intensity"/>
-      <sheetName val="emissions"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="7">
-          <cell r="G7">
-            <v>0.25630252100840334</v>
-          </cell>
-          <cell r="I7">
-            <v>0.40493697478991592</v>
-          </cell>
-          <cell r="K7">
-            <v>0.33876050420168063</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="7">
-          <cell r="L7">
-            <v>26.691839999999999</v>
-          </cell>
-          <cell r="N7">
-            <v>0.36000000000000004</v>
-          </cell>
-          <cell r="O7">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="7">
-          <cell r="L7">
-            <v>43.411199999999994</v>
-          </cell>
-          <cell r="N7">
-            <v>1.8</v>
-          </cell>
-          <cell r="O7">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2997,17 +3142,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025F8ED2-37F9-40BE-8E6A-7FBA957A3175}">
-  <dimension ref="A2:D17"/>
+  <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="118.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="27" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.5703125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="81" style="33" customWidth="1"/>
     <col min="4" max="4" width="86.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3024,69 +3169,70 @@
       </c>
       <c r="D3" s="34"/>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="39"/>
+        <v>31</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C11" s="38" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="38"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="39"/>
+        <v>13</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="38"/>
       <c r="D14" s="39"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>7</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="38"/>
@@ -3094,152 +3240,205 @@
     </row>
     <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="39"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+    </row>
+    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C23" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D23" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" xr:uid="{B84DBD6C-579B-48BC-96D1-AA795C116670}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{BABC48D3-1AA2-44C3-9FD9-1ACF96779787}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{9095B0BE-927F-4EF3-8BC6-7EABCBE59D13}"/>
+    <hyperlink ref="D19" r:id="rId1" xr:uid="{B84DBD6C-579B-48BC-96D1-AA795C116670}"/>
+    <hyperlink ref="D21" r:id="rId2" xr:uid="{BABC48D3-1AA2-44C3-9FD9-1ACF96779787}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{9095B0BE-927F-4EF3-8BC6-7EABCBE59D13}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{4371CAEA-3697-4B9F-A4DE-F6DAFE38335E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0982404-9C07-4082-8695-AA4274664C99}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="13.5703125" style="6"/>
+    <col min="3" max="3" width="24" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="13.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1945</v>
       </c>
       <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="56">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1946</v>
       </c>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1947</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1948</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1949</v>
       </c>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1950</v>
       </c>
       <c r="B7" s="9">
         <v>206.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="53">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1951</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1952</v>
       </c>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1953</v>
       </c>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1954</v>
       </c>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1955</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1956</v>
       </c>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1957</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1958</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1959</v>
       </c>
       <c r="B16" s="31"/>
     </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1960</v>
       </c>
       <c r="B17" s="9">
         <v>699.89800000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1961</v>
       </c>
@@ -3247,7 +3446,7 @@
         <v>582.92999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1962</v>
       </c>
@@ -3255,7 +3454,7 @@
         <v>726.21799999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1963</v>
       </c>
@@ -3263,7 +3462,7 @@
         <v>642.11800000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1964</v>
       </c>
@@ -3271,15 +3470,18 @@
         <v>747.31899999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1965</v>
       </c>
       <c r="B22" s="9">
         <v>606.51</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1966</v>
       </c>
@@ -3287,7 +3489,7 @@
         <v>619.07000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1967</v>
       </c>
@@ -3295,7 +3497,7 @@
         <v>633.10299999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1968</v>
       </c>
@@ -3303,7 +3505,7 @@
         <v>674.30100000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1969</v>
       </c>
@@ -3311,15 +3513,18 @@
         <v>729.02200000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1970</v>
       </c>
       <c r="B27" s="9">
         <v>871</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1971</v>
       </c>
@@ -3327,7 +3532,7 @@
         <v>813.495</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1972</v>
       </c>
@@ -3335,7 +3540,7 @@
         <v>850.19100000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1973</v>
       </c>
@@ -3343,7 +3548,7 @@
         <v>929.88099999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1974</v>
       </c>
@@ -3351,15 +3556,18 @@
         <v>830.64599999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1975</v>
       </c>
       <c r="B32" s="9">
         <v>588.41</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1976</v>
       </c>
@@ -3367,7 +3575,7 @@
         <v>768.41399999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1977</v>
       </c>
@@ -3375,7 +3583,7 @@
         <v>838.33699999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1978</v>
       </c>
@@ -3383,7 +3591,7 @@
         <v>811.57899999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1979</v>
       </c>
@@ -3391,15 +3599,18 @@
         <v>841.46900000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1980</v>
       </c>
       <c r="B37" s="9">
         <v>856.35799999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1981</v>
       </c>
@@ -3407,7 +3618,7 @@
         <v>706.85</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1982</v>
       </c>
@@ -3415,7 +3626,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>1983</v>
       </c>
@@ -3423,7 +3634,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1984</v>
       </c>
@@ -3431,7 +3642,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1985</v>
       </c>
@@ -3439,7 +3650,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1986</v>
       </c>
@@ -3447,7 +3658,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>1987</v>
       </c>
@@ -3455,7 +3666,7 @@
         <v>885.95299999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>1988</v>
       </c>
@@ -3463,7 +3674,7 @@
         <v>945.91</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>1989</v>
       </c>
@@ -3471,15 +3682,18 @@
         <v>989.08500000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1990</v>
       </c>
       <c r="B47" s="9">
         <v>1142</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>1991</v>
       </c>
@@ -3487,15 +3701,18 @@
         <v>898</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>1992</v>
       </c>
       <c r="B49" s="9">
         <v>1013</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>1993</v>
       </c>
@@ -3503,7 +3720,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>1994</v>
       </c>
@@ -3511,7 +3728,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>1995</v>
       </c>
@@ -3519,7 +3736,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>1996</v>
       </c>
@@ -3527,7 +3744,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>1997</v>
       </c>
@@ -3535,7 +3752,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>1998</v>
       </c>
@@ -3543,7 +3760,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1999</v>
       </c>
@@ -3551,7 +3768,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2000</v>
       </c>
@@ -3559,7 +3776,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2001</v>
       </c>
@@ -3567,23 +3784,29 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2002</v>
       </c>
       <c r="B59" s="9">
         <v>1275</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2003</v>
       </c>
       <c r="B60" s="9">
         <v>1148</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="1">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>2004</v>
       </c>
@@ -3591,7 +3814,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>2005</v>
       </c>
@@ -3599,7 +3822,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>2006</v>
       </c>
@@ -3607,15 +3830,18 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>2007</v>
       </c>
       <c r="B64" s="9">
         <v>1363</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>2008</v>
       </c>
@@ -3623,7 +3849,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>2009</v>
       </c>
@@ -3631,15 +3857,18 @@
         <v>990</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>2010</v>
       </c>
       <c r="B67" s="9">
         <v>1170</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>2011</v>
       </c>
@@ -3647,7 +3876,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>2012</v>
       </c>
@@ -3655,60 +3884,65 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>2014</v>
       </c>
-      <c r="B71" s="9"/>
-    </row>
-    <row r="72" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="9">
+        <v>1186</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>2015</v>
       </c>
       <c r="B72" s="7"/>
     </row>
-    <row r="73" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>2016</v>
       </c>
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>2017</v>
       </c>
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>2018</v>
       </c>
       <c r="B75" s="7"/>
     </row>
-    <row r="76" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>2019</v>
       </c>
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>2020</v>
       </c>
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -3751,7 +3985,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F83" sqref="F83"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4418,9 +4652,7 @@
       <c r="A76" s="16">
         <v>2019</v>
       </c>
-      <c r="B76" s="8">
-        <v>254.22450500000002</v>
-      </c>
+      <c r="B76" s="25"/>
       <c r="C76" s="25"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4454,10 +4686,10 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5217,9 +5449,6 @@
       <c r="A76" s="12">
         <v>2019</v>
       </c>
-      <c r="B76" s="8">
-        <v>986.32601624999995</v>
-      </c>
       <c r="D76" s="10"/>
     </row>
     <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5273,8 +5502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7426F8F2-947A-4C47-BA81-FD7398DE30D5}">
   <dimension ref="A1:AL88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5334,20 +5563,17 @@
         <v>1950</v>
       </c>
       <c r="B7" s="44">
-        <f>([1]prod!$G7*[1]MatEnergy_PlateGlass!L7)+(([1]prod!$I7+[1]prod!$K7)*[1]MatEnergy_WindowGlass!L7)</f>
-        <v>30.977054117647054</v>
+        <v>30.98</v>
       </c>
       <c r="C7" s="44">
-        <f>([1]prod!$G7*[1]MatEnergy_PlateGlass!N7)+(([1]prod!$I7+[1]prod!$K7)*[1]MatEnergy_WindowGlass!N7)</f>
-        <v>0.72907563025210087</v>
+        <v>0.73</v>
       </c>
       <c r="D7" s="44">
-        <f>([1]prod!$G7*[1]MatEnergy_PlateGlass!O7)+(([1]prod!$I7+[1]prod!$K7)*[1]MatEnergy_WindowGlass!O7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="44">
         <f>SUM(B7:D7)</f>
-        <v>31.706129747899155</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/RawData/BE_RawData_VPython.xlsx
+++ b/RawData/BE_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795F3120-76E9-485D-8624-B62E05E183EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D91D7C6-7079-4793-AAFF-A2A339B98735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="1170" yWindow="600" windowWidth="16665" windowHeight="15600" activeTab="4" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="19" r:id="rId1"/>
@@ -2667,7 +2667,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2716,9 +2716,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3151,140 +3148,140 @@
   <sheetFormatPr defaultColWidth="118.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81" style="33" customWidth="1"/>
+    <col min="2" max="2" width="27" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81" style="32" customWidth="1"/>
     <col min="4" max="4" width="86.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="1:4" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="54" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="39"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="38"/>
+      <c r="C12" s="37"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
     </row>
     <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3303,11 +3300,11 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3319,13 +3316,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3334,7 +3331,7 @@
         <v>1945</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="56">
+      <c r="C2" s="55">
         <v>0.9</v>
       </c>
     </row>
@@ -3369,7 +3366,7 @@
       <c r="B7" s="9">
         <v>206.25</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="52">
         <v>0.9</v>
       </c>
     </row>
@@ -3425,7 +3422,7 @@
       <c r="A16" s="2">
         <v>1959</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="30"/>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -3982,10 +3979,10 @@
   <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3995,145 +3992,146 @@
     <col min="3" max="16384" width="13.5703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1945</v>
       </c>
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="22"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1946</v>
       </c>
-      <c r="B3" s="23"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1947</v>
       </c>
-      <c r="B4" s="23"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>1948</v>
       </c>
-      <c r="B5" s="23"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>1949</v>
       </c>
-      <c r="B6" s="23"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>1950</v>
       </c>
-      <c r="B7" s="23"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1951</v>
       </c>
-      <c r="B8" s="23"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>1952</v>
       </c>
-      <c r="B9" s="23"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>1953</v>
       </c>
-      <c r="B10" s="23"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>1954</v>
       </c>
-      <c r="B11" s="23"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>1955</v>
       </c>
-      <c r="B12" s="23"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>1956</v>
       </c>
-      <c r="B13" s="23"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>1957</v>
       </c>
-      <c r="B14" s="23"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>1958</v>
       </c>
       <c r="B15" s="8">
         <v>4.7309999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>1959</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="22"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>1960</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <f>14+1</f>
         <v>15</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>1961</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <f>4+1</f>
         <v>5</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>1962</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <f>11+1</f>
         <v>12</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>1963</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <f>7+1</f>
         <v>8</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
@@ -4142,7 +4140,7 @@
       <c r="B21" s="8">
         <v>22.033999999999999</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="24"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
@@ -4151,47 +4149,47 @@
       <c r="B22" s="8">
         <v>24.206</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="24"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>1966</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <f>32+3</f>
         <v>35</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>1967</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <f>26+1</f>
         <v>27</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>1968</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <f>31+3</f>
         <v>34</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>1969</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <f>30+6</f>
         <v>36</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="24"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
@@ -4201,117 +4199,117 @@
         <f>30+7</f>
         <v>37</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>1971</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <f>29+9</f>
         <v>38</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>1972</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <f>38+7</f>
         <v>45</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="24"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>1973</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <f>50+9</f>
         <v>59</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="24"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>1974</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <f>51+7</f>
         <v>58</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="24"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>1975</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="22">
         <f>46+7</f>
         <v>53</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="24"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>1976</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="22">
         <f>75+10</f>
         <v>85</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="24"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>1977</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="22">
         <f>84+14</f>
         <v>98</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="24"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>1978</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="22">
         <f>77+14</f>
         <v>91</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="24"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>1979</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="22">
         <f>94+16</f>
         <v>110</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="24"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>1980</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="22">
         <f>111+20</f>
         <v>131</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="24"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>1981</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="22">
         <f>110+18</f>
         <v>128</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
@@ -4321,7 +4319,7 @@
         <f>154+17</f>
         <v>171</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
@@ -4331,7 +4329,7 @@
         <f>138+17</f>
         <v>155</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
@@ -4341,7 +4339,7 @@
         <f>118+18</f>
         <v>136</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
@@ -4351,7 +4349,7 @@
         <f>131+20</f>
         <v>151</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
@@ -4361,89 +4359,86 @@
         <f>136+24</f>
         <v>160</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>1987</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="22">
         <f>166+30</f>
         <v>196</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>1988</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="22">
         <f>156+44</f>
         <v>200</v>
       </c>
-      <c r="C45" s="17"/>
+      <c r="C45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>1989</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="22">
         <f>155+49</f>
         <v>204</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>1990</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="22">
         <f>142+45</f>
         <v>187</v>
       </c>
-      <c r="C47" s="17"/>
+      <c r="C47" s="24"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>1991</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="22">
         <f>163+46</f>
         <v>209</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="24"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>1992</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="22">
         <f>182+48</f>
         <v>230</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>1993</v>
       </c>
-      <c r="B50" s="23">
-        <f>124+38</f>
-        <v>162</v>
-      </c>
-      <c r="C50" s="17"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="24"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>1994</v>
       </c>
-      <c r="B51" s="23"/>
+      <c r="B51" s="22"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>1995</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="22"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
@@ -4452,6 +4447,7 @@
       <c r="B53" s="8">
         <v>227.74783500000004</v>
       </c>
+      <c r="C53" s="24"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
@@ -4460,6 +4456,7 @@
       <c r="B54" s="8">
         <v>144.56236999999996</v>
       </c>
+      <c r="C54" s="24"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
@@ -4468,6 +4465,7 @@
       <c r="B55" s="8">
         <v>219.30247999999997</v>
       </c>
+      <c r="C55" s="24"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
@@ -4476,6 +4474,7 @@
       <c r="B56" s="8">
         <v>257.18237499999998</v>
       </c>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
@@ -4484,7 +4483,7 @@
       <c r="B57" s="8">
         <v>250.85938999999999</v>
       </c>
-      <c r="C57" s="25"/>
+      <c r="C57" s="24"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
@@ -4493,7 +4492,7 @@
       <c r="B58" s="8">
         <v>238.67235000000002</v>
       </c>
-      <c r="C58" s="25"/>
+      <c r="C58" s="24"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
@@ -4502,7 +4501,7 @@
       <c r="B59" s="8">
         <v>245.98853500000001</v>
       </c>
-      <c r="C59" s="25"/>
+      <c r="C59" s="24"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
@@ -4511,7 +4510,7 @@
       <c r="B60" s="8">
         <v>262.16664499999996</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
@@ -4520,7 +4519,7 @@
       <c r="B61" s="8">
         <v>270.80542999999994</v>
       </c>
-      <c r="C61" s="25"/>
+      <c r="C61" s="24"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
@@ -4529,7 +4528,7 @@
       <c r="B62" s="8">
         <v>272.66947499999998</v>
       </c>
-      <c r="C62" s="25"/>
+      <c r="C62" s="24"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
@@ -4538,7 +4537,7 @@
       <c r="B63" s="8">
         <v>286.68788999999992</v>
       </c>
-      <c r="C63" s="25"/>
+      <c r="C63" s="24"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -4547,7 +4546,7 @@
       <c r="B64" s="8">
         <v>327.98110000000008</v>
       </c>
-      <c r="C64" s="25"/>
+      <c r="C64" s="24"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
@@ -4556,7 +4555,7 @@
       <c r="B65" s="8">
         <v>298.70961000000005</v>
       </c>
-      <c r="C65" s="25"/>
+      <c r="C65" s="24"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
@@ -4565,7 +4564,7 @@
       <c r="B66" s="8">
         <v>226.05818500000001</v>
       </c>
-      <c r="C66" s="25"/>
+      <c r="C66" s="24"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
@@ -4574,7 +4573,7 @@
       <c r="B67" s="8">
         <v>291.62551499999995</v>
       </c>
-      <c r="C67" s="25"/>
+      <c r="C67" s="24"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
@@ -4583,7 +4582,7 @@
       <c r="B68" s="8">
         <v>276.16961000000003</v>
       </c>
-      <c r="C68" s="25"/>
+      <c r="C68" s="24"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
@@ -4592,7 +4591,7 @@
       <c r="B69" s="8">
         <v>238.987775</v>
       </c>
-      <c r="C69" s="25"/>
+      <c r="C69" s="24"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
@@ -4601,7 +4600,7 @@
       <c r="B70" s="8">
         <v>273.47733999999997</v>
       </c>
-      <c r="C70" s="25"/>
+      <c r="C70" s="24"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -4610,7 +4609,7 @@
       <c r="B71" s="8">
         <v>240.30352999999999</v>
       </c>
-      <c r="C71" s="25"/>
+      <c r="C71" s="24"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
@@ -4619,7 +4618,7 @@
       <c r="B72" s="8">
         <v>224.46110999999999</v>
       </c>
-      <c r="C72" s="25"/>
+      <c r="C72" s="24"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
@@ -4628,7 +4627,7 @@
       <c r="B73" s="8">
         <v>216.26886500000001</v>
       </c>
-      <c r="C73" s="25"/>
+      <c r="C73" s="24"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
@@ -4637,7 +4636,7 @@
       <c r="B74" s="8">
         <v>230.95865499999996</v>
       </c>
-      <c r="C74" s="25"/>
+      <c r="C74" s="24"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
@@ -4646,32 +4645,32 @@
       <c r="B75" s="8">
         <v>228.64879500000001</v>
       </c>
-      <c r="C75" s="25"/>
+      <c r="C75" s="24"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>2019</v>
       </c>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>2020</v>
       </c>
-      <c r="C77" s="25"/>
+      <c r="C77" s="24"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="25"/>
+      <c r="C78" s="24"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="25"/>
+      <c r="C79" s="24"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="25"/>
+      <c r="C80" s="24"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="25"/>
+      <c r="C81" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4686,10 +4685,10 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4700,10 +4699,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4835,7 +4834,7 @@
         <f>12*38.486</f>
         <v>461.83199999999999</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4846,7 +4845,7 @@
         <f>12*32.923</f>
         <v>395.07600000000002</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4857,7 +4856,7 @@
         <f>12*39.034</f>
         <v>468.40800000000002</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4868,7 +4867,7 @@
         <f>12*36.272</f>
         <v>435.26400000000001</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4879,7 +4878,7 @@
         <f>12*40.991</f>
         <v>491.892</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4890,7 +4889,7 @@
         <f>12*34.918</f>
         <v>419.01599999999996</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4901,7 +4900,7 @@
         <f>328+66</f>
         <v>394</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4912,7 +4911,7 @@
         <f>315+72</f>
         <v>387</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4923,7 +4922,7 @@
         <f>354+76</f>
         <v>430</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4934,7 +4933,7 @@
         <f>369+82</f>
         <v>451</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4945,7 +4944,7 @@
         <f>479+92</f>
         <v>571</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4956,7 +4955,7 @@
         <f>425+97</f>
         <v>522</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4967,7 +4966,7 @@
         <f>498+101</f>
         <v>599</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4978,7 +4977,7 @@
         <f>500+102</f>
         <v>602</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4989,7 +4988,7 @@
         <f>457+90</f>
         <v>547</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5000,7 +4999,7 @@
         <f>304+80</f>
         <v>384</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5011,7 +5010,7 @@
         <f>447+89</f>
         <v>536</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5022,7 +5021,7 @@
         <f>497+78</f>
         <v>575</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5033,7 +5032,7 @@
         <f>572+89</f>
         <v>661</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5044,7 +5043,7 @@
         <f>578+96</f>
         <v>674</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5055,7 +5054,7 @@
         <f>576+113</f>
         <v>689</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5066,7 +5065,7 @@
         <f>519+101</f>
         <v>620</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5077,7 +5076,7 @@
         <f>601+108</f>
         <v>709</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5088,7 +5087,7 @@
         <f>645+124</f>
         <v>769</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5099,7 +5098,7 @@
         <f>718+142</f>
         <v>860</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5110,7 +5109,7 @@
         <f>688+153</f>
         <v>841</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="24"/>
       <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5121,7 +5120,7 @@
         <f>726+167</f>
         <v>893</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5132,7 +5131,7 @@
         <f>770+194</f>
         <v>964</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5143,7 +5142,7 @@
         <f>757+229</f>
         <v>986</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5154,7 +5153,7 @@
         <f>934+252</f>
         <v>1186</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5165,8 +5164,8 @@
         <f>961+239</f>
         <v>1200</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
@@ -5176,7 +5175,7 @@
         <f>836+232</f>
         <v>1068</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5187,18 +5186,15 @@
         <f>846+229</f>
         <v>1075</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>1993</v>
       </c>
-      <c r="B50" s="4">
-        <f>928+265</f>
-        <v>1193</v>
-      </c>
-      <c r="C50" s="10"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="24"/>
       <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5206,6 +5202,7 @@
         <v>1994</v>
       </c>
       <c r="B51" s="8"/>
+      <c r="C51" s="24"/>
       <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5293,6 +5290,7 @@
       <c r="B60" s="8">
         <v>1035.6898874999999</v>
       </c>
+      <c r="C60" s="24"/>
       <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5302,7 +5300,7 @@
       <c r="B61" s="8">
         <v>1041.0621912500001</v>
       </c>
-      <c r="C61" s="29"/>
+      <c r="C61" s="24"/>
       <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5312,7 +5310,7 @@
       <c r="B62" s="8">
         <v>1017.1818999999999</v>
       </c>
-      <c r="C62" s="29"/>
+      <c r="C62" s="24"/>
       <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5323,7 +5321,7 @@
         <v>1042.5845850000003</v>
       </c>
       <c r="C63" s="24"/>
-      <c r="D63" s="29"/>
+      <c r="D63" s="28"/>
     </row>
     <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
@@ -5392,7 +5390,7 @@
       <c r="B70" s="8">
         <v>791.69499749999989</v>
       </c>
-      <c r="C70" s="24"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5402,7 +5400,7 @@
       <c r="B71" s="8">
         <v>634.72707749999995</v>
       </c>
-      <c r="C71" s="24"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5412,7 +5410,7 @@
       <c r="B72" s="8">
         <v>643.42857000000015</v>
       </c>
-      <c r="C72" s="24"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5422,7 +5420,7 @@
       <c r="B73" s="8">
         <v>499.78879875000001</v>
       </c>
-      <c r="C73" s="24"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5432,7 +5430,7 @@
       <c r="B74" s="8">
         <v>547.19474625000009</v>
       </c>
-      <c r="C74" s="24"/>
+      <c r="C74" s="23"/>
       <c r="D74" s="10"/>
     </row>
     <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5442,7 +5440,7 @@
       <c r="B75" s="8">
         <v>547.75624375000007</v>
       </c>
-      <c r="C75" s="24"/>
+      <c r="C75" s="23"/>
       <c r="D75" s="10"/>
     </row>
     <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5502,905 +5500,905 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7426F8F2-947A-4C47-BA81-FD7398DE30D5}">
   <dimension ref="A1:AL88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15.140625" style="45" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="45"/>
+    <col min="1" max="1" width="8" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.140625" style="44" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:5" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
+      <c r="A2" s="42">
         <v>1945</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
+      <c r="A3" s="42">
         <v>1946</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
+      <c r="A4" s="42">
         <v>1947</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="A5" s="42">
         <v>1948</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="A6" s="42">
         <v>1949</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="A7" s="42">
         <v>1950</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="43">
         <v>30.98</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="43">
         <v>0.73</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="43">
         <v>0</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="43">
         <f>SUM(B7:D7)</f>
         <v>31.71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
+      <c r="A8" s="42">
         <v>1951</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
+      <c r="A9" s="42">
         <v>1952</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+      <c r="A10" s="42">
         <v>1953</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
+      <c r="A11" s="42">
         <v>1954</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
+      <c r="A12" s="42">
         <v>1955</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="A13" s="42">
         <v>1956</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A14" s="42">
         <v>1957</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+      <c r="A15" s="42">
         <v>1958</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="45"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+      <c r="A16" s="42">
         <v>1959</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="45"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+      <c r="A17" s="42">
         <v>1960</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="46">
         <f>0.8*E17</f>
         <v>16.8</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="46">
         <f>0.047*E17</f>
         <v>0.98699999999999999</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="46">
         <f>0.125*E17</f>
         <v>2.625</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="49">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
+      <c r="A18" s="42">
         <v>1961</v>
       </c>
-      <c r="E18" s="50"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
+      <c r="A19" s="42">
         <v>1962</v>
       </c>
-      <c r="E19" s="50"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
+      <c r="A20" s="42">
         <v>1963</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="E20" s="50"/>
+      <c r="B20" s="45"/>
+      <c r="E20" s="49"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
+      <c r="A21" s="42">
         <v>1964</v>
       </c>
-      <c r="E21" s="50"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
+      <c r="A22" s="42">
         <v>1965</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="46">
         <f>0.79*E22</f>
         <v>16.6295</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="46">
         <f>0.055*E22</f>
         <v>1.1577500000000001</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="46">
         <f>0.12*E22</f>
         <v>2.5259999999999998</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="49">
         <v>21.05</v>
       </c>
-      <c r="J22" s="51"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
+      <c r="A23" s="42">
         <v>1966</v>
       </c>
-      <c r="E23" s="50"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
+      <c r="A24" s="42">
         <v>1967</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="50"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
+      <c r="A25" s="42">
         <v>1968</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="50"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
+      <c r="A26" s="42">
         <v>1969</v>
       </c>
-      <c r="E26" s="50"/>
+      <c r="E26" s="49"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
+      <c r="A27" s="42">
         <v>1970</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="45">
         <f>0.79*E27</f>
         <v>15.721</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="45">
         <f>0.04*E27</f>
         <v>0.79599999999999993</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="45">
         <f>0.17*E27</f>
         <v>3.383</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="49">
         <v>19.899999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
+      <c r="A28" s="42">
         <v>1971</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="50"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
+      <c r="A29" s="42">
         <v>1972</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="50"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="49"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="43">
+      <c r="A30" s="42">
         <v>1973</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="50"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="49"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
+      <c r="A31" s="42">
         <v>1974</v>
       </c>
-      <c r="E31" s="50"/>
+      <c r="E31" s="49"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="43">
+      <c r="A32" s="42">
         <v>1975</v>
       </c>
-      <c r="B32" s="46">
+      <c r="B32" s="45">
         <f>0.77*E32</f>
         <v>13.636700000000001</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="45">
         <f>0.04*E32</f>
         <v>0.70840000000000003</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="45">
         <f>0.18*E32</f>
         <v>3.1878000000000002</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32" s="49">
         <v>17.71</v>
       </c>
-      <c r="J32" s="51"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="43">
+      <c r="A33" s="42">
         <v>1976</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="50"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="49"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="43">
+      <c r="A34" s="42">
         <v>1977</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="50"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="49"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
+      <c r="A35" s="42">
         <v>1978</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="50"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="49"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="43">
+      <c r="A36" s="42">
         <v>1979</v>
       </c>
-      <c r="E36" s="50"/>
+      <c r="E36" s="49"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="43">
+      <c r="A37" s="42">
         <v>1980</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="45">
         <f>0.68*E37</f>
         <v>10.376800000000001</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C37" s="45">
         <f>0.04*E37</f>
         <v>0.61040000000000005</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="45">
         <f>0.3*E37</f>
         <v>4.5779999999999994</v>
       </c>
-      <c r="E37" s="50">
+      <c r="E37" s="49">
         <v>15.26</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="43">
+      <c r="A38" s="42">
         <v>1981</v>
       </c>
-      <c r="E38" s="50"/>
+      <c r="E38" s="49"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="43">
+      <c r="A39" s="42">
         <v>1982</v>
       </c>
-      <c r="E39" s="50"/>
+      <c r="E39" s="49"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="43">
+      <c r="A40" s="42">
         <v>1983</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="50"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="49"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="43">
+      <c r="A41" s="42">
         <v>1984</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="J41" s="51"/>
+      <c r="E41" s="49"/>
+      <c r="J41" s="50"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="43">
+      <c r="A42" s="42">
         <v>1985</v>
       </c>
-      <c r="B42" s="46">
+      <c r="B42" s="45">
         <f>0.65*E42</f>
         <v>8.918000000000001</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="45">
         <f>0.04*E42</f>
         <v>0.54880000000000007</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D42" s="45">
         <f>0.3*E42</f>
         <v>4.1159999999999997</v>
       </c>
-      <c r="E42" s="50">
+      <c r="E42" s="49">
         <v>13.72</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="43">
+      <c r="A43" s="42">
         <v>1986</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="50"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="49"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="43">
+      <c r="A44" s="42">
         <v>1987</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="50"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="43">
+      <c r="A45" s="42">
         <v>1988</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="45">
         <f>0.65*E45</f>
         <v>8.1640000000000015</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="45">
         <f>0.04*E45</f>
         <v>0.50240000000000007</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D45" s="45">
         <f>0.3*E45</f>
         <v>3.7679999999999998</v>
       </c>
-      <c r="E45" s="50">
+      <c r="E45" s="49">
         <v>12.56</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="43">
+      <c r="A46" s="42">
         <v>1989</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="46"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="45"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="43">
+      <c r="A47" s="42">
         <v>1990</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="46"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="45"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="43">
+      <c r="A48" s="42">
         <v>1991</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="46"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="45"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43">
+      <c r="A49" s="42">
         <v>1992</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43">
+      <c r="A50" s="42">
         <v>1993</v>
       </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43">
+      <c r="A51" s="42">
         <v>1994</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43">
+      <c r="A52" s="42">
         <v>1995</v>
       </c>
-      <c r="B52" s="46">
+      <c r="B52" s="45">
         <v>5.01</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="45">
         <v>1.48</v>
       </c>
-      <c r="D52" s="46">
+      <c r="D52" s="45">
         <v>4.8</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="45">
         <v>11.3</v>
       </c>
-      <c r="F52" s="46"/>
+      <c r="F52" s="45"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43">
+      <c r="A53" s="42">
         <v>1996</v>
       </c>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="43">
+      <c r="A54" s="42">
         <v>1997</v>
       </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="43">
+      <c r="A55" s="42">
         <v>1998</v>
       </c>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="43">
+      <c r="A56" s="42">
         <v>1999</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="43">
+      <c r="A57" s="42">
         <v>2000</v>
       </c>
-      <c r="F57" s="46"/>
+      <c r="F57" s="45"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="43">
+      <c r="A58" s="42">
         <v>2001</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="43">
+      <c r="A59" s="42">
         <v>2002</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="43">
+      <c r="A60" s="42">
         <v>2003</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="43">
+      <c r="A61" s="42">
         <v>2004</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="43">
+      <c r="A62" s="42">
         <v>2005</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="43">
+      <c r="A63" s="42">
         <v>2006</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="43">
+      <c r="A64" s="42">
         <v>2007</v>
       </c>
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A65" s="43">
+      <c r="A65" s="42">
         <v>2008</v>
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A66" s="43">
+      <c r="A66" s="42">
         <v>2009</v>
       </c>
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="47"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="46"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A67" s="43">
+      <c r="A67" s="42">
         <v>2010</v>
       </c>
-      <c r="B67" s="46">
+      <c r="B67" s="45">
         <v>2.1</v>
       </c>
-      <c r="C67" s="46">
+      <c r="C67" s="45">
         <v>0.9</v>
       </c>
-      <c r="D67" s="46">
+      <c r="D67" s="45">
         <v>6.1</v>
       </c>
-      <c r="E67" s="44">
+      <c r="E67" s="43">
         <v>9.1</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A68" s="43">
+      <c r="A68" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A69" s="43">
+      <c r="A69" s="42">
         <v>2012</v>
       </c>
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A70" s="43">
+      <c r="A70" s="42">
         <v>2013</v>
       </c>
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A71" s="43">
+      <c r="A71" s="42">
         <v>2014</v>
       </c>
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A72" s="43">
+      <c r="A72" s="42">
         <v>2015</v>
       </c>
-      <c r="B72" s="46"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="46"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A73" s="43">
+      <c r="A73" s="42">
         <v>2016</v>
       </c>
-      <c r="B73" s="46"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A74" s="43">
+      <c r="A74" s="42">
         <v>2017</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A75" s="43">
+      <c r="A75" s="42">
         <v>2018</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A76" s="43">
+      <c r="A76" s="42">
         <v>2019</v>
       </c>
-      <c r="B76" s="46">
+      <c r="B76" s="45">
         <v>2.1</v>
       </c>
-      <c r="C76" s="46">
+      <c r="C76" s="45">
         <v>0.9</v>
       </c>
-      <c r="D76" s="46">
+      <c r="D76" s="45">
         <v>6.1</v>
       </c>
-      <c r="E76" s="44">
+      <c r="E76" s="43">
         <v>9.1</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A77" s="43">
+      <c r="A77" s="42">
         <v>2020</v>
       </c>
     </row>
-    <row r="78" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="45"/>
-      <c r="P78" s="45"/>
-      <c r="Q78" s="45"/>
-      <c r="R78" s="45"/>
-      <c r="S78" s="45"/>
-      <c r="T78" s="45"/>
-      <c r="U78" s="45"/>
-      <c r="V78" s="45"/>
-      <c r="W78" s="45"/>
-      <c r="X78" s="45"/>
-      <c r="Y78" s="45"/>
-      <c r="Z78" s="45"/>
-      <c r="AA78" s="45"/>
-      <c r="AB78" s="45"/>
-      <c r="AC78" s="45"/>
-      <c r="AD78" s="45"/>
-      <c r="AE78" s="45"/>
-      <c r="AF78" s="45"/>
-      <c r="AG78" s="45"/>
-      <c r="AH78" s="45"/>
-      <c r="AI78" s="45"/>
-      <c r="AJ78" s="45"/>
-      <c r="AK78" s="45"/>
-      <c r="AL78" s="45"/>
-    </row>
-    <row r="79" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="45"/>
-      <c r="L79" s="45"/>
-      <c r="M79" s="45"/>
-      <c r="N79" s="45"/>
-      <c r="O79" s="45"/>
-      <c r="P79" s="45"/>
-      <c r="Q79" s="45"/>
-      <c r="R79" s="45"/>
-      <c r="S79" s="45"/>
-      <c r="T79" s="45"/>
-      <c r="U79" s="45"/>
-      <c r="V79" s="45"/>
-      <c r="W79" s="45"/>
-      <c r="X79" s="45"/>
-      <c r="Y79" s="45"/>
-      <c r="Z79" s="45"/>
-      <c r="AA79" s="45"/>
-      <c r="AB79" s="45"/>
-      <c r="AC79" s="45"/>
-      <c r="AD79" s="45"/>
-      <c r="AE79" s="45"/>
-      <c r="AF79" s="45"/>
-      <c r="AG79" s="45"/>
-      <c r="AH79" s="45"/>
-      <c r="AI79" s="45"/>
-      <c r="AJ79" s="45"/>
-      <c r="AK79" s="45"/>
-      <c r="AL79" s="45"/>
-    </row>
-    <row r="80" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="45"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="45"/>
-      <c r="O80" s="45"/>
-      <c r="P80" s="45"/>
-      <c r="Q80" s="45"/>
-      <c r="R80" s="45"/>
-      <c r="S80" s="45"/>
-      <c r="T80" s="45"/>
-      <c r="U80" s="45"/>
-      <c r="V80" s="45"/>
-      <c r="W80" s="45"/>
-      <c r="X80" s="45"/>
-      <c r="Y80" s="45"/>
-      <c r="Z80" s="45"/>
-      <c r="AA80" s="45"/>
-      <c r="AB80" s="45"/>
-      <c r="AC80" s="45"/>
-      <c r="AD80" s="45"/>
-      <c r="AE80" s="45"/>
-      <c r="AF80" s="45"/>
-      <c r="AG80" s="45"/>
-      <c r="AH80" s="45"/>
-      <c r="AI80" s="45"/>
-      <c r="AJ80" s="45"/>
-      <c r="AK80" s="45"/>
-      <c r="AL80" s="45"/>
-    </row>
-    <row r="87" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="45"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="45"/>
-      <c r="O87" s="45"/>
-      <c r="P87" s="45"/>
-      <c r="Q87" s="45"/>
-      <c r="R87" s="45"/>
-      <c r="S87" s="45"/>
-      <c r="T87" s="45"/>
-      <c r="U87" s="45"/>
-      <c r="V87" s="45"/>
-      <c r="W87" s="45"/>
-      <c r="X87" s="45"/>
-      <c r="Y87" s="45"/>
-      <c r="Z87" s="45"/>
-      <c r="AA87" s="45"/>
-      <c r="AB87" s="45"/>
-      <c r="AC87" s="45"/>
-      <c r="AD87" s="45"/>
-      <c r="AE87" s="45"/>
-      <c r="AF87" s="45"/>
-      <c r="AG87" s="45"/>
-      <c r="AH87" s="45"/>
-      <c r="AI87" s="45"/>
-      <c r="AJ87" s="45"/>
-      <c r="AK87" s="45"/>
-      <c r="AL87" s="45"/>
-    </row>
-    <row r="88" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="45"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="45"/>
-      <c r="M88" s="45"/>
-      <c r="N88" s="45"/>
-      <c r="O88" s="45"/>
-      <c r="P88" s="45"/>
-      <c r="Q88" s="45"/>
-      <c r="R88" s="45"/>
-      <c r="S88" s="45"/>
-      <c r="T88" s="45"/>
-      <c r="U88" s="45"/>
-      <c r="V88" s="45"/>
-      <c r="W88" s="45"/>
-      <c r="X88" s="45"/>
-      <c r="Y88" s="45"/>
-      <c r="Z88" s="45"/>
-      <c r="AA88" s="45"/>
-      <c r="AB88" s="45"/>
-      <c r="AC88" s="45"/>
-      <c r="AD88" s="45"/>
-      <c r="AE88" s="45"/>
-      <c r="AF88" s="45"/>
-      <c r="AG88" s="45"/>
-      <c r="AH88" s="45"/>
-      <c r="AI88" s="45"/>
-      <c r="AJ88" s="45"/>
-      <c r="AK88" s="45"/>
-      <c r="AL88" s="45"/>
+    <row r="78" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="47"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="44"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="44"/>
+      <c r="R78" s="44"/>
+      <c r="S78" s="44"/>
+      <c r="T78" s="44"/>
+      <c r="U78" s="44"/>
+      <c r="V78" s="44"/>
+      <c r="W78" s="44"/>
+      <c r="X78" s="44"/>
+      <c r="Y78" s="44"/>
+      <c r="Z78" s="44"/>
+      <c r="AA78" s="44"/>
+      <c r="AB78" s="44"/>
+      <c r="AC78" s="44"/>
+      <c r="AD78" s="44"/>
+      <c r="AE78" s="44"/>
+      <c r="AF78" s="44"/>
+      <c r="AG78" s="44"/>
+      <c r="AH78" s="44"/>
+      <c r="AI78" s="44"/>
+      <c r="AJ78" s="44"/>
+      <c r="AK78" s="44"/>
+      <c r="AL78" s="44"/>
+    </row>
+    <row r="79" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="47"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="44"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="44"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="44"/>
+      <c r="R79" s="44"/>
+      <c r="S79" s="44"/>
+      <c r="T79" s="44"/>
+      <c r="U79" s="44"/>
+      <c r="V79" s="44"/>
+      <c r="W79" s="44"/>
+      <c r="X79" s="44"/>
+      <c r="Y79" s="44"/>
+      <c r="Z79" s="44"/>
+      <c r="AA79" s="44"/>
+      <c r="AB79" s="44"/>
+      <c r="AC79" s="44"/>
+      <c r="AD79" s="44"/>
+      <c r="AE79" s="44"/>
+      <c r="AF79" s="44"/>
+      <c r="AG79" s="44"/>
+      <c r="AH79" s="44"/>
+      <c r="AI79" s="44"/>
+      <c r="AJ79" s="44"/>
+      <c r="AK79" s="44"/>
+      <c r="AL79" s="44"/>
+    </row>
+    <row r="80" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="47"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="44"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="44"/>
+      <c r="R80" s="44"/>
+      <c r="S80" s="44"/>
+      <c r="T80" s="44"/>
+      <c r="U80" s="44"/>
+      <c r="V80" s="44"/>
+      <c r="W80" s="44"/>
+      <c r="X80" s="44"/>
+      <c r="Y80" s="44"/>
+      <c r="Z80" s="44"/>
+      <c r="AA80" s="44"/>
+      <c r="AB80" s="44"/>
+      <c r="AC80" s="44"/>
+      <c r="AD80" s="44"/>
+      <c r="AE80" s="44"/>
+      <c r="AF80" s="44"/>
+      <c r="AG80" s="44"/>
+      <c r="AH80" s="44"/>
+      <c r="AI80" s="44"/>
+      <c r="AJ80" s="44"/>
+      <c r="AK80" s="44"/>
+      <c r="AL80" s="44"/>
+    </row>
+    <row r="87" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="47"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="44"/>
+      <c r="S87" s="44"/>
+      <c r="T87" s="44"/>
+      <c r="U87" s="44"/>
+      <c r="V87" s="44"/>
+      <c r="W87" s="44"/>
+      <c r="X87" s="44"/>
+      <c r="Y87" s="44"/>
+      <c r="Z87" s="44"/>
+      <c r="AA87" s="44"/>
+      <c r="AB87" s="44"/>
+      <c r="AC87" s="44"/>
+      <c r="AD87" s="44"/>
+      <c r="AE87" s="44"/>
+      <c r="AF87" s="44"/>
+      <c r="AG87" s="44"/>
+      <c r="AH87" s="44"/>
+      <c r="AI87" s="44"/>
+      <c r="AJ87" s="44"/>
+      <c r="AK87" s="44"/>
+      <c r="AL87" s="44"/>
+    </row>
+    <row r="88" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="47"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="44"/>
+      <c r="S88" s="44"/>
+      <c r="T88" s="44"/>
+      <c r="U88" s="44"/>
+      <c r="V88" s="44"/>
+      <c r="W88" s="44"/>
+      <c r="X88" s="44"/>
+      <c r="Y88" s="44"/>
+      <c r="Z88" s="44"/>
+      <c r="AA88" s="44"/>
+      <c r="AB88" s="44"/>
+      <c r="AC88" s="44"/>
+      <c r="AD88" s="44"/>
+      <c r="AE88" s="44"/>
+      <c r="AF88" s="44"/>
+      <c r="AG88" s="44"/>
+      <c r="AH88" s="44"/>
+      <c r="AI88" s="44"/>
+      <c r="AJ88" s="44"/>
+      <c r="AK88" s="44"/>
+      <c r="AL88" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6424,10 +6422,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6448,7 +6446,7 @@
       <c r="B4" s="8">
         <v>8512</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -6479,8 +6477,8 @@
       <c r="A10" s="12">
         <v>1953</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -6991,13 +6989,13 @@
       <c r="B76" s="8">
         <v>11481</v>
       </c>
-      <c r="C76" s="28"/>
+      <c r="C76" s="27"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>2020</v>
       </c>
-      <c r="B77" s="27">
+      <c r="B77" s="26">
         <v>11493</v>
       </c>
     </row>

--- a/RawData/BE_RawData_VPython.xlsx
+++ b/RawData/BE_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D91D7C6-7079-4793-AAFF-A2A339B98735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF3AEE7-CEC0-473C-BA3E-0E22B6E30022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="16665" windowHeight="15600" activeTab="4" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="19" r:id="rId1"/>
@@ -2667,7 +2667,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2770,7 +2770,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3141,16 +3140,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025F8ED2-37F9-40BE-8E6A-7FBA957A3175}">
   <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="118.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="27" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81" style="32" customWidth="1"/>
-    <col min="4" max="4" width="86.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.140625" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3164,7 +3161,7 @@
       <c r="C3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="36" t="s">
@@ -3178,10 +3175,10 @@
       <c r="B7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3194,7 +3191,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="38"/>
+      <c r="D10" s="53"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
@@ -3214,13 +3211,13 @@
       <c r="C13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="53" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
@@ -3229,11 +3226,11 @@
       <c r="C15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
+      <c r="D16" s="53"/>
     </row>
     <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="36" t="s">
@@ -3242,11 +3239,11 @@
       <c r="C17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="53"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="D18" s="53"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
@@ -3255,7 +3252,7 @@
       <c r="C19" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="53" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3266,13 +3263,13 @@
       <c r="C21" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
+      <c r="D22" s="53"/>
     </row>
     <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
@@ -3281,7 +3278,7 @@
       <c r="C23" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="38"/>
+      <c r="D23" s="53"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3322,7 +3319,7 @@
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3331,7 +3328,7 @@
         <v>1945</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="55">
+      <c r="C2" s="54">
         <v>0.9</v>
       </c>
     </row>
@@ -3366,7 +3363,7 @@
       <c r="B7" s="9">
         <v>206.25</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="51">
         <v>0.9</v>
       </c>
     </row>
@@ -5500,905 +5497,905 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7426F8F2-947A-4C47-BA81-FD7398DE30D5}">
   <dimension ref="A1:AL88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15.140625" style="44" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="44"/>
+    <col min="1" max="1" width="8" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.140625" style="43" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:5" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="42">
+      <c r="A2" s="41">
         <v>1945</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
+      <c r="A3" s="41">
         <v>1946</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
+      <c r="A4" s="41">
         <v>1947</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
+      <c r="A5" s="41">
         <v>1948</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
+      <c r="A6" s="41">
         <v>1949</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
+      <c r="A7" s="41">
         <v>1950</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="42">
         <v>30.98</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="42">
         <v>0.73</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="42">
         <v>0</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="42">
         <f>SUM(B7:D7)</f>
         <v>31.71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
+      <c r="A8" s="41">
         <v>1951</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
+      <c r="A9" s="41">
         <v>1952</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
+      <c r="A10" s="41">
         <v>1953</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
+      <c r="A11" s="41">
         <v>1954</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
+      <c r="A12" s="41">
         <v>1955</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
+      <c r="A13" s="41">
         <v>1956</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="42">
+      <c r="A14" s="41">
         <v>1957</v>
       </c>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
+      <c r="A15" s="41">
         <v>1958</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="44"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="42">
+      <c r="A16" s="41">
         <v>1959</v>
       </c>
-      <c r="B16" s="45"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="42">
+      <c r="A17" s="41">
         <v>1960</v>
       </c>
-      <c r="B17" s="46">
-        <f>0.8*E17</f>
-        <v>16.8</v>
-      </c>
-      <c r="C17" s="46">
-        <f>0.047*E17</f>
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="D17" s="46">
-        <f>0.125*E17</f>
-        <v>2.625</v>
-      </c>
-      <c r="E17" s="49">
+      <c r="B17" s="45">
+        <f>0.9*E17</f>
+        <v>18.900000000000002</v>
+      </c>
+      <c r="C17" s="45">
+        <f>0.04*E17</f>
+        <v>0.84</v>
+      </c>
+      <c r="D17" s="45">
+        <f>0.06*E17</f>
+        <v>1.26</v>
+      </c>
+      <c r="E17" s="48">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="42">
+      <c r="A18" s="41">
         <v>1961</v>
       </c>
-      <c r="E18" s="49"/>
+      <c r="E18" s="48"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
+      <c r="A19" s="41">
         <v>1962</v>
       </c>
-      <c r="E19" s="49"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="42">
+      <c r="A20" s="41">
         <v>1963</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="E20" s="49"/>
+      <c r="B20" s="44"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="42">
+      <c r="A21" s="41">
         <v>1964</v>
       </c>
-      <c r="E21" s="49"/>
+      <c r="E21" s="48"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="42">
+      <c r="A22" s="41">
         <v>1965</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="45">
         <f>0.79*E22</f>
         <v>16.6295</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="45">
         <f>0.055*E22</f>
         <v>1.1577500000000001</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="45">
         <f>0.12*E22</f>
         <v>2.5259999999999998</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="48">
         <v>21.05</v>
       </c>
-      <c r="J22" s="50"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="42">
+      <c r="A23" s="41">
         <v>1966</v>
       </c>
-      <c r="E23" s="49"/>
+      <c r="E23" s="48"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="42">
+      <c r="A24" s="41">
         <v>1967</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="49"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="48"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="42">
+      <c r="A25" s="41">
         <v>1968</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="49"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="48"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="42">
+      <c r="A26" s="41">
         <v>1969</v>
       </c>
-      <c r="E26" s="49"/>
+      <c r="E26" s="48"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="42">
+      <c r="A27" s="41">
         <v>1970</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="44">
         <f>0.79*E27</f>
         <v>15.721</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="44">
         <f>0.04*E27</f>
         <v>0.79599999999999993</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="44">
         <f>0.17*E27</f>
         <v>3.383</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="48">
         <v>19.899999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="42">
+      <c r="A28" s="41">
         <v>1971</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="49"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="48"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="42">
+      <c r="A29" s="41">
         <v>1972</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="49"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="48"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="42">
+      <c r="A30" s="41">
         <v>1973</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="48"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="42">
+      <c r="A31" s="41">
         <v>1974</v>
       </c>
-      <c r="E31" s="49"/>
+      <c r="E31" s="48"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="42">
+      <c r="A32" s="41">
         <v>1975</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="44">
         <f>0.77*E32</f>
         <v>13.636700000000001</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="44">
         <f>0.04*E32</f>
         <v>0.70840000000000003</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="44">
         <f>0.18*E32</f>
         <v>3.1878000000000002</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="48">
         <v>17.71</v>
       </c>
-      <c r="J32" s="50"/>
+      <c r="J32" s="49"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="42">
+      <c r="A33" s="41">
         <v>1976</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="49"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="48"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="42">
+      <c r="A34" s="41">
         <v>1977</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="49"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="48"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="42">
+      <c r="A35" s="41">
         <v>1978</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="49"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="48"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="42">
+      <c r="A36" s="41">
         <v>1979</v>
       </c>
-      <c r="E36" s="49"/>
+      <c r="E36" s="48"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="42">
+      <c r="A37" s="41">
         <v>1980</v>
       </c>
-      <c r="B37" s="45">
+      <c r="B37" s="44">
         <f>0.68*E37</f>
         <v>10.376800000000001</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="44">
         <f>0.04*E37</f>
         <v>0.61040000000000005</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="44">
         <f>0.3*E37</f>
         <v>4.5779999999999994</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="48">
         <v>15.26</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="42">
+      <c r="A38" s="41">
         <v>1981</v>
       </c>
-      <c r="E38" s="49"/>
+      <c r="E38" s="48"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="42">
+      <c r="A39" s="41">
         <v>1982</v>
       </c>
-      <c r="E39" s="49"/>
+      <c r="E39" s="48"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="42">
+      <c r="A40" s="41">
         <v>1983</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="49"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="48"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="42">
+      <c r="A41" s="41">
         <v>1984</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="J41" s="50"/>
+      <c r="E41" s="48"/>
+      <c r="J41" s="49"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="42">
+      <c r="A42" s="41">
         <v>1985</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B42" s="44">
         <f>0.65*E42</f>
         <v>8.918000000000001</v>
       </c>
-      <c r="C42" s="45">
+      <c r="C42" s="44">
         <f>0.04*E42</f>
         <v>0.54880000000000007</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D42" s="44">
         <f>0.3*E42</f>
         <v>4.1159999999999997</v>
       </c>
-      <c r="E42" s="49">
+      <c r="E42" s="48">
         <v>13.72</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="42">
+      <c r="A43" s="41">
         <v>1986</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="49"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="48"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="42">
+      <c r="A44" s="41">
         <v>1987</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="49"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="48"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="42">
+      <c r="A45" s="41">
         <v>1988</v>
       </c>
-      <c r="B45" s="45">
+      <c r="B45" s="44">
         <f>0.65*E45</f>
         <v>8.1640000000000015</v>
       </c>
-      <c r="C45" s="45">
+      <c r="C45" s="44">
         <f>0.04*E45</f>
         <v>0.50240000000000007</v>
       </c>
-      <c r="D45" s="45">
+      <c r="D45" s="44">
         <f>0.3*E45</f>
         <v>3.7679999999999998</v>
       </c>
-      <c r="E45" s="49">
+      <c r="E45" s="48">
         <v>12.56</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="42">
+      <c r="A46" s="41">
         <v>1989</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="45"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="42">
+      <c r="A47" s="41">
         <v>1990</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="45"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="44"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="42">
+      <c r="A48" s="41">
         <v>1991</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="45"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="44"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42">
+      <c r="A49" s="41">
         <v>1992</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42">
+      <c r="A50" s="41">
         <v>1993</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42">
+      <c r="A51" s="41">
         <v>1994</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42">
+      <c r="A52" s="41">
         <v>1995</v>
       </c>
-      <c r="B52" s="45">
+      <c r="B52" s="44">
         <v>5.01</v>
       </c>
-      <c r="C52" s="45">
+      <c r="C52" s="44">
         <v>1.48</v>
       </c>
-      <c r="D52" s="45">
+      <c r="D52" s="44">
         <v>4.8</v>
       </c>
-      <c r="E52" s="45">
+      <c r="E52" s="44">
         <v>11.3</v>
       </c>
-      <c r="F52" s="45"/>
+      <c r="F52" s="44"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="42">
+      <c r="A53" s="41">
         <v>1996</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="42">
+      <c r="A54" s="41">
         <v>1997</v>
       </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="42">
+      <c r="A55" s="41">
         <v>1998</v>
       </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="42">
+      <c r="A56" s="41">
         <v>1999</v>
       </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="42">
+      <c r="A57" s="41">
         <v>2000</v>
       </c>
-      <c r="F57" s="45"/>
+      <c r="F57" s="44"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="42">
+      <c r="A58" s="41">
         <v>2001</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="42">
+      <c r="A59" s="41">
         <v>2002</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="42">
+      <c r="A60" s="41">
         <v>2003</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="42">
+      <c r="A61" s="41">
         <v>2004</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="42">
+      <c r="A62" s="41">
         <v>2005</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="42">
+      <c r="A63" s="41">
         <v>2006</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="42">
+      <c r="A64" s="41">
         <v>2007</v>
       </c>
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A65" s="42">
+      <c r="A65" s="41">
         <v>2008</v>
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A66" s="42">
+      <c r="A66" s="41">
         <v>2009</v>
       </c>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="45"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A67" s="42">
+      <c r="A67" s="41">
         <v>2010</v>
       </c>
-      <c r="B67" s="45">
+      <c r="B67" s="44">
         <v>2.1</v>
       </c>
-      <c r="C67" s="45">
+      <c r="C67" s="44">
         <v>0.9</v>
       </c>
-      <c r="D67" s="45">
+      <c r="D67" s="44">
         <v>6.1</v>
       </c>
-      <c r="E67" s="43">
+      <c r="E67" s="42">
         <v>9.1</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A68" s="42">
+      <c r="A68" s="41">
         <v>2011</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A69" s="42">
+      <c r="A69" s="41">
         <v>2012</v>
       </c>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A70" s="42">
+      <c r="A70" s="41">
         <v>2013</v>
       </c>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A71" s="42">
+      <c r="A71" s="41">
         <v>2014</v>
       </c>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A72" s="42">
+      <c r="A72" s="41">
         <v>2015</v>
       </c>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A73" s="42">
+      <c r="A73" s="41">
         <v>2016</v>
       </c>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A74" s="42">
+      <c r="A74" s="41">
         <v>2017</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A75" s="42">
+      <c r="A75" s="41">
         <v>2018</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A76" s="42">
+      <c r="A76" s="41">
         <v>2019</v>
       </c>
-      <c r="B76" s="45">
+      <c r="B76" s="44">
         <v>2.1</v>
       </c>
-      <c r="C76" s="45">
+      <c r="C76" s="44">
         <v>0.9</v>
       </c>
-      <c r="D76" s="45">
+      <c r="D76" s="44">
         <v>6.1</v>
       </c>
-      <c r="E76" s="43">
+      <c r="E76" s="42">
         <v>9.1</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A77" s="42">
+      <c r="A77" s="41">
         <v>2020</v>
       </c>
     </row>
-    <row r="78" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="44"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="44"/>
-      <c r="N78" s="44"/>
-      <c r="O78" s="44"/>
-      <c r="P78" s="44"/>
-      <c r="Q78" s="44"/>
-      <c r="R78" s="44"/>
-      <c r="S78" s="44"/>
-      <c r="T78" s="44"/>
-      <c r="U78" s="44"/>
-      <c r="V78" s="44"/>
-      <c r="W78" s="44"/>
-      <c r="X78" s="44"/>
-      <c r="Y78" s="44"/>
-      <c r="Z78" s="44"/>
-      <c r="AA78" s="44"/>
-      <c r="AB78" s="44"/>
-      <c r="AC78" s="44"/>
-      <c r="AD78" s="44"/>
-      <c r="AE78" s="44"/>
-      <c r="AF78" s="44"/>
-      <c r="AG78" s="44"/>
-      <c r="AH78" s="44"/>
-      <c r="AI78" s="44"/>
-      <c r="AJ78" s="44"/>
-      <c r="AK78" s="44"/>
-      <c r="AL78" s="44"/>
-    </row>
-    <row r="79" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="44"/>
-      <c r="M79" s="44"/>
-      <c r="N79" s="44"/>
-      <c r="O79" s="44"/>
-      <c r="P79" s="44"/>
-      <c r="Q79" s="44"/>
-      <c r="R79" s="44"/>
-      <c r="S79" s="44"/>
-      <c r="T79" s="44"/>
-      <c r="U79" s="44"/>
-      <c r="V79" s="44"/>
-      <c r="W79" s="44"/>
-      <c r="X79" s="44"/>
-      <c r="Y79" s="44"/>
-      <c r="Z79" s="44"/>
-      <c r="AA79" s="44"/>
-      <c r="AB79" s="44"/>
-      <c r="AC79" s="44"/>
-      <c r="AD79" s="44"/>
-      <c r="AE79" s="44"/>
-      <c r="AF79" s="44"/>
-      <c r="AG79" s="44"/>
-      <c r="AH79" s="44"/>
-      <c r="AI79" s="44"/>
-      <c r="AJ79" s="44"/>
-      <c r="AK79" s="44"/>
-      <c r="AL79" s="44"/>
-    </row>
-    <row r="80" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="44"/>
-      <c r="K80" s="44"/>
-      <c r="L80" s="44"/>
-      <c r="M80" s="44"/>
-      <c r="N80" s="44"/>
-      <c r="O80" s="44"/>
-      <c r="P80" s="44"/>
-      <c r="Q80" s="44"/>
-      <c r="R80" s="44"/>
-      <c r="S80" s="44"/>
-      <c r="T80" s="44"/>
-      <c r="U80" s="44"/>
-      <c r="V80" s="44"/>
-      <c r="W80" s="44"/>
-      <c r="X80" s="44"/>
-      <c r="Y80" s="44"/>
-      <c r="Z80" s="44"/>
-      <c r="AA80" s="44"/>
-      <c r="AB80" s="44"/>
-      <c r="AC80" s="44"/>
-      <c r="AD80" s="44"/>
-      <c r="AE80" s="44"/>
-      <c r="AF80" s="44"/>
-      <c r="AG80" s="44"/>
-      <c r="AH80" s="44"/>
-      <c r="AI80" s="44"/>
-      <c r="AJ80" s="44"/>
-      <c r="AK80" s="44"/>
-      <c r="AL80" s="44"/>
-    </row>
-    <row r="87" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="47"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="44"/>
-      <c r="O87" s="44"/>
-      <c r="P87" s="44"/>
-      <c r="Q87" s="44"/>
-      <c r="R87" s="44"/>
-      <c r="S87" s="44"/>
-      <c r="T87" s="44"/>
-      <c r="U87" s="44"/>
-      <c r="V87" s="44"/>
-      <c r="W87" s="44"/>
-      <c r="X87" s="44"/>
-      <c r="Y87" s="44"/>
-      <c r="Z87" s="44"/>
-      <c r="AA87" s="44"/>
-      <c r="AB87" s="44"/>
-      <c r="AC87" s="44"/>
-      <c r="AD87" s="44"/>
-      <c r="AE87" s="44"/>
-      <c r="AF87" s="44"/>
-      <c r="AG87" s="44"/>
-      <c r="AH87" s="44"/>
-      <c r="AI87" s="44"/>
-      <c r="AJ87" s="44"/>
-      <c r="AK87" s="44"/>
-      <c r="AL87" s="44"/>
-    </row>
-    <row r="88" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="44"/>
-      <c r="N88" s="44"/>
-      <c r="O88" s="44"/>
-      <c r="P88" s="44"/>
-      <c r="Q88" s="44"/>
-      <c r="R88" s="44"/>
-      <c r="S88" s="44"/>
-      <c r="T88" s="44"/>
-      <c r="U88" s="44"/>
-      <c r="V88" s="44"/>
-      <c r="W88" s="44"/>
-      <c r="X88" s="44"/>
-      <c r="Y88" s="44"/>
-      <c r="Z88" s="44"/>
-      <c r="AA88" s="44"/>
-      <c r="AB88" s="44"/>
-      <c r="AC88" s="44"/>
-      <c r="AD88" s="44"/>
-      <c r="AE88" s="44"/>
-      <c r="AF88" s="44"/>
-      <c r="AG88" s="44"/>
-      <c r="AH88" s="44"/>
-      <c r="AI88" s="44"/>
-      <c r="AJ88" s="44"/>
-      <c r="AK88" s="44"/>
-      <c r="AL88" s="44"/>
+    <row r="78" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="46"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
+      <c r="R78" s="43"/>
+      <c r="S78" s="43"/>
+      <c r="T78" s="43"/>
+      <c r="U78" s="43"/>
+      <c r="V78" s="43"/>
+      <c r="W78" s="43"/>
+      <c r="X78" s="43"/>
+      <c r="Y78" s="43"/>
+      <c r="Z78" s="43"/>
+      <c r="AA78" s="43"/>
+      <c r="AB78" s="43"/>
+      <c r="AC78" s="43"/>
+      <c r="AD78" s="43"/>
+      <c r="AE78" s="43"/>
+      <c r="AF78" s="43"/>
+      <c r="AG78" s="43"/>
+      <c r="AH78" s="43"/>
+      <c r="AI78" s="43"/>
+      <c r="AJ78" s="43"/>
+      <c r="AK78" s="43"/>
+      <c r="AL78" s="43"/>
+    </row>
+    <row r="79" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="46"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="43"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="43"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="43"/>
+      <c r="U79" s="43"/>
+      <c r="V79" s="43"/>
+      <c r="W79" s="43"/>
+      <c r="X79" s="43"/>
+      <c r="Y79" s="43"/>
+      <c r="Z79" s="43"/>
+      <c r="AA79" s="43"/>
+      <c r="AB79" s="43"/>
+      <c r="AC79" s="43"/>
+      <c r="AD79" s="43"/>
+      <c r="AE79" s="43"/>
+      <c r="AF79" s="43"/>
+      <c r="AG79" s="43"/>
+      <c r="AH79" s="43"/>
+      <c r="AI79" s="43"/>
+      <c r="AJ79" s="43"/>
+      <c r="AK79" s="43"/>
+      <c r="AL79" s="43"/>
+    </row>
+    <row r="80" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="46"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
+      <c r="P80" s="43"/>
+      <c r="Q80" s="43"/>
+      <c r="R80" s="43"/>
+      <c r="S80" s="43"/>
+      <c r="T80" s="43"/>
+      <c r="U80" s="43"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="43"/>
+      <c r="X80" s="43"/>
+      <c r="Y80" s="43"/>
+      <c r="Z80" s="43"/>
+      <c r="AA80" s="43"/>
+      <c r="AB80" s="43"/>
+      <c r="AC80" s="43"/>
+      <c r="AD80" s="43"/>
+      <c r="AE80" s="43"/>
+      <c r="AF80" s="43"/>
+      <c r="AG80" s="43"/>
+      <c r="AH80" s="43"/>
+      <c r="AI80" s="43"/>
+      <c r="AJ80" s="43"/>
+      <c r="AK80" s="43"/>
+      <c r="AL80" s="43"/>
+    </row>
+    <row r="87" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="46"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="43"/>
+      <c r="Q87" s="43"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="43"/>
+      <c r="U87" s="43"/>
+      <c r="V87" s="43"/>
+      <c r="W87" s="43"/>
+      <c r="X87" s="43"/>
+      <c r="Y87" s="43"/>
+      <c r="Z87" s="43"/>
+      <c r="AA87" s="43"/>
+      <c r="AB87" s="43"/>
+      <c r="AC87" s="43"/>
+      <c r="AD87" s="43"/>
+      <c r="AE87" s="43"/>
+      <c r="AF87" s="43"/>
+      <c r="AG87" s="43"/>
+      <c r="AH87" s="43"/>
+      <c r="AI87" s="43"/>
+      <c r="AJ87" s="43"/>
+      <c r="AK87" s="43"/>
+      <c r="AL87" s="43"/>
+    </row>
+    <row r="88" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="46"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="43"/>
+      <c r="P88" s="43"/>
+      <c r="Q88" s="43"/>
+      <c r="R88" s="43"/>
+      <c r="S88" s="43"/>
+      <c r="T88" s="43"/>
+      <c r="U88" s="43"/>
+      <c r="V88" s="43"/>
+      <c r="W88" s="43"/>
+      <c r="X88" s="43"/>
+      <c r="Y88" s="43"/>
+      <c r="Z88" s="43"/>
+      <c r="AA88" s="43"/>
+      <c r="AB88" s="43"/>
+      <c r="AC88" s="43"/>
+      <c r="AD88" s="43"/>
+      <c r="AE88" s="43"/>
+      <c r="AF88" s="43"/>
+      <c r="AG88" s="43"/>
+      <c r="AH88" s="43"/>
+      <c r="AI88" s="43"/>
+      <c r="AJ88" s="43"/>
+      <c r="AK88" s="43"/>
+      <c r="AL88" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
